--- a/SuppXLS/Scen_DomBioPot_Baseline.xlsx
+++ b/SuppXLS/Scen_DomBioPot_Baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92E1CA-9F85-4593-9E8D-486EF62C3933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BCEAD0-8188-4C76-8E3B-4B6C0695963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,6 @@
     <sheet name="BioenergySupply-EnhancedSupply" sheetId="18" r:id="rId2"/>
     <sheet name="Conversions" sheetId="19" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="Euro_GBP">#REF!</definedName>
-    <definedName name="TransportCHi">[1]TransportCost_Inputs!$D$59:$AD$74</definedName>
-    <definedName name="TransportCLo">[1]TransportCost_Inputs!$D$15:$AD$30</definedName>
-    <definedName name="TransportCMe">[1]TransportCost_Inputs!$D$37:$AD$52</definedName>
-    <definedName name="TransportInclude">[1]PickLists!$D$19</definedName>
-    <definedName name="Years">[1]PickLists!$G$9:$G$34</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -477,8 +466,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1020,19 +1009,19 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1184,7 +1173,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1205,7 +1194,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,498 +1239,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Front Sheet"/>
-      <sheetName val="Overview"/>
-      <sheetName val="Set_Scenarios"/>
-      <sheetName val="Results"/>
-      <sheetName val="Targets"/>
-      <sheetName val="Liquid waste cost curve"/>
-      <sheetName val="Wheat,OSR Cost Curve"/>
-      <sheetName val="Willow, Miscanthus Cost Curve"/>
-      <sheetName val="Forestry&amp;Solid BMSW Cost Curve"/>
-      <sheetName val="Cost Curve"/>
-      <sheetName val="Resource Price and Quantity"/>
-      <sheetName val="Resource Summary"/>
-      <sheetName val="Graph Setup"/>
-      <sheetName val="Partial Graphs Setup"/>
-      <sheetName val="2020"/>
-      <sheetName val="2030"/>
-      <sheetName val="PickLists"/>
-      <sheetName val="Forest thinning"/>
-      <sheetName val="Forest_thinning_Inputs"/>
-      <sheetName val="Sawmill residues"/>
-      <sheetName val="Sawmill_residues_Inputs"/>
-      <sheetName val="Waste Wood"/>
-      <sheetName val="Waste_Wood_Inputs"/>
-      <sheetName val="Solid BMSW"/>
-      <sheetName val="Solid_BMSW_Inputs"/>
-      <sheetName val="BMSW"/>
-      <sheetName val="BMSW_Inputs"/>
-      <sheetName val="Tallow"/>
-      <sheetName val="Tallow_Inputs"/>
-      <sheetName val="RVO"/>
-      <sheetName val="RVO_Inputs"/>
-      <sheetName val="Straw"/>
-      <sheetName val="Straw_Inputs"/>
-      <sheetName val="Cattle"/>
-      <sheetName val="Cattle_Inputs "/>
-      <sheetName val="Pigs"/>
-      <sheetName val="Pig_Inputs "/>
-      <sheetName val="Willow"/>
-      <sheetName val="Willow_Inputs"/>
-      <sheetName val="Miscanthus"/>
-      <sheetName val="Miscanthus_Inputs"/>
-      <sheetName val="Wheat"/>
-      <sheetName val="Wheat_Inputs"/>
-      <sheetName val="OSR"/>
-      <sheetName val="OSR_Inputs"/>
-      <sheetName val="Grass_silage"/>
-      <sheetName val="Grass_silage_Inputs"/>
-      <sheetName val="Industrial Food"/>
-      <sheetName val="Industrial Food_Inputs"/>
-      <sheetName val="TransportCost_Inputs"/>
-      <sheetName val="Import Price and Quantity"/>
-      <sheetName val="Graphs for report"/>
-      <sheetName val="DefaultValues"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="9">
-          <cell r="G9">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>2011</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11">
-            <v>2012</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="G19">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>2022</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>2025</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>2026</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>2027</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>2028</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>2029</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="G30">
-            <v>2031</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="G31">
-            <v>2032</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32">
-            <v>2033</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="G33">
-            <v>2034</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34">
-            <v>2035</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49">
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>Forest</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>Sawmill</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>PCRW</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18" t="str">
-            <v>SolidBMSW</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>Tallow</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>RVO</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>Straw</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>Cattle</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>Pig</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>BMSW</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>Willow</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>Miscanthus</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>Wheat</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>OSR</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>Anaerobic</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>IndFood</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>Forest</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>Sawmill</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>PCRW</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40" t="str">
-            <v>SolidBMSW</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>Tallow</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42" t="str">
-            <v>RVO</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43" t="str">
-            <v>Straw</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>Cattle</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>Pig</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>BMSW</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>Willow</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>Miscanthus</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>Wheat</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50" t="str">
-            <v>OSR</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51" t="str">
-            <v>Anaerobic</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>IndFood</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>Forest</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>Sawmill</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>PCRW</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>SolidBMSW</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>Tallow</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>RVO</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>Straw</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="D66" t="str">
-            <v>Cattle</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>Pig</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="D68" t="str">
-            <v>BMSW</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69" t="str">
-            <v>Willow</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70" t="str">
-            <v>Miscanthus</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71" t="str">
-            <v>Wheat</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72" t="str">
-            <v>OSR</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73" t="str">
-            <v>Anaerobic</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74" t="str">
-            <v>IndFood</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23185,7 +22682,7 @@
   <dimension ref="A1:DO69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45484,6 +44981,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="327522a6d5518d67d5f1063e9cc64cf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffd5532d255be23b9fb13183c07e1fd0" ns2:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -45629,12 +45132,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -45645,6 +45142,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C50E7D6-5F29-4A57-95C7-88A3E0AAEB93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45662,15 +45168,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_DomBioPot_Baseline.xlsx
+++ b/SuppXLS/Scen_DomBioPot_Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BCEAD0-8188-4C76-8E3B-4B6C0695963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57015C0-BCA9-4863-A022-4203E8DB5553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="3270" windowWidth="20670" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BioenergySupply-Baseline" sheetId="17" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="111">
   <si>
     <t>ktoe to PJ</t>
   </si>
@@ -459,6 +459,15 @@
   </si>
   <si>
     <t>ACTCOST</t>
+  </si>
+  <si>
+    <t>_S1</t>
+  </si>
+  <si>
+    <t>_S2</t>
+  </si>
+  <si>
+    <t>_S3</t>
   </si>
 </sst>
 </file>
@@ -1567,33 +1576,33 @@
   </sheetPr>
   <dimension ref="A1:DO68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB11" sqref="BB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.265625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="52" customWidth="1"/>
-    <col min="3" max="58" width="9.1328125" style="52"/>
-    <col min="59" max="59" width="14.86328125" style="52" customWidth="1"/>
-    <col min="60" max="60" width="22.3984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.1328125" style="52"/>
-    <col min="63" max="63" width="9.86328125" style="52" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="52" customWidth="1"/>
+    <col min="3" max="58" width="9.140625" style="52"/>
+    <col min="59" max="59" width="28" style="52" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.140625" style="52"/>
+    <col min="63" max="63" width="9.85546875" style="52" customWidth="1"/>
     <col min="64" max="88" width="9" style="2" customWidth="1"/>
-    <col min="89" max="89" width="9.1328125" style="52"/>
-    <col min="90" max="90" width="17.265625" style="52" customWidth="1"/>
-    <col min="91" max="91" width="21.1328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.265625" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.265625" style="52" customWidth="1"/>
-    <col min="94" max="94" width="8.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.1328125" style="52"/>
-    <col min="96" max="119" width="8.86328125" style="2" customWidth="1"/>
-    <col min="120" max="16384" width="9.1328125" style="52"/>
+    <col min="89" max="89" width="9.140625" style="52"/>
+    <col min="90" max="90" width="17.28515625" style="52" customWidth="1"/>
+    <col min="91" max="91" width="21.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.28515625" style="52" customWidth="1"/>
+    <col min="94" max="94" width="8.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.140625" style="52"/>
+    <col min="96" max="119" width="8.85546875" style="2" customWidth="1"/>
+    <col min="120" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +1664,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +1729,7 @@
       <c r="BC2" s="76"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -1887,7 +1896,7 @@
       <c r="CL3" s="71"/>
       <c r="CM3" s="72"/>
     </row>
-    <row r="4" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -1950,7 +1959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -2187,7 +2196,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -2589,7 +2598,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -2753,12 +2762,12 @@
         <v>104.67</v>
       </c>
       <c r="BD7" s="32"/>
-      <c r="BE7" s="52">
-        <v>1</v>
+      <c r="BE7" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG7" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE7</f>
-        <v>MINBIOWOO11</v>
+        <v>MINBIOWOO1_S1</v>
       </c>
       <c r="BH7" s="52" t="str">
         <f t="shared" ref="BH7:BH21" si="3">A7</f>
@@ -2875,7 +2884,7 @@
       </c>
       <c r="CL7" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOWOO11</v>
+        <v>MINBIOWOO1_S1</v>
       </c>
       <c r="CM7" s="52" t="str">
         <f t="shared" si="1"/>
@@ -2991,7 +3000,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -3155,12 +3164,12 @@
         <v>61.805142857142862</v>
       </c>
       <c r="BD8" s="32"/>
-      <c r="BE8" s="52">
-        <v>1</v>
+      <c r="BE8" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG8" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE8</f>
-        <v>MINBIOWOO21</v>
+        <v>MINBIOWOO2_S1</v>
       </c>
       <c r="BH8" s="52" t="str">
         <f t="shared" si="3"/>
@@ -3277,7 +3286,7 @@
       </c>
       <c r="CL8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOWOO21</v>
+        <v>MINBIOWOO2_S1</v>
       </c>
       <c r="CM8" s="52" t="str">
         <f t="shared" si="1"/>
@@ -3393,7 +3402,7 @@
         <v>1.4761904761904763</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -3557,12 +3566,12 @@
         <v>-610</v>
       </c>
       <c r="BD9" s="32"/>
-      <c r="BE9" s="52">
-        <v>1</v>
+      <c r="BE9" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG9" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE9</f>
-        <v>MINBIOMSW11</v>
+        <v>MINBIOMSW1_S1</v>
       </c>
       <c r="BH9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -3679,7 +3688,7 @@
       </c>
       <c r="CL9" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOMSW11</v>
+        <v>MINBIOMSW1_S1</v>
       </c>
       <c r="CM9" s="52" t="str">
         <f t="shared" si="1"/>
@@ -3795,7 +3804,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -3959,12 +3968,12 @@
         <v>365.12790697674421</v>
       </c>
       <c r="BD10" s="32"/>
-      <c r="BE10" s="52">
-        <v>1</v>
+      <c r="BE10" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG10" s="52" t="str">
-        <f>"MINBIOAGRW4"&amp;BE10</f>
-        <v>MINBIOAGRW41</v>
+        <f>"MINBIOTLW"&amp;BE10</f>
+        <v>MINBIOTLW_S1</v>
       </c>
       <c r="BH10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4081,7 +4090,7 @@
       </c>
       <c r="CL10" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW41</v>
+        <v>MINBIOTLW_S1</v>
       </c>
       <c r="CM10" s="52" t="str">
         <f t="shared" si="1"/>
@@ -4197,7 +4206,7 @@
         <v>8.720930232558139</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -4361,12 +4370,12 @@
         <v>648.95400000000006</v>
       </c>
       <c r="BD11" s="32"/>
-      <c r="BE11" s="52">
-        <v>1</v>
+      <c r="BE11" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG11" s="52" t="str">
         <f>"MINBIORVO"&amp;BE11</f>
-        <v>MINBIORVO1</v>
+        <v>MINBIORVO_S1</v>
       </c>
       <c r="BH11" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4483,7 +4492,7 @@
       </c>
       <c r="CL11" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIORVO1</v>
+        <v>MINBIORVO_S1</v>
       </c>
       <c r="CM11" s="52" t="str">
         <f t="shared" si="1"/>
@@ -4599,7 +4608,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -4763,12 +4772,12 @@
         <v>118.26267365456441</v>
       </c>
       <c r="BD12" s="32"/>
-      <c r="BE12" s="52">
-        <v>1</v>
+      <c r="BE12" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG12" s="52" t="str">
-        <f>"MINBIOAGRW1"&amp;BE12</f>
-        <v>MINBIOAGRW11</v>
+        <f>"MINBIOWOO3"&amp;BE12</f>
+        <v>MINBIOWOO3_S1</v>
       </c>
       <c r="BH12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4885,7 +4894,7 @@
       </c>
       <c r="CL12" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW11</v>
+        <v>MINBIOWOO3_S1</v>
       </c>
       <c r="CM12" s="52" t="str">
         <f t="shared" si="1"/>
@@ -5001,7 +5010,7 @@
         <v>2.8246554326589375</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -5165,12 +5174,12 @@
         <v>0</v>
       </c>
       <c r="BD13" s="32"/>
-      <c r="BE13" s="52">
-        <v>1</v>
+      <c r="BE13" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG13" s="52" t="str">
-        <f>"MINBIOAGRW2"&amp;BE13</f>
-        <v>MINBIOAGRW21</v>
+        <f>"MINBIOCATW"&amp;BE13</f>
+        <v>MINBIOCATW_S1</v>
       </c>
       <c r="BH13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5287,7 +5296,7 @@
       </c>
       <c r="CL13" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW21</v>
+        <v>MINBIOCATW_S1</v>
       </c>
       <c r="CM13" s="52" t="str">
         <f t="shared" si="1"/>
@@ -5403,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -5567,12 +5576,12 @@
         <v>0</v>
       </c>
       <c r="BD14" s="32"/>
-      <c r="BE14" s="52">
-        <v>1</v>
+      <c r="BE14" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG14" s="52" t="str">
-        <f>"MINBIOAGRW3"&amp;BE14</f>
-        <v>MINBIOAGRW31</v>
+        <f>"MINBIOPIGW"&amp;BE14</f>
+        <v>MINBIOPIGW_S1</v>
       </c>
       <c r="BH14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5689,7 +5698,7 @@
       </c>
       <c r="CL14" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOAGRW31</v>
+        <v>MINBIOPIGW_S1</v>
       </c>
       <c r="CM14" s="52" t="str">
         <f t="shared" si="1"/>
@@ -5805,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -5969,12 +5978,12 @@
         <v>-1274.2434782608698</v>
       </c>
       <c r="BD15" s="32"/>
-      <c r="BE15" s="52">
-        <v>1</v>
+      <c r="BE15" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG15" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE15</f>
-        <v>MINBIOMSW21</v>
+        <v>MINBIOMSW2_S1</v>
       </c>
       <c r="BH15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -6091,7 +6100,7 @@
       </c>
       <c r="CL15" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOMSW21</v>
+        <v>MINBIOMSW2_S1</v>
       </c>
       <c r="CM15" s="52" t="str">
         <f t="shared" si="1"/>
@@ -6207,7 +6216,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -6609,7 +6618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -7011,7 +7020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -7413,7 +7422,7 @@
         <v>19.01805954934806</v>
       </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -7815,7 +7824,7 @@
         <v>21.5614014897169</v>
       </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -8218,7 +8227,7 @@
         <v>4.6880473492782269</v>
       </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -8382,12 +8391,12 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32"/>
-      <c r="BE21" s="52">
-        <v>1</v>
+      <c r="BE21" s="52" t="s">
+        <v>108</v>
       </c>
       <c r="BG21" s="52" t="str">
-        <f>"MINBIOINDW1"&amp;BE21</f>
-        <v>MINBIOINDW11</v>
+        <f>"MINBIOINDF"&amp;BE21</f>
+        <v>MINBIOINDF_S1</v>
       </c>
       <c r="BH21" s="52" t="str">
         <f t="shared" si="3"/>
@@ -8504,7 +8513,7 @@
       </c>
       <c r="CL21" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOINDW11</v>
+        <v>MINBIOINDF_S1</v>
       </c>
       <c r="CM21" s="52" t="str">
         <f t="shared" si="1"/>
@@ -8620,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -8631,7 +8640,7 @@
       <c r="H22" s="30"/>
       <c r="BD22" s="32"/>
     </row>
-    <row r="23" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -8640,7 +8649,7 @@
       </c>
       <c r="BD23" s="32"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -8706,7 +8715,7 @@
       <c r="BD24" s="32"/>
       <c r="BG24" s="51"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -8873,7 +8882,7 @@
       <c r="CL25" s="71"/>
       <c r="CM25" s="72"/>
     </row>
-    <row r="26" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -8936,7 +8945,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -9173,7 +9182,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -9575,7 +9584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -9739,12 +9748,12 @@
         <v>293.07600000000002</v>
       </c>
       <c r="BD29" s="32"/>
-      <c r="BE29" s="52">
-        <v>2</v>
+      <c r="BE29" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG29" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE29</f>
-        <v>MINBIOWOO12</v>
+        <v>MINBIOWOO1_S2</v>
       </c>
       <c r="BH29" s="52" t="str">
         <f t="shared" ref="BH29:BH43" si="7">A29</f>
@@ -9861,7 +9870,7 @@
       </c>
       <c r="CL29" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOWOO12</v>
+        <v>MINBIOWOO1_S2</v>
       </c>
       <c r="CM29" s="52" t="str">
         <f t="shared" si="5"/>
@@ -9977,7 +9986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -10141,12 +10150,12 @@
         <v>114.78097959183674</v>
       </c>
       <c r="BD30" s="32"/>
-      <c r="BE30" s="52">
-        <v>2</v>
+      <c r="BE30" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG30" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE30</f>
-        <v>MINBIOWOO22</v>
+        <v>MINBIOWOO2_S2</v>
       </c>
       <c r="BH30" s="52" t="str">
         <f t="shared" si="7"/>
@@ -10263,7 +10272,7 @@
       </c>
       <c r="CL30" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOWOO22</v>
+        <v>MINBIOWOO2_S2</v>
       </c>
       <c r="CM30" s="52" t="str">
         <f t="shared" si="5"/>
@@ -10379,7 +10388,7 @@
         <v>2.7414965986394559</v>
       </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -10541,12 +10550,12 @@
         <v>-510</v>
       </c>
       <c r="BD31" s="32"/>
-      <c r="BE31" s="52">
-        <v>2</v>
+      <c r="BE31" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG31" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE31</f>
-        <v>MINBIOMSW12</v>
+        <v>MINBIOMSW1_S2</v>
       </c>
       <c r="BH31" s="52" t="str">
         <f t="shared" si="7"/>
@@ -10663,7 +10672,7 @@
       </c>
       <c r="CL31" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOMSW12</v>
+        <v>MINBIOMSW1_S2</v>
       </c>
       <c r="CM31" s="52" t="str">
         <f t="shared" si="5"/>
@@ -10779,7 +10788,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -10943,12 +10952,12 @@
         <v>425.98255813953489</v>
       </c>
       <c r="BD32" s="32"/>
-      <c r="BE32" s="52">
-        <v>2</v>
+      <c r="BE32" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG32" s="52" t="str">
-        <f>"MINBIOAGRW4"&amp;BE32</f>
-        <v>MINBIOAGRW42</v>
+        <f>"MINBIOTLW"&amp;BE32</f>
+        <v>MINBIOTLW_S2</v>
       </c>
       <c r="BH32" s="52" t="str">
         <f t="shared" si="7"/>
@@ -11065,7 +11074,7 @@
       </c>
       <c r="CL32" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOAGRW42</v>
+        <v>MINBIOTLW_S2</v>
       </c>
       <c r="CM32" s="52" t="str">
         <f t="shared" si="5"/>
@@ -11181,7 +11190,7 @@
         <v>10.174418604651162</v>
       </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -11345,12 +11354,12 @@
         <v>937.37800000000004</v>
       </c>
       <c r="BD33" s="32"/>
-      <c r="BE33" s="52">
-        <v>2</v>
+      <c r="BE33" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG33" s="52" t="str">
         <f>"MINBIORVO"&amp;BE33</f>
-        <v>MINBIORVO2</v>
+        <v>MINBIORVO_S2</v>
       </c>
       <c r="BH33" s="52" t="str">
         <f t="shared" si="7"/>
@@ -11467,7 +11476,7 @@
       </c>
       <c r="CL33" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIORVO2</v>
+        <v>MINBIORVO_S2</v>
       </c>
       <c r="CM33" s="52" t="str">
         <f t="shared" si="5"/>
@@ -11583,7 +11592,7 @@
         <v>22.388888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -11747,12 +11756,12 @@
         <v>177.39401048184664</v>
       </c>
       <c r="BD34" s="32"/>
-      <c r="BE34" s="52">
-        <v>2</v>
+      <c r="BE34" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG34" s="52" t="str">
-        <f>"MINBIOAGRW1"&amp;BE34</f>
-        <v>MINBIOAGRW12</v>
+        <f>"MINBIOWOO3"&amp;BE34</f>
+        <v>MINBIOWOO3_S2</v>
       </c>
       <c r="BH34" s="52" t="str">
         <f t="shared" si="7"/>
@@ -11869,7 +11878,7 @@
       </c>
       <c r="CL34" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOAGRW12</v>
+        <v>MINBIOWOO3_S2</v>
       </c>
       <c r="CM34" s="52" t="str">
         <f t="shared" si="5"/>
@@ -11985,7 +11994,7 @@
         <v>4.2369831489884069</v>
       </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -12149,12 +12158,12 @@
         <v>182.68771444799921</v>
       </c>
       <c r="BD35" s="32"/>
-      <c r="BE35" s="52">
-        <v>2</v>
+      <c r="BE35" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG35" s="52" t="str">
-        <f>"MINBIOAGRW2"&amp;BE35</f>
-        <v>MINBIOAGRW22</v>
+        <f>"MINBIOCATW"&amp;BE35</f>
+        <v>MINBIOCATW_S2</v>
       </c>
       <c r="BH35" s="52" t="str">
         <f t="shared" si="7"/>
@@ -12271,7 +12280,7 @@
       </c>
       <c r="CL35" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOAGRW22</v>
+        <v>MINBIOCATW_S2</v>
       </c>
       <c r="CM35" s="52" t="str">
         <f t="shared" si="5"/>
@@ -12387,7 +12396,7 @@
         <v>4.3634210960160313</v>
       </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -12551,12 +12560,12 @@
         <v>173.21501814328818</v>
       </c>
       <c r="BD36" s="32"/>
-      <c r="BE36" s="52">
-        <v>2</v>
+      <c r="BE36" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG36" s="52" t="str">
-        <f>"MINBIOAGRW3"&amp;BE36</f>
-        <v>MINBIOAGRW32</v>
+        <f>"MINBIOPIGW"&amp;BE36</f>
+        <v>MINBIOPIGW_S2</v>
       </c>
       <c r="BH36" s="52" t="str">
         <f t="shared" si="7"/>
@@ -12673,7 +12682,7 @@
       </c>
       <c r="CL36" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOAGRW32</v>
+        <v>MINBIOPIGW_S2</v>
       </c>
       <c r="CM36" s="52" t="str">
         <f t="shared" si="5"/>
@@ -12789,7 +12798,7 @@
         <v>4.1371696317781641</v>
       </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -12953,12 +12962,12 @@
         <v>-728.13913043478271</v>
       </c>
       <c r="BD37" s="32"/>
-      <c r="BE37" s="52">
-        <v>2</v>
+      <c r="BE37" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG37" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE37</f>
-        <v>MINBIOMSW22</v>
+        <v>MINBIOMSW2_S2</v>
       </c>
       <c r="BH37" s="52" t="str">
         <f t="shared" si="7"/>
@@ -13075,7 +13084,7 @@
       </c>
       <c r="CL37" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOMSW22</v>
+        <v>MINBIOMSW2_S2</v>
       </c>
       <c r="CM37" s="52" t="str">
         <f t="shared" si="5"/>
@@ -13191,7 +13200,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -13593,7 +13602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -13995,7 +14004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -14397,7 +14406,7 @@
         <v>22.821671459217672</v>
       </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -14799,7 +14808,7 @@
         <v>31.910874204781013</v>
       </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -15201,7 +15210,7 @@
         <v>6.0944615540616951</v>
       </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -15365,12 +15374,12 @@
         <v>0</v>
       </c>
       <c r="BD43" s="32"/>
-      <c r="BE43" s="52">
-        <v>2</v>
+      <c r="BE43" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="BG43" s="52" t="str">
-        <f>"MINBIOINDW1"&amp;BE43</f>
-        <v>MINBIOINDW12</v>
+        <f>"MINBIOINDF"&amp;BE43</f>
+        <v>MINBIOINDF_S2</v>
       </c>
       <c r="BH43" s="52" t="str">
         <f t="shared" si="7"/>
@@ -15487,7 +15496,7 @@
       </c>
       <c r="CL43" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOINDW12</v>
+        <v>MINBIOINDF_S2</v>
       </c>
       <c r="CM43" s="52" t="str">
         <f t="shared" si="5"/>
@@ -15603,10 +15612,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
       <c r="BD44" s="32"/>
     </row>
-    <row r="45" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -15615,7 +15624,7 @@
       </c>
       <c r="BD45" s="32"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -15681,7 +15690,7 @@
       <c r="BD46" s="32"/>
       <c r="BG46" s="51"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -15848,7 +15857,7 @@
       <c r="CL47" s="71"/>
       <c r="CM47" s="72"/>
     </row>
-    <row r="48" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -15911,7 +15920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -16148,7 +16157,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -16550,7 +16559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -16714,12 +16723,12 @@
         <v>376.81200000000001</v>
       </c>
       <c r="BD51" s="32"/>
-      <c r="BE51" s="52">
-        <v>3</v>
+      <c r="BE51" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG51" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE51</f>
-        <v>MINBIOWOO13</v>
+        <v>MINBIOWOO1_S3</v>
       </c>
       <c r="BH51" s="52" t="str">
         <f t="shared" ref="BH51:BH65" si="11">A51</f>
@@ -16836,7 +16845,7 @@
       </c>
       <c r="CL51" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOWOO13</v>
+        <v>MINBIOWOO1_S3</v>
       </c>
       <c r="CM51" s="52" t="str">
         <f t="shared" si="9"/>
@@ -16952,7 +16961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -17116,12 +17125,12 @@
         <v>220.73265306122451</v>
       </c>
       <c r="BD52" s="32"/>
-      <c r="BE52" s="52">
-        <v>3</v>
+      <c r="BE52" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG52" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE52</f>
-        <v>MINBIOWOO23</v>
+        <v>MINBIOWOO2_S3</v>
       </c>
       <c r="BH52" s="52" t="str">
         <f t="shared" si="11"/>
@@ -17238,7 +17247,7 @@
       </c>
       <c r="CL52" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOWOO23</v>
+        <v>MINBIOWOO2_S3</v>
       </c>
       <c r="CM52" s="52" t="str">
         <f t="shared" si="9"/>
@@ -17354,7 +17363,7 @@
         <v>5.2721088435374153</v>
       </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -17518,12 +17527,12 @@
         <v>-370</v>
       </c>
       <c r="BD53" s="32"/>
-      <c r="BE53" s="52">
-        <v>3</v>
+      <c r="BE53" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG53" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE53</f>
-        <v>MINBIOMSW13</v>
+        <v>MINBIOMSW1_S3</v>
       </c>
       <c r="BH53" s="52" t="str">
         <f t="shared" si="11"/>
@@ -17640,7 +17649,7 @@
       </c>
       <c r="CL53" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOMSW13</v>
+        <v>MINBIOMSW1_S3</v>
       </c>
       <c r="CM53" s="52" t="str">
         <f t="shared" si="9"/>
@@ -17756,7 +17765,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -17920,12 +17929,12 @@
         <v>462.49534883720935</v>
       </c>
       <c r="BD54" s="32"/>
-      <c r="BE54" s="52">
-        <v>3</v>
+      <c r="BE54" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG54" s="52" t="str">
-        <f>"MINBIOAGRW4"&amp;BE54</f>
-        <v>MINBIOAGRW43</v>
+        <f>"MINBIOTLW"&amp;BE54</f>
+        <v>MINBIOTLW_S3</v>
       </c>
       <c r="BH54" s="52" t="str">
         <f t="shared" si="11"/>
@@ -18042,7 +18051,7 @@
       </c>
       <c r="CL54" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOAGRW43</v>
+        <v>MINBIOTLW_S3</v>
       </c>
       <c r="CM54" s="52" t="str">
         <f t="shared" si="9"/>
@@ -18158,7 +18167,7 @@
         <v>11.046511627906977</v>
       </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -18322,12 +18331,12 @@
         <v>1163</v>
       </c>
       <c r="BD55" s="32"/>
-      <c r="BE55" s="52">
-        <v>3</v>
+      <c r="BE55" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG55" s="52" t="str">
         <f>"MINBIORVO"&amp;BE55</f>
-        <v>MINBIORVO3</v>
+        <v>MINBIORVO_S3</v>
       </c>
       <c r="BH55" s="52" t="str">
         <f t="shared" si="11"/>
@@ -18444,7 +18453,7 @@
       </c>
       <c r="CL55" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIORVO3</v>
+        <v>MINBIORVO_S3</v>
       </c>
       <c r="CM55" s="52" t="str">
         <f t="shared" si="9"/>
@@ -18560,7 +18569,7 @@
         <v>27.777777777777775</v>
       </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -18724,12 +18733,12 @@
         <v>295.65668413641106</v>
       </c>
       <c r="BD56" s="32"/>
-      <c r="BE56" s="52">
-        <v>3</v>
+      <c r="BE56" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG56" s="52" t="str">
-        <f>"MINBIOAGRW1"&amp;BE56</f>
-        <v>MINBIOAGRW13</v>
+        <f>"MINBIOWOO3"&amp;BE56</f>
+        <v>MINBIOWOO3_S3</v>
       </c>
       <c r="BH56" s="52" t="str">
         <f t="shared" si="11"/>
@@ -18846,7 +18855,7 @@
       </c>
       <c r="CL56" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOAGRW13</v>
+        <v>MINBIOWOO3_S3</v>
       </c>
       <c r="CM56" s="52" t="str">
         <f t="shared" si="9"/>
@@ -18962,7 +18971,7 @@
         <v>7.0616385816473448</v>
       </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -19126,12 +19135,12 @@
         <v>395.00046367134962</v>
       </c>
       <c r="BD57" s="32"/>
-      <c r="BE57" s="52">
-        <v>3</v>
+      <c r="BE57" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG57" s="52" t="str">
-        <f>"MINBIOAGRW2"&amp;BE57</f>
-        <v>MINBIOAGRW23</v>
+        <f>"MINBIOCATW"&amp;BE57</f>
+        <v>MINBIOCATW_S3</v>
       </c>
       <c r="BH57" s="52" t="str">
         <f t="shared" si="11"/>
@@ -19248,7 +19257,7 @@
       </c>
       <c r="CL57" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOAGRW23</v>
+        <v>MINBIOCATW_S3</v>
       </c>
       <c r="CM57" s="52" t="str">
         <f t="shared" si="9"/>
@@ -19364,7 +19373,7 @@
         <v>9.434423991386014</v>
       </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -19528,12 +19537,12 @@
         <v>374.5189581476501</v>
       </c>
       <c r="BD58" s="32"/>
-      <c r="BE58" s="52">
-        <v>3</v>
+      <c r="BE58" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG58" s="52" t="str">
-        <f>"MINBIOAGRW3"&amp;BE58</f>
-        <v>MINBIOAGRW33</v>
+        <f>"MINBIOPIGW"&amp;BE58</f>
+        <v>MINBIOPIGW_S3</v>
       </c>
       <c r="BH58" s="52" t="str">
         <f t="shared" si="11"/>
@@ -19650,7 +19659,7 @@
       </c>
       <c r="CL58" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOAGRW33</v>
+        <v>MINBIOPIGW_S3</v>
       </c>
       <c r="CM58" s="52" t="str">
         <f t="shared" si="9"/>
@@ -19766,7 +19775,7 @@
         <v>8.9452316362771107</v>
       </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -19930,12 +19939,12 @@
         <v>0</v>
       </c>
       <c r="BD59" s="32"/>
-      <c r="BE59" s="52">
-        <v>3</v>
+      <c r="BE59" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG59" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE59</f>
-        <v>MINBIOMSW23</v>
+        <v>MINBIOMSW2_S3</v>
       </c>
       <c r="BH59" s="52" t="str">
         <f t="shared" si="11"/>
@@ -20052,7 +20061,7 @@
       </c>
       <c r="CL59" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOMSW23</v>
+        <v>MINBIOMSW2_S3</v>
       </c>
       <c r="CM59" s="52" t="str">
         <f t="shared" si="9"/>
@@ -20168,7 +20177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -20570,7 +20579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -20972,7 +20981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -21374,7 +21383,7 @@
         <v>28.527089324022089</v>
       </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -21776,7 +21785,7 @@
         <v>39.888592755976262</v>
       </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -22178,7 +22187,7 @@
         <v>12.18892310812339</v>
       </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -22342,12 +22351,12 @@
         <v>0</v>
       </c>
       <c r="BD65" s="32"/>
-      <c r="BE65" s="52">
-        <v>3</v>
+      <c r="BE65" s="52" t="s">
+        <v>110</v>
       </c>
       <c r="BG65" s="52" t="str">
-        <f>"MINBIOINDW1"&amp;BE65</f>
-        <v>MINBIOINDW13</v>
+        <f>"MINBIOINDF"&amp;BE65</f>
+        <v>MINBIOINDF_S3</v>
       </c>
       <c r="BH65" s="52" t="str">
         <f t="shared" si="11"/>
@@ -22464,7 +22473,7 @@
       </c>
       <c r="CL65" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOINDW13</v>
+        <v>MINBIOINDF_S3</v>
       </c>
       <c r="CM65" s="52" t="str">
         <f t="shared" si="9"/>
@@ -22580,7 +22589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -22638,7 +22647,7 @@
       <c r="BC66" s="22"/>
       <c r="BD66" s="21"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>155.46564495117042</v>
@@ -22647,7 +22656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
       <c r="AB68" s="20">
         <f>SUM(AB6:AB21,AB28:AB43,AB50:AB65)</f>
         <v>2829139.6648809365</v>
@@ -22681,32 +22690,32 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DO69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.73046875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="52" customWidth="1"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.3984375" style="52" customWidth="1"/>
+    <col min="3" max="12" width="9.42578125" style="52" customWidth="1"/>
     <col min="13" max="28" width="11" style="52" customWidth="1"/>
-    <col min="29" max="58" width="9.1328125" style="52"/>
-    <col min="59" max="59" width="18.265625" style="52" customWidth="1"/>
-    <col min="60" max="60" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.73046875" style="52" bestFit="1" customWidth="1"/>
-    <col min="64" max="89" width="9.1328125" style="52"/>
-    <col min="90" max="90" width="17.1328125" style="52" customWidth="1"/>
-    <col min="91" max="91" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.86328125" style="52" customWidth="1"/>
-    <col min="94" max="94" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="9.1328125" style="52"/>
+    <col min="29" max="58" width="9.140625" style="52"/>
+    <col min="59" max="59" width="18.28515625" style="52" customWidth="1"/>
+    <col min="60" max="60" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="64" max="89" width="9.140625" style="52"/>
+    <col min="90" max="90" width="17.140625" style="52" customWidth="1"/>
+    <col min="91" max="91" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.85546875" style="52" customWidth="1"/>
+    <col min="94" max="94" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -22768,7 +22777,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -22833,7 +22842,7 @@
       <c r="BC2" s="76"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -23049,7 +23058,7 @@
       <c r="DN3" s="2"/>
       <c r="DO3" s="2"/>
     </row>
-    <row r="4" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -23161,7 +23170,7 @@
       <c r="DN4" s="2"/>
       <c r="DO4" s="2"/>
     </row>
-    <row r="5" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -23398,7 +23407,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -23800,7 +23809,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -24202,7 +24211,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -24604,7 +24613,7 @@
         <v>1.4761904761904763</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -25006,7 +25015,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -25408,7 +25417,7 @@
         <v>8.720930232558139</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -25810,7 +25819,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -26212,7 +26221,7 @@
         <v>2.8246554326589375</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -26614,7 +26623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -27016,7 +27025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -27418,7 +27427,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -27820,7 +27829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -28222,7 +28231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -28624,7 +28633,7 @@
         <v>19.01805954934806</v>
       </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -29026,7 +29035,7 @@
         <v>21.5614014897169</v>
       </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -29429,7 +29438,7 @@
         <v>4.6880473492782269</v>
       </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -29831,7 +29840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="70">
@@ -29989,7 +29998,7 @@
       <c r="DN22" s="2"/>
       <c r="DO22" s="2"/>
     </row>
-    <row r="23" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -30047,7 +30056,7 @@
       <c r="DN23" s="2"/>
       <c r="DO23" s="2"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -30162,7 +30171,7 @@
       <c r="DN24" s="2"/>
       <c r="DO24" s="2"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -30378,7 +30387,7 @@
       <c r="DN25" s="2"/>
       <c r="DO25" s="2"/>
     </row>
-    <row r="26" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -30490,7 +30499,7 @@
       <c r="DN26" s="2"/>
       <c r="DO26" s="2"/>
     </row>
-    <row r="27" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -30727,7 +30736,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -31129,7 +31138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -31531,7 +31540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -31933,7 +31942,7 @@
         <v>2.7414965986394559</v>
       </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -32333,7 +32342,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -32735,7 +32744,7 @@
         <v>10.174418604651162</v>
       </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -33137,7 +33146,7 @@
         <v>22.388888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -33539,7 +33548,7 @@
         <v>4.2369831489884069</v>
       </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -33941,7 +33950,7 @@
         <v>4.3634210960160313</v>
       </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -34343,7 +34352,7 @@
         <v>4.1371696317781641</v>
       </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -34745,7 +34754,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -35147,7 +35156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -35549,7 +35558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -35951,7 +35960,7 @@
         <v>22.821671459217672</v>
       </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -36353,7 +36362,7 @@
         <v>31.910874204781013</v>
       </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -36755,7 +36764,7 @@
         <v>6.0944615540616951</v>
       </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -37157,7 +37166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
       <c r="K44" s="20">
         <f>SUM(K28:K43)</f>
         <v>188768.43828488313</v>
@@ -37281,7 +37290,7 @@
       <c r="DN44" s="2"/>
       <c r="DO44" s="2"/>
     </row>
-    <row r="45" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -37339,7 +37348,7 @@
       <c r="DN45" s="2"/>
       <c r="DO45" s="2"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -37454,7 +37463,7 @@
       <c r="DN46" s="2"/>
       <c r="DO46" s="2"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -37670,7 +37679,7 @@
       <c r="DN47" s="2"/>
       <c r="DO47" s="2"/>
     </row>
-    <row r="48" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -37782,7 +37791,7 @@
       <c r="DN48" s="2"/>
       <c r="DO48" s="2"/>
     </row>
-    <row r="49" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -38019,7 +38028,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -38421,7 +38430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -38823,7 +38832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -39225,7 +39234,7 @@
         <v>5.2721088435374153</v>
       </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -39627,7 +39636,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -40029,7 +40038,7 @@
         <v>11.046511627906977</v>
       </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -40431,7 +40440,7 @@
         <v>27.777777777777775</v>
       </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -40833,7 +40842,7 @@
         <v>7.0616385816473448</v>
       </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -41235,7 +41244,7 @@
         <v>9.434423991386014</v>
       </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -41637,7 +41646,7 @@
         <v>8.9452316362771107</v>
       </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -42039,7 +42048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -42441,7 +42450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -42843,7 +42852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -43245,7 +43254,7 @@
         <v>28.527089324022089</v>
       </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -43647,7 +43656,7 @@
         <v>39.888592755976262</v>
       </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -44049,7 +44058,7 @@
         <v>12.18892310812339</v>
       </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -44451,7 +44460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -44564,7 +44573,7 @@
       <c r="BD66" s="21"/>
       <c r="CJ66" s="2"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>188.50791202135417</v>
@@ -44573,7 +44582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
       <c r="E68" s="69"/>
@@ -44612,7 +44621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:119" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:119" x14ac:dyDescent="0.25">
       <c r="AB69" s="16"/>
     </row>
   </sheetData>
@@ -44638,14 +44647,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
@@ -44653,7 +44662,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>102</v>
       </c>
@@ -44661,12 +44670,12 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="58" t="s">
         <v>101</v>
@@ -44682,7 +44691,7 @@
       <c r="I6" s="81"/>
       <c r="J6" s="82"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>2000</v>
       </c>
@@ -44706,7 +44715,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>2001</v>
       </c>
@@ -44733,7 +44742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>2002</v>
       </c>
@@ -44764,7 +44773,7 @@
         <v>106.04453870625663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <v>2003</v>
       </c>
@@ -44795,7 +44804,7 @@
         <v>126.10340479192939</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>2004</v>
       </c>
@@ -44822,7 +44831,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <v>2005</v>
       </c>
@@ -44841,7 +44850,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>2006</v>
       </c>
@@ -44853,7 +44862,7 @@
         <v>113.94721389560772</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>2007</v>
       </c>
@@ -44865,7 +44874,7 @@
         <v>116.6819470291023</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
         <v>2008</v>
       </c>
@@ -44877,7 +44886,7 @@
         <v>120.99917906917909</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <v>2009</v>
       </c>
@@ -44889,7 +44898,7 @@
         <v>122.20917085987088</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>2010</v>
       </c>
@@ -44901,7 +44910,7 @@
         <v>124.77556344792816</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <v>2011</v>
       </c>
@@ -44917,7 +44926,7 @@
         <v>0.77734139438083416</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <v>2012</v>
       </c>
@@ -44929,7 +44938,7 @@
         <v>131.98833966859911</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>2013</v>
       </c>
@@ -44941,7 +44950,7 @@
         <v>133.9681647636281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>2014</v>
       </c>
@@ -44953,7 +44962,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="65">
         <v>2015</v>
       </c>
@@ -44965,7 +44974,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>98</v>
       </c>
@@ -44981,9 +44990,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45133,19 +45145,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45169,9 +45177,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DomBioPot_Baseline.xlsx
+++ b/SuppXLS/Scen_DomBioPot_Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57015C0-BCA9-4863-A022-4203E8DB5553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BCEAD0-8188-4C76-8E3B-4B6C0695963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3270" windowWidth="20670" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BioenergySupply-Baseline" sheetId="17" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="108">
   <si>
     <t>ktoe to PJ</t>
   </si>
@@ -459,15 +459,6 @@
   </si>
   <si>
     <t>ACTCOST</t>
-  </si>
-  <si>
-    <t>_S1</t>
-  </si>
-  <si>
-    <t>_S2</t>
-  </si>
-  <si>
-    <t>_S3</t>
   </si>
 </sst>
 </file>
@@ -1576,33 +1567,33 @@
   </sheetPr>
   <dimension ref="A1:DO68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB11" sqref="BB11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="52" customWidth="1"/>
-    <col min="3" max="58" width="9.140625" style="52"/>
-    <col min="59" max="59" width="28" style="52" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.140625" style="52"/>
-    <col min="63" max="63" width="9.85546875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="52" customWidth="1"/>
+    <col min="3" max="58" width="9.1328125" style="52"/>
+    <col min="59" max="59" width="14.86328125" style="52" customWidth="1"/>
+    <col min="60" max="60" width="22.3984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.1328125" style="52"/>
+    <col min="63" max="63" width="9.86328125" style="52" customWidth="1"/>
     <col min="64" max="88" width="9" style="2" customWidth="1"/>
-    <col min="89" max="89" width="9.140625" style="52"/>
-    <col min="90" max="90" width="17.28515625" style="52" customWidth="1"/>
-    <col min="91" max="91" width="21.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.28515625" style="52" customWidth="1"/>
-    <col min="94" max="94" width="8.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.140625" style="52"/>
-    <col min="96" max="119" width="8.85546875" style="2" customWidth="1"/>
-    <col min="120" max="16384" width="9.140625" style="52"/>
+    <col min="89" max="89" width="9.1328125" style="52"/>
+    <col min="90" max="90" width="17.265625" style="52" customWidth="1"/>
+    <col min="91" max="91" width="21.1328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.265625" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.265625" style="52" customWidth="1"/>
+    <col min="94" max="94" width="8.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.1328125" style="52"/>
+    <col min="96" max="119" width="8.86328125" style="2" customWidth="1"/>
+    <col min="120" max="16384" width="9.1328125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1655,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1720,7 @@
       <c r="BC2" s="76"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:119" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -1896,7 +1887,7 @@
       <c r="CL3" s="71"/>
       <c r="CM3" s="72"/>
     </row>
-    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -1959,7 +1950,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -2196,7 +2187,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -2598,7 +2589,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -2762,12 +2753,12 @@
         <v>104.67</v>
       </c>
       <c r="BD7" s="32"/>
-      <c r="BE7" s="52" t="s">
-        <v>108</v>
+      <c r="BE7" s="52">
+        <v>1</v>
       </c>
       <c r="BG7" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE7</f>
-        <v>MINBIOWOO1_S1</v>
+        <v>MINBIOWOO11</v>
       </c>
       <c r="BH7" s="52" t="str">
         <f t="shared" ref="BH7:BH21" si="3">A7</f>
@@ -2884,7 +2875,7 @@
       </c>
       <c r="CL7" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOWOO1_S1</v>
+        <v>MINBIOWOO11</v>
       </c>
       <c r="CM7" s="52" t="str">
         <f t="shared" si="1"/>
@@ -3000,7 +2991,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -3164,12 +3155,12 @@
         <v>61.805142857142862</v>
       </c>
       <c r="BD8" s="32"/>
-      <c r="BE8" s="52" t="s">
-        <v>108</v>
+      <c r="BE8" s="52">
+        <v>1</v>
       </c>
       <c r="BG8" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE8</f>
-        <v>MINBIOWOO2_S1</v>
+        <v>MINBIOWOO21</v>
       </c>
       <c r="BH8" s="52" t="str">
         <f t="shared" si="3"/>
@@ -3286,7 +3277,7 @@
       </c>
       <c r="CL8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOWOO2_S1</v>
+        <v>MINBIOWOO21</v>
       </c>
       <c r="CM8" s="52" t="str">
         <f t="shared" si="1"/>
@@ -3402,7 +3393,7 @@
         <v>1.4761904761904763</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -3566,12 +3557,12 @@
         <v>-610</v>
       </c>
       <c r="BD9" s="32"/>
-      <c r="BE9" s="52" t="s">
-        <v>108</v>
+      <c r="BE9" s="52">
+        <v>1</v>
       </c>
       <c r="BG9" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE9</f>
-        <v>MINBIOMSW1_S1</v>
+        <v>MINBIOMSW11</v>
       </c>
       <c r="BH9" s="52" t="str">
         <f t="shared" si="3"/>
@@ -3688,7 +3679,7 @@
       </c>
       <c r="CL9" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOMSW1_S1</v>
+        <v>MINBIOMSW11</v>
       </c>
       <c r="CM9" s="52" t="str">
         <f t="shared" si="1"/>
@@ -3804,7 +3795,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -3968,12 +3959,12 @@
         <v>365.12790697674421</v>
       </c>
       <c r="BD10" s="32"/>
-      <c r="BE10" s="52" t="s">
-        <v>108</v>
+      <c r="BE10" s="52">
+        <v>1</v>
       </c>
       <c r="BG10" s="52" t="str">
-        <f>"MINBIOTLW"&amp;BE10</f>
-        <v>MINBIOTLW_S1</v>
+        <f>"MINBIOAGRW4"&amp;BE10</f>
+        <v>MINBIOAGRW41</v>
       </c>
       <c r="BH10" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4090,7 +4081,7 @@
       </c>
       <c r="CL10" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOTLW_S1</v>
+        <v>MINBIOAGRW41</v>
       </c>
       <c r="CM10" s="52" t="str">
         <f t="shared" si="1"/>
@@ -4206,7 +4197,7 @@
         <v>8.720930232558139</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -4370,12 +4361,12 @@
         <v>648.95400000000006</v>
       </c>
       <c r="BD11" s="32"/>
-      <c r="BE11" s="52" t="s">
-        <v>108</v>
+      <c r="BE11" s="52">
+        <v>1</v>
       </c>
       <c r="BG11" s="52" t="str">
         <f>"MINBIORVO"&amp;BE11</f>
-        <v>MINBIORVO_S1</v>
+        <v>MINBIORVO1</v>
       </c>
       <c r="BH11" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4492,7 +4483,7 @@
       </c>
       <c r="CL11" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIORVO_S1</v>
+        <v>MINBIORVO1</v>
       </c>
       <c r="CM11" s="52" t="str">
         <f t="shared" si="1"/>
@@ -4608,7 +4599,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -4772,12 +4763,12 @@
         <v>118.26267365456441</v>
       </c>
       <c r="BD12" s="32"/>
-      <c r="BE12" s="52" t="s">
-        <v>108</v>
+      <c r="BE12" s="52">
+        <v>1</v>
       </c>
       <c r="BG12" s="52" t="str">
-        <f>"MINBIOWOO3"&amp;BE12</f>
-        <v>MINBIOWOO3_S1</v>
+        <f>"MINBIOAGRW1"&amp;BE12</f>
+        <v>MINBIOAGRW11</v>
       </c>
       <c r="BH12" s="52" t="str">
         <f t="shared" si="3"/>
@@ -4894,7 +4885,7 @@
       </c>
       <c r="CL12" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOWOO3_S1</v>
+        <v>MINBIOAGRW11</v>
       </c>
       <c r="CM12" s="52" t="str">
         <f t="shared" si="1"/>
@@ -5010,7 +5001,7 @@
         <v>2.8246554326589375</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -5174,12 +5165,12 @@
         <v>0</v>
       </c>
       <c r="BD13" s="32"/>
-      <c r="BE13" s="52" t="s">
-        <v>108</v>
+      <c r="BE13" s="52">
+        <v>1</v>
       </c>
       <c r="BG13" s="52" t="str">
-        <f>"MINBIOCATW"&amp;BE13</f>
-        <v>MINBIOCATW_S1</v>
+        <f>"MINBIOAGRW2"&amp;BE13</f>
+        <v>MINBIOAGRW21</v>
       </c>
       <c r="BH13" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5296,7 +5287,7 @@
       </c>
       <c r="CL13" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOCATW_S1</v>
+        <v>MINBIOAGRW21</v>
       </c>
       <c r="CM13" s="52" t="str">
         <f t="shared" si="1"/>
@@ -5412,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -5576,12 +5567,12 @@
         <v>0</v>
       </c>
       <c r="BD14" s="32"/>
-      <c r="BE14" s="52" t="s">
-        <v>108</v>
+      <c r="BE14" s="52">
+        <v>1</v>
       </c>
       <c r="BG14" s="52" t="str">
-        <f>"MINBIOPIGW"&amp;BE14</f>
-        <v>MINBIOPIGW_S1</v>
+        <f>"MINBIOAGRW3"&amp;BE14</f>
+        <v>MINBIOAGRW31</v>
       </c>
       <c r="BH14" s="52" t="str">
         <f t="shared" si="3"/>
@@ -5698,7 +5689,7 @@
       </c>
       <c r="CL14" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOPIGW_S1</v>
+        <v>MINBIOAGRW31</v>
       </c>
       <c r="CM14" s="52" t="str">
         <f t="shared" si="1"/>
@@ -5814,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -5978,12 +5969,12 @@
         <v>-1274.2434782608698</v>
       </c>
       <c r="BD15" s="32"/>
-      <c r="BE15" s="52" t="s">
-        <v>108</v>
+      <c r="BE15" s="52">
+        <v>1</v>
       </c>
       <c r="BG15" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE15</f>
-        <v>MINBIOMSW2_S1</v>
+        <v>MINBIOMSW21</v>
       </c>
       <c r="BH15" s="52" t="str">
         <f t="shared" si="3"/>
@@ -6100,7 +6091,7 @@
       </c>
       <c r="CL15" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOMSW2_S1</v>
+        <v>MINBIOMSW21</v>
       </c>
       <c r="CM15" s="52" t="str">
         <f t="shared" si="1"/>
@@ -6216,7 +6207,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -6618,7 +6609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -7020,7 +7011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -7422,7 +7413,7 @@
         <v>19.01805954934806</v>
       </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -7824,7 +7815,7 @@
         <v>21.5614014897169</v>
       </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -8227,7 +8218,7 @@
         <v>4.6880473492782269</v>
       </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -8391,12 +8382,12 @@
         <v>0</v>
       </c>
       <c r="BD21" s="32"/>
-      <c r="BE21" s="52" t="s">
-        <v>108</v>
+      <c r="BE21" s="52">
+        <v>1</v>
       </c>
       <c r="BG21" s="52" t="str">
-        <f>"MINBIOINDF"&amp;BE21</f>
-        <v>MINBIOINDF_S1</v>
+        <f>"MINBIOINDW1"&amp;BE21</f>
+        <v>MINBIOINDW11</v>
       </c>
       <c r="BH21" s="52" t="str">
         <f t="shared" si="3"/>
@@ -8513,7 +8504,7 @@
       </c>
       <c r="CL21" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIOINDF_S1</v>
+        <v>MINBIOINDW11</v>
       </c>
       <c r="CM21" s="52" t="str">
         <f t="shared" si="1"/>
@@ -8629,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -8640,7 +8631,7 @@
       <c r="H22" s="30"/>
       <c r="BD22" s="32"/>
     </row>
-    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -8649,7 +8640,7 @@
       </c>
       <c r="BD23" s="32"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -8715,7 +8706,7 @@
       <c r="BD24" s="32"/>
       <c r="BG24" s="51"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -8882,7 +8873,7 @@
       <c r="CL25" s="71"/>
       <c r="CM25" s="72"/>
     </row>
-    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -8945,7 +8936,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -9182,7 +9173,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -9584,7 +9575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -9748,12 +9739,12 @@
         <v>293.07600000000002</v>
       </c>
       <c r="BD29" s="32"/>
-      <c r="BE29" s="52" t="s">
-        <v>109</v>
+      <c r="BE29" s="52">
+        <v>2</v>
       </c>
       <c r="BG29" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE29</f>
-        <v>MINBIOWOO1_S2</v>
+        <v>MINBIOWOO12</v>
       </c>
       <c r="BH29" s="52" t="str">
         <f t="shared" ref="BH29:BH43" si="7">A29</f>
@@ -9870,7 +9861,7 @@
       </c>
       <c r="CL29" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOWOO1_S2</v>
+        <v>MINBIOWOO12</v>
       </c>
       <c r="CM29" s="52" t="str">
         <f t="shared" si="5"/>
@@ -9986,7 +9977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -10150,12 +10141,12 @@
         <v>114.78097959183674</v>
       </c>
       <c r="BD30" s="32"/>
-      <c r="BE30" s="52" t="s">
-        <v>109</v>
+      <c r="BE30" s="52">
+        <v>2</v>
       </c>
       <c r="BG30" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE30</f>
-        <v>MINBIOWOO2_S2</v>
+        <v>MINBIOWOO22</v>
       </c>
       <c r="BH30" s="52" t="str">
         <f t="shared" si="7"/>
@@ -10272,7 +10263,7 @@
       </c>
       <c r="CL30" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOWOO2_S2</v>
+        <v>MINBIOWOO22</v>
       </c>
       <c r="CM30" s="52" t="str">
         <f t="shared" si="5"/>
@@ -10388,7 +10379,7 @@
         <v>2.7414965986394559</v>
       </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -10550,12 +10541,12 @@
         <v>-510</v>
       </c>
       <c r="BD31" s="32"/>
-      <c r="BE31" s="52" t="s">
-        <v>109</v>
+      <c r="BE31" s="52">
+        <v>2</v>
       </c>
       <c r="BG31" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE31</f>
-        <v>MINBIOMSW1_S2</v>
+        <v>MINBIOMSW12</v>
       </c>
       <c r="BH31" s="52" t="str">
         <f t="shared" si="7"/>
@@ -10672,7 +10663,7 @@
       </c>
       <c r="CL31" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOMSW1_S2</v>
+        <v>MINBIOMSW12</v>
       </c>
       <c r="CM31" s="52" t="str">
         <f t="shared" si="5"/>
@@ -10788,7 +10779,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -10952,12 +10943,12 @@
         <v>425.98255813953489</v>
       </c>
       <c r="BD32" s="32"/>
-      <c r="BE32" s="52" t="s">
-        <v>109</v>
+      <c r="BE32" s="52">
+        <v>2</v>
       </c>
       <c r="BG32" s="52" t="str">
-        <f>"MINBIOTLW"&amp;BE32</f>
-        <v>MINBIOTLW_S2</v>
+        <f>"MINBIOAGRW4"&amp;BE32</f>
+        <v>MINBIOAGRW42</v>
       </c>
       <c r="BH32" s="52" t="str">
         <f t="shared" si="7"/>
@@ -11074,7 +11065,7 @@
       </c>
       <c r="CL32" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOTLW_S2</v>
+        <v>MINBIOAGRW42</v>
       </c>
       <c r="CM32" s="52" t="str">
         <f t="shared" si="5"/>
@@ -11190,7 +11181,7 @@
         <v>10.174418604651162</v>
       </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -11354,12 +11345,12 @@
         <v>937.37800000000004</v>
       </c>
       <c r="BD33" s="32"/>
-      <c r="BE33" s="52" t="s">
-        <v>109</v>
+      <c r="BE33" s="52">
+        <v>2</v>
       </c>
       <c r="BG33" s="52" t="str">
         <f>"MINBIORVO"&amp;BE33</f>
-        <v>MINBIORVO_S2</v>
+        <v>MINBIORVO2</v>
       </c>
       <c r="BH33" s="52" t="str">
         <f t="shared" si="7"/>
@@ -11476,7 +11467,7 @@
       </c>
       <c r="CL33" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIORVO_S2</v>
+        <v>MINBIORVO2</v>
       </c>
       <c r="CM33" s="52" t="str">
         <f t="shared" si="5"/>
@@ -11592,7 +11583,7 @@
         <v>22.388888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -11756,12 +11747,12 @@
         <v>177.39401048184664</v>
       </c>
       <c r="BD34" s="32"/>
-      <c r="BE34" s="52" t="s">
-        <v>109</v>
+      <c r="BE34" s="52">
+        <v>2</v>
       </c>
       <c r="BG34" s="52" t="str">
-        <f>"MINBIOWOO3"&amp;BE34</f>
-        <v>MINBIOWOO3_S2</v>
+        <f>"MINBIOAGRW1"&amp;BE34</f>
+        <v>MINBIOAGRW12</v>
       </c>
       <c r="BH34" s="52" t="str">
         <f t="shared" si="7"/>
@@ -11878,7 +11869,7 @@
       </c>
       <c r="CL34" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOWOO3_S2</v>
+        <v>MINBIOAGRW12</v>
       </c>
       <c r="CM34" s="52" t="str">
         <f t="shared" si="5"/>
@@ -11994,7 +11985,7 @@
         <v>4.2369831489884069</v>
       </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -12158,12 +12149,12 @@
         <v>182.68771444799921</v>
       </c>
       <c r="BD35" s="32"/>
-      <c r="BE35" s="52" t="s">
-        <v>109</v>
+      <c r="BE35" s="52">
+        <v>2</v>
       </c>
       <c r="BG35" s="52" t="str">
-        <f>"MINBIOCATW"&amp;BE35</f>
-        <v>MINBIOCATW_S2</v>
+        <f>"MINBIOAGRW2"&amp;BE35</f>
+        <v>MINBIOAGRW22</v>
       </c>
       <c r="BH35" s="52" t="str">
         <f t="shared" si="7"/>
@@ -12280,7 +12271,7 @@
       </c>
       <c r="CL35" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOCATW_S2</v>
+        <v>MINBIOAGRW22</v>
       </c>
       <c r="CM35" s="52" t="str">
         <f t="shared" si="5"/>
@@ -12396,7 +12387,7 @@
         <v>4.3634210960160313</v>
       </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -12560,12 +12551,12 @@
         <v>173.21501814328818</v>
       </c>
       <c r="BD36" s="32"/>
-      <c r="BE36" s="52" t="s">
-        <v>109</v>
+      <c r="BE36" s="52">
+        <v>2</v>
       </c>
       <c r="BG36" s="52" t="str">
-        <f>"MINBIOPIGW"&amp;BE36</f>
-        <v>MINBIOPIGW_S2</v>
+        <f>"MINBIOAGRW3"&amp;BE36</f>
+        <v>MINBIOAGRW32</v>
       </c>
       <c r="BH36" s="52" t="str">
         <f t="shared" si="7"/>
@@ -12682,7 +12673,7 @@
       </c>
       <c r="CL36" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOPIGW_S2</v>
+        <v>MINBIOAGRW32</v>
       </c>
       <c r="CM36" s="52" t="str">
         <f t="shared" si="5"/>
@@ -12798,7 +12789,7 @@
         <v>4.1371696317781641</v>
       </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -12962,12 +12953,12 @@
         <v>-728.13913043478271</v>
       </c>
       <c r="BD37" s="32"/>
-      <c r="BE37" s="52" t="s">
-        <v>109</v>
+      <c r="BE37" s="52">
+        <v>2</v>
       </c>
       <c r="BG37" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE37</f>
-        <v>MINBIOMSW2_S2</v>
+        <v>MINBIOMSW22</v>
       </c>
       <c r="BH37" s="52" t="str">
         <f t="shared" si="7"/>
@@ -13084,7 +13075,7 @@
       </c>
       <c r="CL37" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOMSW2_S2</v>
+        <v>MINBIOMSW22</v>
       </c>
       <c r="CM37" s="52" t="str">
         <f t="shared" si="5"/>
@@ -13200,7 +13191,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -13602,7 +13593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -14004,7 +13995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -14406,7 +14397,7 @@
         <v>22.821671459217672</v>
       </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -14808,7 +14799,7 @@
         <v>31.910874204781013</v>
       </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -15210,7 +15201,7 @@
         <v>6.0944615540616951</v>
       </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -15374,12 +15365,12 @@
         <v>0</v>
       </c>
       <c r="BD43" s="32"/>
-      <c r="BE43" s="52" t="s">
-        <v>109</v>
+      <c r="BE43" s="52">
+        <v>2</v>
       </c>
       <c r="BG43" s="52" t="str">
-        <f>"MINBIOINDF"&amp;BE43</f>
-        <v>MINBIOINDF_S2</v>
+        <f>"MINBIOINDW1"&amp;BE43</f>
+        <v>MINBIOINDW12</v>
       </c>
       <c r="BH43" s="52" t="str">
         <f t="shared" si="7"/>
@@ -15496,7 +15487,7 @@
       </c>
       <c r="CL43" s="52" t="str">
         <f t="shared" si="4"/>
-        <v>MINBIOINDF_S2</v>
+        <v>MINBIOINDW12</v>
       </c>
       <c r="CM43" s="52" t="str">
         <f t="shared" si="5"/>
@@ -15612,10 +15603,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.45">
       <c r="BD44" s="32"/>
     </row>
-    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -15624,7 +15615,7 @@
       </c>
       <c r="BD45" s="32"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -15690,7 +15681,7 @@
       <c r="BD46" s="32"/>
       <c r="BG46" s="51"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -15857,7 +15848,7 @@
       <c r="CL47" s="71"/>
       <c r="CM47" s="72"/>
     </row>
-    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -15920,7 +15911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -16157,7 +16148,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -16559,7 +16550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -16723,12 +16714,12 @@
         <v>376.81200000000001</v>
       </c>
       <c r="BD51" s="32"/>
-      <c r="BE51" s="52" t="s">
-        <v>110</v>
+      <c r="BE51" s="52">
+        <v>3</v>
       </c>
       <c r="BG51" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE51</f>
-        <v>MINBIOWOO1_S3</v>
+        <v>MINBIOWOO13</v>
       </c>
       <c r="BH51" s="52" t="str">
         <f t="shared" ref="BH51:BH65" si="11">A51</f>
@@ -16845,7 +16836,7 @@
       </c>
       <c r="CL51" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOWOO1_S3</v>
+        <v>MINBIOWOO13</v>
       </c>
       <c r="CM51" s="52" t="str">
         <f t="shared" si="9"/>
@@ -16961,7 +16952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -17125,12 +17116,12 @@
         <v>220.73265306122451</v>
       </c>
       <c r="BD52" s="32"/>
-      <c r="BE52" s="52" t="s">
-        <v>110</v>
+      <c r="BE52" s="52">
+        <v>3</v>
       </c>
       <c r="BG52" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE52</f>
-        <v>MINBIOWOO2_S3</v>
+        <v>MINBIOWOO23</v>
       </c>
       <c r="BH52" s="52" t="str">
         <f t="shared" si="11"/>
@@ -17247,7 +17238,7 @@
       </c>
       <c r="CL52" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOWOO2_S3</v>
+        <v>MINBIOWOO23</v>
       </c>
       <c r="CM52" s="52" t="str">
         <f t="shared" si="9"/>
@@ -17363,7 +17354,7 @@
         <v>5.2721088435374153</v>
       </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -17527,12 +17518,12 @@
         <v>-370</v>
       </c>
       <c r="BD53" s="32"/>
-      <c r="BE53" s="52" t="s">
-        <v>110</v>
+      <c r="BE53" s="52">
+        <v>3</v>
       </c>
       <c r="BG53" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE53</f>
-        <v>MINBIOMSW1_S3</v>
+        <v>MINBIOMSW13</v>
       </c>
       <c r="BH53" s="52" t="str">
         <f t="shared" si="11"/>
@@ -17649,7 +17640,7 @@
       </c>
       <c r="CL53" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOMSW1_S3</v>
+        <v>MINBIOMSW13</v>
       </c>
       <c r="CM53" s="52" t="str">
         <f t="shared" si="9"/>
@@ -17765,7 +17756,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -17929,12 +17920,12 @@
         <v>462.49534883720935</v>
       </c>
       <c r="BD54" s="32"/>
-      <c r="BE54" s="52" t="s">
-        <v>110</v>
+      <c r="BE54" s="52">
+        <v>3</v>
       </c>
       <c r="BG54" s="52" t="str">
-        <f>"MINBIOTLW"&amp;BE54</f>
-        <v>MINBIOTLW_S3</v>
+        <f>"MINBIOAGRW4"&amp;BE54</f>
+        <v>MINBIOAGRW43</v>
       </c>
       <c r="BH54" s="52" t="str">
         <f t="shared" si="11"/>
@@ -18051,7 +18042,7 @@
       </c>
       <c r="CL54" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOTLW_S3</v>
+        <v>MINBIOAGRW43</v>
       </c>
       <c r="CM54" s="52" t="str">
         <f t="shared" si="9"/>
@@ -18167,7 +18158,7 @@
         <v>11.046511627906977</v>
       </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -18331,12 +18322,12 @@
         <v>1163</v>
       </c>
       <c r="BD55" s="32"/>
-      <c r="BE55" s="52" t="s">
-        <v>110</v>
+      <c r="BE55" s="52">
+        <v>3</v>
       </c>
       <c r="BG55" s="52" t="str">
         <f>"MINBIORVO"&amp;BE55</f>
-        <v>MINBIORVO_S3</v>
+        <v>MINBIORVO3</v>
       </c>
       <c r="BH55" s="52" t="str">
         <f t="shared" si="11"/>
@@ -18453,7 +18444,7 @@
       </c>
       <c r="CL55" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIORVO_S3</v>
+        <v>MINBIORVO3</v>
       </c>
       <c r="CM55" s="52" t="str">
         <f t="shared" si="9"/>
@@ -18569,7 +18560,7 @@
         <v>27.777777777777775</v>
       </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -18733,12 +18724,12 @@
         <v>295.65668413641106</v>
       </c>
       <c r="BD56" s="32"/>
-      <c r="BE56" s="52" t="s">
-        <v>110</v>
+      <c r="BE56" s="52">
+        <v>3</v>
       </c>
       <c r="BG56" s="52" t="str">
-        <f>"MINBIOWOO3"&amp;BE56</f>
-        <v>MINBIOWOO3_S3</v>
+        <f>"MINBIOAGRW1"&amp;BE56</f>
+        <v>MINBIOAGRW13</v>
       </c>
       <c r="BH56" s="52" t="str">
         <f t="shared" si="11"/>
@@ -18855,7 +18846,7 @@
       </c>
       <c r="CL56" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOWOO3_S3</v>
+        <v>MINBIOAGRW13</v>
       </c>
       <c r="CM56" s="52" t="str">
         <f t="shared" si="9"/>
@@ -18971,7 +18962,7 @@
         <v>7.0616385816473448</v>
       </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -19135,12 +19126,12 @@
         <v>395.00046367134962</v>
       </c>
       <c r="BD57" s="32"/>
-      <c r="BE57" s="52" t="s">
-        <v>110</v>
+      <c r="BE57" s="52">
+        <v>3</v>
       </c>
       <c r="BG57" s="52" t="str">
-        <f>"MINBIOCATW"&amp;BE57</f>
-        <v>MINBIOCATW_S3</v>
+        <f>"MINBIOAGRW2"&amp;BE57</f>
+        <v>MINBIOAGRW23</v>
       </c>
       <c r="BH57" s="52" t="str">
         <f t="shared" si="11"/>
@@ -19257,7 +19248,7 @@
       </c>
       <c r="CL57" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOCATW_S3</v>
+        <v>MINBIOAGRW23</v>
       </c>
       <c r="CM57" s="52" t="str">
         <f t="shared" si="9"/>
@@ -19373,7 +19364,7 @@
         <v>9.434423991386014</v>
       </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -19537,12 +19528,12 @@
         <v>374.5189581476501</v>
       </c>
       <c r="BD58" s="32"/>
-      <c r="BE58" s="52" t="s">
-        <v>110</v>
+      <c r="BE58" s="52">
+        <v>3</v>
       </c>
       <c r="BG58" s="52" t="str">
-        <f>"MINBIOPIGW"&amp;BE58</f>
-        <v>MINBIOPIGW_S3</v>
+        <f>"MINBIOAGRW3"&amp;BE58</f>
+        <v>MINBIOAGRW33</v>
       </c>
       <c r="BH58" s="52" t="str">
         <f t="shared" si="11"/>
@@ -19659,7 +19650,7 @@
       </c>
       <c r="CL58" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOPIGW_S3</v>
+        <v>MINBIOAGRW33</v>
       </c>
       <c r="CM58" s="52" t="str">
         <f t="shared" si="9"/>
@@ -19775,7 +19766,7 @@
         <v>8.9452316362771107</v>
       </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -19939,12 +19930,12 @@
         <v>0</v>
       </c>
       <c r="BD59" s="32"/>
-      <c r="BE59" s="52" t="s">
-        <v>110</v>
+      <c r="BE59" s="52">
+        <v>3</v>
       </c>
       <c r="BG59" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE59</f>
-        <v>MINBIOMSW2_S3</v>
+        <v>MINBIOMSW23</v>
       </c>
       <c r="BH59" s="52" t="str">
         <f t="shared" si="11"/>
@@ -20061,7 +20052,7 @@
       </c>
       <c r="CL59" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOMSW2_S3</v>
+        <v>MINBIOMSW23</v>
       </c>
       <c r="CM59" s="52" t="str">
         <f t="shared" si="9"/>
@@ -20177,7 +20168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -20579,7 +20570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -20981,7 +20972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -21383,7 +21374,7 @@
         <v>28.527089324022089</v>
       </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -21785,7 +21776,7 @@
         <v>39.888592755976262</v>
       </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -22187,7 +22178,7 @@
         <v>12.18892310812339</v>
       </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -22351,12 +22342,12 @@
         <v>0</v>
       </c>
       <c r="BD65" s="32"/>
-      <c r="BE65" s="52" t="s">
-        <v>110</v>
+      <c r="BE65" s="52">
+        <v>3</v>
       </c>
       <c r="BG65" s="52" t="str">
-        <f>"MINBIOINDF"&amp;BE65</f>
-        <v>MINBIOINDF_S3</v>
+        <f>"MINBIOINDW1"&amp;BE65</f>
+        <v>MINBIOINDW13</v>
       </c>
       <c r="BH65" s="52" t="str">
         <f t="shared" si="11"/>
@@ -22473,7 +22464,7 @@
       </c>
       <c r="CL65" s="52" t="str">
         <f t="shared" si="8"/>
-        <v>MINBIOINDF_S3</v>
+        <v>MINBIOINDW13</v>
       </c>
       <c r="CM65" s="52" t="str">
         <f t="shared" si="9"/>
@@ -22589,7 +22580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -22647,7 +22638,7 @@
       <c r="BC66" s="22"/>
       <c r="BD66" s="21"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.45">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>155.46564495117042</v>
@@ -22656,7 +22647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.45">
       <c r="AB68" s="20">
         <f>SUM(AB6:AB21,AB28:AB43,AB50:AB65)</f>
         <v>2829139.6648809365</v>
@@ -22690,32 +22681,32 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DO69"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="25.73046875" style="52" customWidth="1"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.42578125" style="52" customWidth="1"/>
+    <col min="3" max="12" width="9.3984375" style="52" customWidth="1"/>
     <col min="13" max="28" width="11" style="52" customWidth="1"/>
-    <col min="29" max="58" width="9.140625" style="52"/>
-    <col min="59" max="59" width="18.28515625" style="52" customWidth="1"/>
-    <col min="60" max="60" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="64" max="89" width="9.140625" style="52"/>
-    <col min="90" max="90" width="17.140625" style="52" customWidth="1"/>
-    <col min="91" max="91" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.85546875" style="52" customWidth="1"/>
-    <col min="94" max="94" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="9.140625" style="52"/>
+    <col min="29" max="58" width="9.1328125" style="52"/>
+    <col min="59" max="59" width="18.265625" style="52" customWidth="1"/>
+    <col min="60" max="60" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.73046875" style="52" bestFit="1" customWidth="1"/>
+    <col min="64" max="89" width="9.1328125" style="52"/>
+    <col min="90" max="90" width="17.1328125" style="52" customWidth="1"/>
+    <col min="91" max="91" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.86328125" style="52" customWidth="1"/>
+    <col min="94" max="94" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="9.1328125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -22777,7 +22768,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -22842,7 +22833,7 @@
       <c r="BC2" s="76"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:119" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -23058,7 +23049,7 @@
       <c r="DN3" s="2"/>
       <c r="DO3" s="2"/>
     </row>
-    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -23170,7 +23161,7 @@
       <c r="DN4" s="2"/>
       <c r="DO4" s="2"/>
     </row>
-    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -23407,7 +23398,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -23809,7 +23800,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -24211,7 +24202,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -24613,7 +24604,7 @@
         <v>1.4761904761904763</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -25015,7 +25006,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -25417,7 +25408,7 @@
         <v>8.720930232558139</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -25819,7 +25810,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -26221,7 +26212,7 @@
         <v>2.8246554326589375</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -26623,7 +26614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -27025,7 +27016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -27427,7 +27418,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -27829,7 +27820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -28231,7 +28222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -28633,7 +28624,7 @@
         <v>19.01805954934806</v>
       </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -29035,7 +29026,7 @@
         <v>21.5614014897169</v>
       </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -29438,7 +29429,7 @@
         <v>4.6880473492782269</v>
       </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -29840,7 +29831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="70">
@@ -29998,7 +29989,7 @@
       <c r="DN22" s="2"/>
       <c r="DO22" s="2"/>
     </row>
-    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -30056,7 +30047,7 @@
       <c r="DN23" s="2"/>
       <c r="DO23" s="2"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -30171,7 +30162,7 @@
       <c r="DN24" s="2"/>
       <c r="DO24" s="2"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -30387,7 +30378,7 @@
       <c r="DN25" s="2"/>
       <c r="DO25" s="2"/>
     </row>
-    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -30499,7 +30490,7 @@
       <c r="DN26" s="2"/>
       <c r="DO26" s="2"/>
     </row>
-    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -30736,7 +30727,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -31138,7 +31129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -31540,7 +31531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -31942,7 +31933,7 @@
         <v>2.7414965986394559</v>
       </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -32342,7 +32333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -32744,7 +32735,7 @@
         <v>10.174418604651162</v>
       </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -33146,7 +33137,7 @@
         <v>22.388888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -33548,7 +33539,7 @@
         <v>4.2369831489884069</v>
       </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -33950,7 +33941,7 @@
         <v>4.3634210960160313</v>
       </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -34352,7 +34343,7 @@
         <v>4.1371696317781641</v>
       </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -34754,7 +34745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -35156,7 +35147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -35558,7 +35549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -35960,7 +35951,7 @@
         <v>22.821671459217672</v>
       </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -36362,7 +36353,7 @@
         <v>31.910874204781013</v>
       </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -36764,7 +36755,7 @@
         <v>6.0944615540616951</v>
       </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -37166,7 +37157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.45">
       <c r="K44" s="20">
         <f>SUM(K28:K43)</f>
         <v>188768.43828488313</v>
@@ -37290,7 +37281,7 @@
       <c r="DN44" s="2"/>
       <c r="DO44" s="2"/>
     </row>
-    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -37348,7 +37339,7 @@
       <c r="DN45" s="2"/>
       <c r="DO45" s="2"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -37463,7 +37454,7 @@
       <c r="DN46" s="2"/>
       <c r="DO46" s="2"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -37679,7 +37670,7 @@
       <c r="DN47" s="2"/>
       <c r="DO47" s="2"/>
     </row>
-    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -37791,7 +37782,7 @@
       <c r="DN48" s="2"/>
       <c r="DO48" s="2"/>
     </row>
-    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -38028,7 +38019,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -38430,7 +38421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -38832,7 +38823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -39234,7 +39225,7 @@
         <v>5.2721088435374153</v>
       </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -39636,7 +39627,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -40038,7 +40029,7 @@
         <v>11.046511627906977</v>
       </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -40440,7 +40431,7 @@
         <v>27.777777777777775</v>
       </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -40842,7 +40833,7 @@
         <v>7.0616385816473448</v>
       </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -41244,7 +41235,7 @@
         <v>9.434423991386014</v>
       </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -41646,7 +41637,7 @@
         <v>8.9452316362771107</v>
       </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -42048,7 +42039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -42450,7 +42441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -42852,7 +42843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -43254,7 +43245,7 @@
         <v>28.527089324022089</v>
       </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -43656,7 +43647,7 @@
         <v>39.888592755976262</v>
       </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -44058,7 +44049,7 @@
         <v>12.18892310812339</v>
       </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -44460,7 +44451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -44573,7 +44564,7 @@
       <c r="BD66" s="21"/>
       <c r="CJ66" s="2"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.45">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>188.50791202135417</v>
@@ -44582,7 +44573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.45">
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
       <c r="E68" s="69"/>
@@ -44621,7 +44612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:119" x14ac:dyDescent="0.45">
       <c r="AB69" s="16"/>
     </row>
   </sheetData>
@@ -44647,14 +44638,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
@@ -44662,7 +44653,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="53" t="s">
         <v>102</v>
       </c>
@@ -44670,12 +44661,12 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A6" s="57"/>
       <c r="B6" s="58" t="s">
         <v>101</v>
@@ -44691,7 +44682,7 @@
       <c r="I6" s="81"/>
       <c r="J6" s="82"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="60">
         <v>2000</v>
       </c>
@@ -44715,7 +44706,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="62">
         <v>2001</v>
       </c>
@@ -44742,7 +44733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="62">
         <v>2002</v>
       </c>
@@ -44773,7 +44764,7 @@
         <v>106.04453870625663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="62">
         <v>2003</v>
       </c>
@@ -44804,7 +44795,7 @@
         <v>126.10340479192939</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="62">
         <v>2004</v>
       </c>
@@ -44831,7 +44822,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="62">
         <v>2005</v>
       </c>
@@ -44850,7 +44841,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="62">
         <v>2006</v>
       </c>
@@ -44862,7 +44853,7 @@
         <v>113.94721389560772</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="62">
         <v>2007</v>
       </c>
@@ -44874,7 +44865,7 @@
         <v>116.6819470291023</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="62">
         <v>2008</v>
       </c>
@@ -44886,7 +44877,7 @@
         <v>120.99917906917909</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="62">
         <v>2009</v>
       </c>
@@ -44898,7 +44889,7 @@
         <v>122.20917085987088</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="62">
         <v>2010</v>
       </c>
@@ -44910,7 +44901,7 @@
         <v>124.77556344792816</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="62">
         <v>2011</v>
       </c>
@@ -44926,7 +44917,7 @@
         <v>0.77734139438083416</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="62">
         <v>2012</v>
       </c>
@@ -44938,7 +44929,7 @@
         <v>131.98833966859911</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="62">
         <v>2013</v>
       </c>
@@ -44950,7 +44941,7 @@
         <v>133.9681647636281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="62">
         <v>2014</v>
       </c>
@@ -44962,7 +44953,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="65">
         <v>2015</v>
       </c>
@@ -44974,7 +44965,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>98</v>
       </c>
@@ -44990,12 +44981,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45145,15 +45133,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45177,10 +45169,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DomBioPot_Baseline.xlsx
+++ b/SuppXLS/Scen_DomBioPot_Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57015C0-BCA9-4863-A022-4203E8DB5553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF154787-7EF2-41D8-B0F8-A7C6972A2E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3270" windowWidth="20670" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BioenergySupply-Baseline" sheetId="17" r:id="rId1"/>
@@ -446,9 +446,6 @@
     <t>toe to GJ</t>
   </si>
   <si>
-    <t>DeAct~TFM_INS-TS</t>
-  </si>
-  <si>
     <t>€14/GJ</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>_S3</t>
+  </si>
+  <si>
+    <t>TFM_INS-TS</t>
   </si>
 </sst>
 </file>
@@ -1574,10 +1574,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:DO68"/>
+  <dimension ref="A1:DQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB11" sqref="BB11"/>
+    <sheetView tabSelected="1" topLeftCell="AY26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH44" sqref="BH44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,18 +1591,18 @@
     <col min="62" max="62" width="9.140625" style="52"/>
     <col min="63" max="63" width="9.85546875" style="52" customWidth="1"/>
     <col min="64" max="88" width="9" style="2" customWidth="1"/>
-    <col min="89" max="89" width="9.140625" style="52"/>
-    <col min="90" max="90" width="17.28515625" style="52" customWidth="1"/>
-    <col min="91" max="91" width="21.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.28515625" style="52" customWidth="1"/>
-    <col min="94" max="94" width="8.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.140625" style="52"/>
-    <col min="96" max="119" width="8.85546875" style="2" customWidth="1"/>
-    <col min="120" max="16384" width="9.140625" style="52"/>
+    <col min="89" max="90" width="9.140625" style="52"/>
+    <col min="91" max="91" width="17.28515625" style="52" customWidth="1"/>
+    <col min="92" max="92" width="21.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.28515625" style="52" customWidth="1"/>
+    <col min="95" max="95" width="8.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.140625" style="52"/>
+    <col min="97" max="120" width="8.85546875" style="2" customWidth="1"/>
+    <col min="121" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="BC2" s="76"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -1893,10 +1893,10 @@
         <v>93</v>
       </c>
       <c r="BH3" s="19"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="72"/>
+      <c r="CM3" s="71"/>
+      <c r="CN3" s="72"/>
     </row>
-    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -1955,11 +1955,11 @@
       <c r="BG4" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="CL4" s="31" t="s">
+      <c r="CM4" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -2105,98 +2105,104 @@
       <c r="CJ5" s="27">
         <v>2050</v>
       </c>
-      <c r="CL5" s="29" t="s">
+      <c r="CK5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="CM5" s="28" t="s">
+      <c r="CN5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CN5" s="28" t="s">
+      <c r="CO5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="CO5" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="CP5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ5" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="CQ5" s="28" t="s">
+      <c r="CR5" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="CR5" s="27">
+      <c r="CS5" s="27">
         <v>2012</v>
       </c>
-      <c r="CS5" s="27">
+      <c r="CT5" s="27">
         <v>2013</v>
       </c>
-      <c r="CT5" s="27">
+      <c r="CU5" s="27">
         <v>2014</v>
       </c>
-      <c r="CU5" s="27">
+      <c r="CV5" s="27">
         <v>2015</v>
       </c>
-      <c r="CV5" s="27">
+      <c r="CW5" s="27">
         <v>2016</v>
       </c>
-      <c r="CW5" s="27">
+      <c r="CX5" s="27">
         <v>2017</v>
       </c>
-      <c r="CX5" s="27">
+      <c r="CY5" s="27">
         <v>2018</v>
       </c>
-      <c r="CY5" s="27">
+      <c r="CZ5" s="27">
         <v>2019</v>
       </c>
-      <c r="CZ5" s="27">
+      <c r="DA5" s="27">
         <v>2020</v>
       </c>
-      <c r="DA5" s="27">
+      <c r="DB5" s="27">
         <v>2021</v>
       </c>
-      <c r="DB5" s="27">
+      <c r="DC5" s="27">
         <v>2022</v>
       </c>
-      <c r="DC5" s="27">
+      <c r="DD5" s="27">
         <v>2023</v>
       </c>
-      <c r="DD5" s="27">
+      <c r="DE5" s="27">
         <v>2024</v>
       </c>
-      <c r="DE5" s="27">
+      <c r="DF5" s="27">
         <v>2025</v>
       </c>
-      <c r="DF5" s="27">
+      <c r="DG5" s="27">
         <v>2026</v>
       </c>
-      <c r="DG5" s="27">
+      <c r="DH5" s="27">
         <v>2027</v>
       </c>
-      <c r="DH5" s="27">
+      <c r="DI5" s="27">
         <v>2028</v>
       </c>
-      <c r="DI5" s="27">
+      <c r="DJ5" s="27">
         <v>2029</v>
       </c>
-      <c r="DJ5" s="27">
+      <c r="DK5" s="27">
         <v>2030</v>
       </c>
-      <c r="DK5" s="27">
+      <c r="DL5" s="27">
         <v>2031</v>
       </c>
-      <c r="DL5" s="27">
+      <c r="DM5" s="27">
         <v>2032</v>
       </c>
-      <c r="DM5" s="27">
+      <c r="DN5" s="27">
         <v>2033</v>
       </c>
-      <c r="DN5" s="27">
+      <c r="DO5" s="27">
         <v>2034</v>
       </c>
-      <c r="DO5" s="27">
+      <c r="DP5" s="27">
         <v>2035</v>
       </c>
+      <c r="DQ5" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -2480,125 +2486,131 @@
         <f>TREND(BL6:CI6,$BL$5:$CI$5,$CJ$5)</f>
         <v>25.713571433157995</v>
       </c>
-      <c r="CL6" s="52" t="str">
-        <f t="shared" ref="CL6:CL21" si="0">BG6</f>
+      <c r="CK6" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM6" s="52" t="str">
+        <f t="shared" ref="CM6:CM21" si="0">BG6</f>
         <v>ABIOFRSR1</v>
       </c>
-      <c r="CM6" s="52" t="str">
-        <f t="shared" ref="CM6:CM21" si="1">BH6</f>
+      <c r="CN6" s="52" t="str">
+        <f t="shared" ref="CN6:CN21" si="1">BH6</f>
         <v>Forest thinnings - Lo</v>
-      </c>
-      <c r="CN6" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="CO6" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP6" s="52" t="str">
-        <f t="shared" ref="CP6:CP21" si="2">BJ6</f>
+      <c r="CP6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ6" s="52" t="str">
+        <f t="shared" ref="CQ6:CQ21" si="2">BJ6</f>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR6" s="66">
+      <c r="CR6" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS6" s="66">
         <f>IF(AF6&lt;0,0.01,AF6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CS6" s="66">
+      <c r="CT6" s="66">
         <f>IF(AG6&lt;0,0.01,AG6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CT6" s="66">
+      <c r="CU6" s="66">
         <f>IF(AH6&lt;0,0.01,AH6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CU6" s="66">
+      <c r="CV6" s="66">
         <f>IF(AI6&lt;0,0.01,AI6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CV6" s="66">
+      <c r="CW6" s="66">
         <f>IF(AJ6&lt;0,0.01,AJ6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CW6" s="66">
+      <c r="CX6" s="66">
         <f>IF(AK6&lt;0,0.01,AK6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CX6" s="66">
+      <c r="CY6" s="66">
         <f>IF(AL6&lt;0,0.01,AL6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CY6" s="66">
+      <c r="CZ6" s="66">
         <f>IF(AM6&lt;0,0.01,AM6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="CZ6" s="66">
+      <c r="DA6" s="66">
         <f>IF(AN6&lt;0,0.01,AN6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DA6" s="66">
+      <c r="DB6" s="66">
         <f>IF(AO6&lt;0,0.01,AO6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DB6" s="66">
+      <c r="DC6" s="66">
         <f>IF(AP6&lt;0,0.01,AP6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DC6" s="66">
+      <c r="DD6" s="66">
         <f>IF(AQ6&lt;0,0.01,AQ6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DD6" s="66">
+      <c r="DE6" s="66">
         <f>IF(AR6&lt;0,0.01,AR6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DE6" s="66">
+      <c r="DF6" s="66">
         <f>IF(AS6&lt;0,0.01,AS6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DF6" s="66">
+      <c r="DG6" s="66">
         <f>IF(AT6&lt;0,0.01,AT6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DG6" s="66">
+      <c r="DH6" s="66">
         <f>IF(AU6&lt;0,0.01,AU6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DH6" s="66">
+      <c r="DI6" s="66">
         <f>IF(AV6&lt;0,0.01,AV6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DI6" s="66">
+      <c r="DJ6" s="66">
         <f>IF(AW6&lt;0,0.01,AW6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DJ6" s="66">
+      <c r="DK6" s="66">
         <f>IF(AX6&lt;0,0.01,AX6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DK6" s="66">
+      <c r="DL6" s="66">
         <f>IF(AY6&lt;0,0.01,AY6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DL6" s="66">
+      <c r="DM6" s="66">
         <f>IF(AZ6&lt;0,0.01,AZ6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DM6" s="66">
+      <c r="DN6" s="66">
         <f>IF(BA6&lt;0,0.01,BA6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DN6" s="66">
+      <c r="DO6" s="66">
         <f>IF(BB6&lt;0,0.01,BB6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
-      <c r="DO6" s="66">
+      <c r="DP6" s="66">
         <f>IF(BC6&lt;0,0.01,BC6/Conversions!$B$3)</f>
         <v>3.45</v>
       </c>
+      <c r="DQ6" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -2763,7 +2775,7 @@
       </c>
       <c r="BD7" s="32"/>
       <c r="BE7" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG7" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE7</f>
@@ -2882,125 +2894,131 @@
         <f>TREND(BT7:CI7,$BT$5:$CI$5,$CJ$5)</f>
         <v>11.052343183515688</v>
       </c>
-      <c r="CL7" s="52" t="str">
+      <c r="CK7" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM7" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOWOO1_S1</v>
       </c>
-      <c r="CM7" s="52" t="str">
+      <c r="CN7" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Sawmill residues - Lo</v>
       </c>
-      <c r="CN7" s="15" t="s">
+      <c r="CO7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP7" s="52" t="str">
+      <c r="CP7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ7" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ7" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR7" s="66">
+      <c r="CR7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS7" s="66">
         <f>IF(AF7&lt;0,0.01,AF7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CS7" s="66">
+      <c r="CT7" s="66">
         <f>IF(AG7&lt;0,0.01,AG7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CT7" s="66">
+      <c r="CU7" s="66">
         <f>IF(AH7&lt;0,0.01,AH7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CU7" s="66">
+      <c r="CV7" s="66">
         <f>IF(AI7&lt;0,0.01,AI7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CV7" s="66">
+      <c r="CW7" s="66">
         <f>IF(AJ7&lt;0,0.01,AJ7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CW7" s="66">
+      <c r="CX7" s="66">
         <f>IF(AK7&lt;0,0.01,AK7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CX7" s="66">
+      <c r="CY7" s="66">
         <f>IF(AL7&lt;0,0.01,AL7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CY7" s="66">
+      <c r="CZ7" s="66">
         <f>IF(AM7&lt;0,0.01,AM7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="CZ7" s="66">
+      <c r="DA7" s="66">
         <f>IF(AN7&lt;0,0.01,AN7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DA7" s="66">
+      <c r="DB7" s="66">
         <f>IF(AO7&lt;0,0.01,AO7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DB7" s="66">
+      <c r="DC7" s="66">
         <f>IF(AP7&lt;0,0.01,AP7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DC7" s="66">
+      <c r="DD7" s="66">
         <f>IF(AQ7&lt;0,0.01,AQ7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DD7" s="66">
+      <c r="DE7" s="66">
         <f>IF(AR7&lt;0,0.01,AR7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DE7" s="66">
+      <c r="DF7" s="66">
         <f>IF(AS7&lt;0,0.01,AS7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DF7" s="66">
+      <c r="DG7" s="66">
         <f>IF(AT7&lt;0,0.01,AT7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DG7" s="66">
+      <c r="DH7" s="66">
         <f>IF(AU7&lt;0,0.01,AU7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DH7" s="66">
+      <c r="DI7" s="66">
         <f>IF(AV7&lt;0,0.01,AV7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DI7" s="66">
+      <c r="DJ7" s="66">
         <f>IF(AW7&lt;0,0.01,AW7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DJ7" s="66">
+      <c r="DK7" s="66">
         <f>IF(AX7&lt;0,0.01,AX7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DK7" s="66">
+      <c r="DL7" s="66">
         <f>IF(AY7&lt;0,0.01,AY7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DL7" s="66">
+      <c r="DM7" s="66">
         <f>IF(AZ7&lt;0,0.01,AZ7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DM7" s="66">
+      <c r="DN7" s="66">
         <f>IF(BA7&lt;0,0.01,BA7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DN7" s="66">
+      <c r="DO7" s="66">
         <f>IF(BB7&lt;0,0.01,BB7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
-      <c r="DO7" s="66">
+      <c r="DP7" s="66">
         <f>IF(BC7&lt;0,0.01,BC7/Conversions!$B$3)</f>
         <v>2.5</v>
       </c>
+      <c r="DQ7" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -3165,7 +3183,7 @@
       </c>
       <c r="BD8" s="32"/>
       <c r="BE8" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG8" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE8</f>
@@ -3284,125 +3302,131 @@
         <f>TREND(CD8:CI8,$CD$5:$CI$5,$CJ$5)</f>
         <v>0.63624051867355647</v>
       </c>
-      <c r="CL8" s="52" t="str">
+      <c r="CK8" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM8" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOWOO2_S1</v>
       </c>
-      <c r="CM8" s="52" t="str">
+      <c r="CN8" s="52" t="str">
         <f t="shared" si="1"/>
         <v>PCRW - Lo</v>
       </c>
-      <c r="CN8" s="15" t="s">
+      <c r="CO8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP8" s="52" t="str">
+      <c r="CP8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ8" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ8" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR8" s="66">
+      <c r="CR8" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS8" s="66">
         <f>IF(AF8&lt;0,0.01,AF8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CS8" s="66">
+      <c r="CT8" s="66">
         <f>IF(AG8&lt;0,0.01,AG8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CT8" s="66">
+      <c r="CU8" s="66">
         <f>IF(AH8&lt;0,0.01,AH8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CU8" s="66">
+      <c r="CV8" s="66">
         <f>IF(AI8&lt;0,0.01,AI8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CV8" s="66">
+      <c r="CW8" s="66">
         <f>IF(AJ8&lt;0,0.01,AJ8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CW8" s="66">
+      <c r="CX8" s="66">
         <f>IF(AK8&lt;0,0.01,AK8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CX8" s="66">
+      <c r="CY8" s="66">
         <f>IF(AL8&lt;0,0.01,AL8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CY8" s="66">
+      <c r="CZ8" s="66">
         <f>IF(AM8&lt;0,0.01,AM8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="CZ8" s="66">
+      <c r="DA8" s="66">
         <f>IF(AN8&lt;0,0.01,AN8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DA8" s="66">
+      <c r="DB8" s="66">
         <f>IF(AO8&lt;0,0.01,AO8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DB8" s="66">
+      <c r="DC8" s="66">
         <f>IF(AP8&lt;0,0.01,AP8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DC8" s="66">
+      <c r="DD8" s="66">
         <f>IF(AQ8&lt;0,0.01,AQ8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DD8" s="66">
+      <c r="DE8" s="66">
         <f>IF(AR8&lt;0,0.01,AR8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DE8" s="66">
+      <c r="DF8" s="66">
         <f>IF(AS8&lt;0,0.01,AS8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DF8" s="66">
+      <c r="DG8" s="66">
         <f>IF(AT8&lt;0,0.01,AT8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DG8" s="66">
+      <c r="DH8" s="66">
         <f>IF(AU8&lt;0,0.01,AU8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DH8" s="66">
+      <c r="DI8" s="66">
         <f>IF(AV8&lt;0,0.01,AV8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DI8" s="66">
+      <c r="DJ8" s="66">
         <f>IF(AW8&lt;0,0.01,AW8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DJ8" s="66">
+      <c r="DK8" s="66">
         <f>IF(AX8&lt;0,0.01,AX8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DK8" s="66">
+      <c r="DL8" s="66">
         <f>IF(AY8&lt;0,0.01,AY8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DL8" s="66">
+      <c r="DM8" s="66">
         <f>IF(AZ8&lt;0,0.01,AZ8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DM8" s="66">
+      <c r="DN8" s="66">
         <f>IF(BA8&lt;0,0.01,BA8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DN8" s="66">
+      <c r="DO8" s="66">
         <f>IF(BB8&lt;0,0.01,BB8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
-      <c r="DO8" s="66">
+      <c r="DP8" s="66">
         <f>IF(BC8&lt;0,0.01,BC8/Conversions!$B$3)</f>
         <v>1.4761904761904763</v>
       </c>
+      <c r="DQ8" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -3567,7 +3591,7 @@
       </c>
       <c r="BD9" s="32"/>
       <c r="BE9" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG9" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE9</f>
@@ -3686,125 +3710,131 @@
         <f>TREND(CD9:CI9,$CD$5:$CI$5,$CJ$5)</f>
         <v>5.9248616091009865</v>
       </c>
-      <c r="CL9" s="52" t="str">
+      <c r="CK9" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM9" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOMSW1_S1</v>
       </c>
-      <c r="CM9" s="52" t="str">
+      <c r="CN9" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Solid BMSW - Lo</v>
       </c>
-      <c r="CN9" s="15" t="s">
+      <c r="CO9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO9" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP9" s="52" t="str">
+      <c r="CP9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ9" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOMUN</v>
       </c>
-      <c r="CQ9" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR9" s="66">
+      <c r="CR9" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS9" s="66">
         <f>IF(AF9&lt;0,0.01,AF9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CS9" s="66">
+      <c r="CT9" s="66">
         <f>IF(AG9&lt;0,0.01,AG9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CT9" s="66">
+      <c r="CU9" s="66">
         <f>IF(AH9&lt;0,0.01,AH9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CU9" s="66">
+      <c r="CV9" s="66">
         <f>IF(AI9&lt;0,0.01,AI9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CV9" s="66">
+      <c r="CW9" s="66">
         <f>IF(AJ9&lt;0,0.01,AJ9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CW9" s="66">
+      <c r="CX9" s="66">
         <f>IF(AK9&lt;0,0.01,AK9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CX9" s="66">
+      <c r="CY9" s="66">
         <f>IF(AL9&lt;0,0.01,AL9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CY9" s="66">
+      <c r="CZ9" s="66">
         <f>IF(AM9&lt;0,0.01,AM9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CZ9" s="66">
+      <c r="DA9" s="66">
         <f>IF(AN9&lt;0,0.01,AN9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DA9" s="66">
+      <c r="DB9" s="66">
         <f>IF(AO9&lt;0,0.01,AO9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DB9" s="66">
+      <c r="DC9" s="66">
         <f>IF(AP9&lt;0,0.01,AP9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DC9" s="66">
+      <c r="DD9" s="66">
         <f>IF(AQ9&lt;0,0.01,AQ9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DD9" s="66">
+      <c r="DE9" s="66">
         <f>IF(AR9&lt;0,0.01,AR9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DE9" s="66">
+      <c r="DF9" s="66">
         <f>IF(AS9&lt;0,0.01,AS9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DF9" s="66">
+      <c r="DG9" s="66">
         <f>IF(AT9&lt;0,0.01,AT9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DG9" s="66">
+      <c r="DH9" s="66">
         <f>IF(AU9&lt;0,0.01,AU9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DH9" s="66">
+      <c r="DI9" s="66">
         <f>IF(AV9&lt;0,0.01,AV9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DI9" s="66">
+      <c r="DJ9" s="66">
         <f>IF(AW9&lt;0,0.01,AW9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DJ9" s="66">
+      <c r="DK9" s="66">
         <f>IF(AX9&lt;0,0.01,AX9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DK9" s="66">
+      <c r="DL9" s="66">
         <f>IF(AY9&lt;0,0.01,AY9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DL9" s="66">
+      <c r="DM9" s="66">
         <f>IF(AZ9&lt;0,0.01,AZ9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DM9" s="66">
+      <c r="DN9" s="66">
         <f>IF(BA9&lt;0,0.01,BA9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DN9" s="66">
+      <c r="DO9" s="66">
         <f>IF(BB9&lt;0,0.01,BB9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DO9" s="66">
+      <c r="DP9" s="66">
         <f>IF(BC9&lt;0,0.01,BC9/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
+      <c r="DQ9" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -3969,7 +3999,7 @@
       </c>
       <c r="BD10" s="32"/>
       <c r="BE10" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG10" s="52" t="str">
         <f>"MINBIOTLW"&amp;BE10</f>
@@ -4088,125 +4118,131 @@
         <f>CI10</f>
         <v>1.1449185151557677</v>
       </c>
-      <c r="CL10" s="52" t="str">
+      <c r="CK10" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM10" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOTLW_S1</v>
       </c>
-      <c r="CM10" s="52" t="str">
+      <c r="CN10" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Tallow - Lo</v>
       </c>
-      <c r="CN10" s="15" t="s">
+      <c r="CO10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO10" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP10" s="52" t="str">
+      <c r="CP10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ10" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ10" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR10" s="66">
+      <c r="CR10" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS10" s="66">
         <f>IF(AF10&lt;0,0.01,AF10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CS10" s="66">
+      <c r="CT10" s="66">
         <f>IF(AG10&lt;0,0.01,AG10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CT10" s="66">
+      <c r="CU10" s="66">
         <f>IF(AH10&lt;0,0.01,AH10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CU10" s="66">
+      <c r="CV10" s="66">
         <f>IF(AI10&lt;0,0.01,AI10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CV10" s="66">
+      <c r="CW10" s="66">
         <f>IF(AJ10&lt;0,0.01,AJ10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CW10" s="66">
+      <c r="CX10" s="66">
         <f>IF(AK10&lt;0,0.01,AK10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CX10" s="66">
+      <c r="CY10" s="66">
         <f>IF(AL10&lt;0,0.01,AL10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CY10" s="66">
+      <c r="CZ10" s="66">
         <f>IF(AM10&lt;0,0.01,AM10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="CZ10" s="66">
+      <c r="DA10" s="66">
         <f>IF(AN10&lt;0,0.01,AN10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DA10" s="66">
+      <c r="DB10" s="66">
         <f>IF(AO10&lt;0,0.01,AO10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DB10" s="66">
+      <c r="DC10" s="66">
         <f>IF(AP10&lt;0,0.01,AP10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DC10" s="66">
+      <c r="DD10" s="66">
         <f>IF(AQ10&lt;0,0.01,AQ10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DD10" s="66">
+      <c r="DE10" s="66">
         <f>IF(AR10&lt;0,0.01,AR10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DE10" s="66">
+      <c r="DF10" s="66">
         <f>IF(AS10&lt;0,0.01,AS10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DF10" s="66">
+      <c r="DG10" s="66">
         <f>IF(AT10&lt;0,0.01,AT10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DG10" s="66">
+      <c r="DH10" s="66">
         <f>IF(AU10&lt;0,0.01,AU10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DH10" s="66">
+      <c r="DI10" s="66">
         <f>IF(AV10&lt;0,0.01,AV10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DI10" s="66">
+      <c r="DJ10" s="66">
         <f>IF(AW10&lt;0,0.01,AW10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DJ10" s="66">
+      <c r="DK10" s="66">
         <f>IF(AX10&lt;0,0.01,AX10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DK10" s="66">
+      <c r="DL10" s="66">
         <f>IF(AY10&lt;0,0.01,AY10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DL10" s="66">
+      <c r="DM10" s="66">
         <f>IF(AZ10&lt;0,0.01,AZ10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DM10" s="66">
+      <c r="DN10" s="66">
         <f>IF(BA10&lt;0,0.01,BA10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DN10" s="66">
+      <c r="DO10" s="66">
         <f>IF(BB10&lt;0,0.01,BB10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
-      <c r="DO10" s="66">
+      <c r="DP10" s="66">
         <f>IF(BC10&lt;0,0.01,BC10/Conversions!$B$3)</f>
         <v>8.720930232558139</v>
       </c>
+      <c r="DQ10" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -4371,7 +4407,7 @@
       </c>
       <c r="BD11" s="32"/>
       <c r="BE11" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG11" s="52" t="str">
         <f>"MINBIORVO"&amp;BE11</f>
@@ -4490,125 +4526,131 @@
         <f>TREND(CD11:CI11,$CD$5:$CI$5,$CJ$5)</f>
         <v>0.2070573480000002</v>
       </c>
-      <c r="CL11" s="52" t="str">
+      <c r="CK11" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM11" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIORVO_S1</v>
       </c>
-      <c r="CM11" s="52" t="str">
+      <c r="CN11" s="52" t="str">
         <f t="shared" si="1"/>
         <v>RVO - Lo</v>
       </c>
-      <c r="CN11" s="15" t="s">
+      <c r="CO11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP11" s="52" t="str">
+      <c r="CP11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ11" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIORPS</v>
       </c>
-      <c r="CQ11" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR11" s="66">
+      <c r="CR11" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS11" s="66">
         <f>IF(AF11&lt;0,0.01,AF11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CS11" s="66">
+      <c r="CT11" s="66">
         <f>IF(AG11&lt;0,0.01,AG11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CT11" s="66">
+      <c r="CU11" s="66">
         <f>IF(AH11&lt;0,0.01,AH11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CU11" s="66">
+      <c r="CV11" s="66">
         <f>IF(AI11&lt;0,0.01,AI11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CV11" s="66">
+      <c r="CW11" s="66">
         <f>IF(AJ11&lt;0,0.01,AJ11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CW11" s="66">
+      <c r="CX11" s="66">
         <f>IF(AK11&lt;0,0.01,AK11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CX11" s="66">
+      <c r="CY11" s="66">
         <f>IF(AL11&lt;0,0.01,AL11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CY11" s="66">
+      <c r="CZ11" s="66">
         <f>IF(AM11&lt;0,0.01,AM11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="CZ11" s="66">
+      <c r="DA11" s="66">
         <f>IF(AN11&lt;0,0.01,AN11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DA11" s="66">
+      <c r="DB11" s="66">
         <f>IF(AO11&lt;0,0.01,AO11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DB11" s="66">
+      <c r="DC11" s="66">
         <f>IF(AP11&lt;0,0.01,AP11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DC11" s="66">
+      <c r="DD11" s="66">
         <f>IF(AQ11&lt;0,0.01,AQ11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DD11" s="66">
+      <c r="DE11" s="66">
         <f>IF(AR11&lt;0,0.01,AR11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DE11" s="66">
+      <c r="DF11" s="66">
         <f>IF(AS11&lt;0,0.01,AS11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DF11" s="66">
+      <c r="DG11" s="66">
         <f>IF(AT11&lt;0,0.01,AT11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DG11" s="66">
+      <c r="DH11" s="66">
         <f>IF(AU11&lt;0,0.01,AU11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DH11" s="66">
+      <c r="DI11" s="66">
         <f>IF(AV11&lt;0,0.01,AV11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DI11" s="66">
+      <c r="DJ11" s="66">
         <f>IF(AW11&lt;0,0.01,AW11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DJ11" s="66">
+      <c r="DK11" s="66">
         <f>IF(AX11&lt;0,0.01,AX11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DK11" s="66">
+      <c r="DL11" s="66">
         <f>IF(AY11&lt;0,0.01,AY11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DL11" s="66">
+      <c r="DM11" s="66">
         <f>IF(AZ11&lt;0,0.01,AZ11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DM11" s="66">
+      <c r="DN11" s="66">
         <f>IF(BA11&lt;0,0.01,BA11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DN11" s="66">
+      <c r="DO11" s="66">
         <f>IF(BB11&lt;0,0.01,BB11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
-      <c r="DO11" s="66">
+      <c r="DP11" s="66">
         <f>IF(BC11&lt;0,0.01,BC11/Conversions!$B$3)</f>
         <v>15.5</v>
       </c>
+      <c r="DQ11" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -4773,7 +4815,7 @@
       </c>
       <c r="BD12" s="32"/>
       <c r="BE12" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG12" s="52" t="str">
         <f>"MINBIOWOO3"&amp;BE12</f>
@@ -4892,125 +4934,131 @@
         <f>TREND(CD12:CI12,$CD$5:$CI$5,$CJ$5)</f>
         <v>2.4959032909813601</v>
       </c>
-      <c r="CL12" s="52" t="str">
+      <c r="CK12" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM12" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOWOO3_S1</v>
       </c>
-      <c r="CM12" s="52" t="str">
+      <c r="CN12" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Straw - Lo</v>
       </c>
-      <c r="CN12" s="15" t="s">
+      <c r="CO12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP12" s="52" t="str">
+      <c r="CP12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ12" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ12" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR12" s="66">
+      <c r="CR12" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS12" s="66">
         <f>IF(AF12&lt;0,0.01,AF12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="CS12" s="66">
+      <c r="CT12" s="66">
         <f>IF(AG12&lt;0,0.01,AG12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="CT12" s="66">
+      <c r="CU12" s="66">
         <f>IF(AH12&lt;0,0.01,AH12/Conversions!$B$3)</f>
         <v>2.8246554326589384</v>
       </c>
-      <c r="CU12" s="66">
+      <c r="CV12" s="66">
         <f>IF(AI12&lt;0,0.01,AI12/Conversions!$B$3)</f>
         <v>2.8246554326589384</v>
       </c>
-      <c r="CV12" s="66">
+      <c r="CW12" s="66">
         <f>IF(AJ12&lt;0,0.01,AJ12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="CW12" s="66">
+      <c r="CX12" s="66">
         <f>IF(AK12&lt;0,0.01,AK12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="CX12" s="66">
+      <c r="CY12" s="66">
         <f>IF(AL12&lt;0,0.01,AL12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="CY12" s="66">
+      <c r="CZ12" s="66">
         <f>IF(AM12&lt;0,0.01,AM12/Conversions!$B$3)</f>
         <v>2.8246554326589384</v>
       </c>
-      <c r="CZ12" s="66">
+      <c r="DA12" s="66">
         <f>IF(AN12&lt;0,0.01,AN12/Conversions!$B$3)</f>
         <v>2.8246554326589384</v>
       </c>
-      <c r="DA12" s="66">
+      <c r="DB12" s="66">
         <f>IF(AO12&lt;0,0.01,AO12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DB12" s="66">
+      <c r="DC12" s="66">
         <f>IF(AP12&lt;0,0.01,AP12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DC12" s="66">
+      <c r="DD12" s="66">
         <f>IF(AQ12&lt;0,0.01,AQ12/Conversions!$B$3)</f>
         <v>2.8246554326589384</v>
       </c>
-      <c r="DD12" s="66">
+      <c r="DE12" s="66">
         <f>IF(AR12&lt;0,0.01,AR12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DE12" s="66">
+      <c r="DF12" s="66">
         <f>IF(AS12&lt;0,0.01,AS12/Conversions!$B$3)</f>
         <v>2.8246554326589384</v>
       </c>
-      <c r="DF12" s="66">
+      <c r="DG12" s="66">
         <f>IF(AT12&lt;0,0.01,AT12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DG12" s="66">
+      <c r="DH12" s="66">
         <f>IF(AU12&lt;0,0.01,AU12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DH12" s="66">
+      <c r="DI12" s="66">
         <f>IF(AV12&lt;0,0.01,AV12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DI12" s="66">
+      <c r="DJ12" s="66">
         <f>IF(AW12&lt;0,0.01,AW12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DJ12" s="66">
+      <c r="DK12" s="66">
         <f>IF(AX12&lt;0,0.01,AX12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DK12" s="66">
+      <c r="DL12" s="66">
         <f>IF(AY12&lt;0,0.01,AY12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DL12" s="66">
+      <c r="DM12" s="66">
         <f>IF(AZ12&lt;0,0.01,AZ12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DM12" s="66">
+      <c r="DN12" s="66">
         <f>IF(BA12&lt;0,0.01,BA12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DN12" s="66">
+      <c r="DO12" s="66">
         <f>IF(BB12&lt;0,0.01,BB12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
-      <c r="DO12" s="66">
+      <c r="DP12" s="66">
         <f>IF(BC12&lt;0,0.01,BC12/Conversions!$B$3)</f>
         <v>2.8246554326589375</v>
       </c>
+      <c r="DQ12" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -5175,7 +5223,7 @@
       </c>
       <c r="BD13" s="32"/>
       <c r="BE13" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG13" s="52" t="str">
         <f>"MINBIOCATW"&amp;BE13</f>
@@ -5294,125 +5342,131 @@
         <f>CI13</f>
         <v>4.8023689720071143E-2</v>
       </c>
-      <c r="CL13" s="52" t="str">
+      <c r="CK13" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOCATW_S1</v>
       </c>
-      <c r="CM13" s="52" t="str">
+      <c r="CN13" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Cattle waste - Lo</v>
       </c>
-      <c r="CN13" s="15" t="s">
+      <c r="CO13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP13" s="52" t="str">
+      <c r="CP13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ13" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ13" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR13" s="66">
+      <c r="CR13" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS13" s="66">
         <f>IF(AF13&lt;0,0.01,AF13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CS13" s="66">
+      <c r="CT13" s="66">
         <f>IF(AG13&lt;0,0.01,AG13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CT13" s="66">
+      <c r="CU13" s="66">
         <f>IF(AH13&lt;0,0.01,AH13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CU13" s="66">
+      <c r="CV13" s="66">
         <f>IF(AI13&lt;0,0.01,AI13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CV13" s="66">
+      <c r="CW13" s="66">
         <f>IF(AJ13&lt;0,0.01,AJ13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CW13" s="66">
+      <c r="CX13" s="66">
         <f>IF(AK13&lt;0,0.01,AK13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CX13" s="66">
+      <c r="CY13" s="66">
         <f>IF(AL13&lt;0,0.01,AL13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CY13" s="66">
+      <c r="CZ13" s="66">
         <f>IF(AM13&lt;0,0.01,AM13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CZ13" s="66">
+      <c r="DA13" s="66">
         <f>IF(AN13&lt;0,0.01,AN13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DA13" s="66">
+      <c r="DB13" s="66">
         <f>IF(AO13&lt;0,0.01,AO13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DB13" s="66">
+      <c r="DC13" s="66">
         <f>IF(AP13&lt;0,0.01,AP13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DC13" s="66">
+      <c r="DD13" s="66">
         <f>IF(AQ13&lt;0,0.01,AQ13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DD13" s="66">
+      <c r="DE13" s="66">
         <f>IF(AR13&lt;0,0.01,AR13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DE13" s="66">
+      <c r="DF13" s="66">
         <f>IF(AS13&lt;0,0.01,AS13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DF13" s="66">
+      <c r="DG13" s="66">
         <f>IF(AT13&lt;0,0.01,AT13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DG13" s="66">
+      <c r="DH13" s="66">
         <f>IF(AU13&lt;0,0.01,AU13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DH13" s="66">
+      <c r="DI13" s="66">
         <f>IF(AV13&lt;0,0.01,AV13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DI13" s="66">
+      <c r="DJ13" s="66">
         <f>IF(AW13&lt;0,0.01,AW13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DJ13" s="66">
+      <c r="DK13" s="66">
         <f>IF(AX13&lt;0,0.01,AX13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DK13" s="66">
+      <c r="DL13" s="66">
         <f>IF(AY13&lt;0,0.01,AY13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DL13" s="66">
+      <c r="DM13" s="66">
         <f>IF(AZ13&lt;0,0.01,AZ13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DM13" s="66">
+      <c r="DN13" s="66">
         <f>IF(BA13&lt;0,0.01,BA13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DN13" s="66">
+      <c r="DO13" s="66">
         <f>IF(BB13&lt;0,0.01,BB13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DO13" s="66">
+      <c r="DP13" s="66">
         <f>IF(BC13&lt;0,0.01,BC13/Conversions!$B$3)</f>
         <v>0</v>
       </c>
+      <c r="DQ13" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -5577,7 +5631,7 @@
       </c>
       <c r="BD14" s="32"/>
       <c r="BE14" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG14" s="52" t="str">
         <f>"MINBIOPIGW"&amp;BE14</f>
@@ -5696,125 +5750,131 @@
         <f>CI14</f>
         <v>1.0077287648811837</v>
       </c>
-      <c r="CL14" s="52" t="str">
+      <c r="CK14" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOPIGW_S1</v>
       </c>
-      <c r="CM14" s="52" t="str">
+      <c r="CN14" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Pig waste - Lo</v>
       </c>
-      <c r="CN14" s="15" t="s">
+      <c r="CO14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP14" s="52" t="str">
+      <c r="CP14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ14" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ14" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR14" s="66">
+      <c r="CR14" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS14" s="66">
         <f>IF(AF14&lt;0,0.01,AF14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CS14" s="66">
+      <c r="CT14" s="66">
         <f>IF(AG14&lt;0,0.01,AG14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CT14" s="66">
+      <c r="CU14" s="66">
         <f>IF(AH14&lt;0,0.01,AH14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CU14" s="66">
+      <c r="CV14" s="66">
         <f>IF(AI14&lt;0,0.01,AI14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CV14" s="66">
+      <c r="CW14" s="66">
         <f>IF(AJ14&lt;0,0.01,AJ14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CW14" s="66">
+      <c r="CX14" s="66">
         <f>IF(AK14&lt;0,0.01,AK14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CX14" s="66">
+      <c r="CY14" s="66">
         <f>IF(AL14&lt;0,0.01,AL14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CY14" s="66">
+      <c r="CZ14" s="66">
         <f>IF(AM14&lt;0,0.01,AM14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CZ14" s="66">
+      <c r="DA14" s="66">
         <f>IF(AN14&lt;0,0.01,AN14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DA14" s="66">
+      <c r="DB14" s="66">
         <f>IF(AO14&lt;0,0.01,AO14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DB14" s="66">
+      <c r="DC14" s="66">
         <f>IF(AP14&lt;0,0.01,AP14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DC14" s="66">
+      <c r="DD14" s="66">
         <f>IF(AQ14&lt;0,0.01,AQ14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DD14" s="66">
+      <c r="DE14" s="66">
         <f>IF(AR14&lt;0,0.01,AR14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DE14" s="66">
+      <c r="DF14" s="66">
         <f>IF(AS14&lt;0,0.01,AS14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DF14" s="66">
+      <c r="DG14" s="66">
         <f>IF(AT14&lt;0,0.01,AT14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DG14" s="66">
+      <c r="DH14" s="66">
         <f>IF(AU14&lt;0,0.01,AU14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DH14" s="66">
+      <c r="DI14" s="66">
         <f>IF(AV14&lt;0,0.01,AV14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DI14" s="66">
+      <c r="DJ14" s="66">
         <f>IF(AW14&lt;0,0.01,AW14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DJ14" s="66">
+      <c r="DK14" s="66">
         <f>IF(AX14&lt;0,0.01,AX14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DK14" s="66">
+      <c r="DL14" s="66">
         <f>IF(AY14&lt;0,0.01,AY14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DL14" s="66">
+      <c r="DM14" s="66">
         <f>IF(AZ14&lt;0,0.01,AZ14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DM14" s="66">
+      <c r="DN14" s="66">
         <f>IF(BA14&lt;0,0.01,BA14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DN14" s="66">
+      <c r="DO14" s="66">
         <f>IF(BB14&lt;0,0.01,BB14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DO14" s="66">
+      <c r="DP14" s="66">
         <f>IF(BC14&lt;0,0.01,BC14/Conversions!$B$3)</f>
         <v>0</v>
       </c>
+      <c r="DQ14" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -5979,7 +6039,7 @@
       </c>
       <c r="BD15" s="32"/>
       <c r="BE15" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG15" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE15</f>
@@ -6098,125 +6158,131 @@
         <f>TREND(BT15:CI15,$BT$5:$CI$5,$CJ$5)</f>
         <v>0.51411176654896273</v>
       </c>
-      <c r="CL15" s="52" t="str">
+      <c r="CK15" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM15" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOMSW2_S1</v>
       </c>
-      <c r="CM15" s="52" t="str">
+      <c r="CN15" s="52" t="str">
         <f t="shared" si="1"/>
         <v>BMSW - Lo</v>
       </c>
-      <c r="CN15" s="15" t="s">
+      <c r="CO15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO15" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP15" s="52" t="str">
+      <c r="CP15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ15" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOMUN</v>
       </c>
-      <c r="CQ15" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR15" s="66">
+      <c r="CR15" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS15" s="66">
         <f>IF(AF15&lt;0,0.01,AF15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CS15" s="66">
+      <c r="CT15" s="66">
         <f>IF(AG15&lt;0,0.01,AG15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CT15" s="66">
+      <c r="CU15" s="66">
         <f>IF(AH15&lt;0,0.01,AH15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CU15" s="66">
+      <c r="CV15" s="66">
         <f>IF(AI15&lt;0,0.01,AI15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CV15" s="66">
+      <c r="CW15" s="66">
         <f>IF(AJ15&lt;0,0.01,AJ15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CW15" s="66">
+      <c r="CX15" s="66">
         <f>IF(AK15&lt;0,0.01,AK15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CX15" s="66">
+      <c r="CY15" s="66">
         <f>IF(AL15&lt;0,0.01,AL15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CY15" s="66">
+      <c r="CZ15" s="66">
         <f>IF(AM15&lt;0,0.01,AM15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CZ15" s="66">
+      <c r="DA15" s="66">
         <f>IF(AN15&lt;0,0.01,AN15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DA15" s="66">
+      <c r="DB15" s="66">
         <f>IF(AO15&lt;0,0.01,AO15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DB15" s="66">
+      <c r="DC15" s="66">
         <f>IF(AP15&lt;0,0.01,AP15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DC15" s="66">
+      <c r="DD15" s="66">
         <f>IF(AQ15&lt;0,0.01,AQ15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DD15" s="66">
+      <c r="DE15" s="66">
         <f>IF(AR15&lt;0,0.01,AR15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DE15" s="66">
+      <c r="DF15" s="66">
         <f>IF(AS15&lt;0,0.01,AS15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DF15" s="66">
+      <c r="DG15" s="66">
         <f>IF(AT15&lt;0,0.01,AT15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DG15" s="66">
+      <c r="DH15" s="66">
         <f>IF(AU15&lt;0,0.01,AU15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DH15" s="66">
+      <c r="DI15" s="66">
         <f>IF(AV15&lt;0,0.01,AV15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DI15" s="66">
+      <c r="DJ15" s="66">
         <f>IF(AW15&lt;0,0.01,AW15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DJ15" s="66">
+      <c r="DK15" s="66">
         <f>IF(AX15&lt;0,0.01,AX15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DK15" s="66">
+      <c r="DL15" s="66">
         <f>IF(AY15&lt;0,0.01,AY15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DL15" s="66">
+      <c r="DM15" s="66">
         <f>IF(AZ15&lt;0,0.01,AZ15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DM15" s="66">
+      <c r="DN15" s="66">
         <f>IF(BA15&lt;0,0.01,BA15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DN15" s="66">
+      <c r="DO15" s="66">
         <f>IF(BB15&lt;0,0.01,BB15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DO15" s="66">
+      <c r="DP15" s="66">
         <f>IF(BC15&lt;0,0.01,BC15/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
+      <c r="DQ15" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -6500,125 +6566,131 @@
         <f>TREND(BL16:CI16,$BL$5:$CI$5,$CJ$5)</f>
         <v>1.0570049652718154</v>
       </c>
-      <c r="CL16" s="52" t="str">
+      <c r="CK16" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM16" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ABIOCRP41</v>
       </c>
-      <c r="CM16" s="52" t="str">
+      <c r="CN16" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Willow - Lo</v>
       </c>
-      <c r="CN16" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP16" s="52" t="str">
+      <c r="CP16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ16" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ16" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR16" s="66">
+      <c r="CR16" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS16" s="66">
         <f>IF(AF16&lt;0,0.01,AF16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CS16" s="66">
+      <c r="CT16" s="66">
         <f>IF(AG16&lt;0,0.01,AG16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CT16" s="66">
+      <c r="CU16" s="66">
         <f>IF(AH16&lt;0,0.01,AH16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CU16" s="66">
+      <c r="CV16" s="66">
         <f>IF(AI16&lt;0,0.01,AI16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CV16" s="66">
+      <c r="CW16" s="66">
         <f>IF(AJ16&lt;0,0.01,AJ16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CW16" s="66">
+      <c r="CX16" s="66">
         <f>IF(AK16&lt;0,0.01,AK16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CX16" s="66">
+      <c r="CY16" s="66">
         <f>IF(AL16&lt;0,0.01,AL16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CY16" s="66">
+      <c r="CZ16" s="66">
         <f>IF(AM16&lt;0,0.01,AM16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CZ16" s="66">
+      <c r="DA16" s="66">
         <f>IF(AN16&lt;0,0.01,AN16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DA16" s="66">
+      <c r="DB16" s="66">
         <f>IF(AO16&lt;0,0.01,AO16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DB16" s="66">
+      <c r="DC16" s="66">
         <f>IF(AP16&lt;0,0.01,AP16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DC16" s="66">
+      <c r="DD16" s="66">
         <f>IF(AQ16&lt;0,0.01,AQ16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DD16" s="66">
+      <c r="DE16" s="66">
         <f>IF(AR16&lt;0,0.01,AR16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DE16" s="66">
+      <c r="DF16" s="66">
         <f>IF(AS16&lt;0,0.01,AS16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DF16" s="66">
+      <c r="DG16" s="66">
         <f>IF(AT16&lt;0,0.01,AT16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DG16" s="66">
+      <c r="DH16" s="66">
         <f>IF(AU16&lt;0,0.01,AU16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DH16" s="66">
+      <c r="DI16" s="66">
         <f>IF(AV16&lt;0,0.01,AV16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DI16" s="66">
+      <c r="DJ16" s="66">
         <f>IF(AW16&lt;0,0.01,AW16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DJ16" s="66">
+      <c r="DK16" s="66">
         <f>IF(AX16&lt;0,0.01,AX16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DK16" s="66">
+      <c r="DL16" s="66">
         <f>IF(AY16&lt;0,0.01,AY16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DL16" s="66">
+      <c r="DM16" s="66">
         <f>IF(AZ16&lt;0,0.01,AZ16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DM16" s="66">
+      <c r="DN16" s="66">
         <f>IF(BA16&lt;0,0.01,BA16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DN16" s="66">
+      <c r="DO16" s="66">
         <f>IF(BB16&lt;0,0.01,BB16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DO16" s="66">
+      <c r="DP16" s="66">
         <f>IF(BC16&lt;0,0.01,BC16/Conversions!$B$3)</f>
         <v>4</v>
       </c>
+      <c r="DQ16" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -6902,125 +6974,131 @@
         <f>TREND(BL17:CI17,$BL$5:$CI$5,$CJ$5)</f>
         <v>0.86829876430563502</v>
       </c>
-      <c r="CL17" s="52" t="str">
+      <c r="CK17" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ABIOCRP31</v>
       </c>
-      <c r="CM17" s="52" t="str">
+      <c r="CN17" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Miscanthus - Lo</v>
       </c>
-      <c r="CN17" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO17" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP17" s="52" t="str">
+      <c r="CP17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ17" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ17" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR17" s="66">
+      <c r="CR17" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS17" s="66">
         <f>IF(AF17&lt;0,0.01,AF17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CS17" s="66">
+      <c r="CT17" s="66">
         <f>IF(AG17&lt;0,0.01,AG17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CT17" s="66">
+      <c r="CU17" s="66">
         <f>IF(AH17&lt;0,0.01,AH17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CU17" s="66">
+      <c r="CV17" s="66">
         <f>IF(AI17&lt;0,0.01,AI17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CV17" s="66">
+      <c r="CW17" s="66">
         <f>IF(AJ17&lt;0,0.01,AJ17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CW17" s="66">
+      <c r="CX17" s="66">
         <f>IF(AK17&lt;0,0.01,AK17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CX17" s="66">
+      <c r="CY17" s="66">
         <f>IF(AL17&lt;0,0.01,AL17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CY17" s="66">
+      <c r="CZ17" s="66">
         <f>IF(AM17&lt;0,0.01,AM17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="CZ17" s="66">
+      <c r="DA17" s="66">
         <f>IF(AN17&lt;0,0.01,AN17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DA17" s="66">
+      <c r="DB17" s="66">
         <f>IF(AO17&lt;0,0.01,AO17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DB17" s="66">
+      <c r="DC17" s="66">
         <f>IF(AP17&lt;0,0.01,AP17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DC17" s="66">
+      <c r="DD17" s="66">
         <f>IF(AQ17&lt;0,0.01,AQ17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DD17" s="66">
+      <c r="DE17" s="66">
         <f>IF(AR17&lt;0,0.01,AR17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DE17" s="66">
+      <c r="DF17" s="66">
         <f>IF(AS17&lt;0,0.01,AS17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DF17" s="66">
+      <c r="DG17" s="66">
         <f>IF(AT17&lt;0,0.01,AT17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DG17" s="66">
+      <c r="DH17" s="66">
         <f>IF(AU17&lt;0,0.01,AU17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DH17" s="66">
+      <c r="DI17" s="66">
         <f>IF(AV17&lt;0,0.01,AV17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DI17" s="66">
+      <c r="DJ17" s="66">
         <f>IF(AW17&lt;0,0.01,AW17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DJ17" s="66">
+      <c r="DK17" s="66">
         <f>IF(AX17&lt;0,0.01,AX17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DK17" s="66">
+      <c r="DL17" s="66">
         <f>IF(AY17&lt;0,0.01,AY17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DL17" s="66">
+      <c r="DM17" s="66">
         <f>IF(AZ17&lt;0,0.01,AZ17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DM17" s="66">
+      <c r="DN17" s="66">
         <f>IF(BA17&lt;0,0.01,BA17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DN17" s="66">
+      <c r="DO17" s="66">
         <f>IF(BB17&lt;0,0.01,BB17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
-      <c r="DO17" s="66">
+      <c r="DP17" s="66">
         <f>IF(BC17&lt;0,0.01,BC17/Conversions!$B$3)</f>
         <v>4</v>
       </c>
+      <c r="DQ17" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -7304,125 +7382,131 @@
         <f>CI18</f>
         <v>0</v>
       </c>
-      <c r="CL18" s="52" t="str">
+      <c r="CK18" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM18" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ABIOCRP11</v>
       </c>
-      <c r="CM18" s="52" t="str">
+      <c r="CN18" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Wheat - Lo</v>
       </c>
-      <c r="CN18" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP18" s="52" t="str">
+      <c r="CP18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ18" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOCRP1</v>
       </c>
-      <c r="CQ18" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR18" s="66">
+      <c r="CR18" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS18" s="66">
         <f>IF(AF18&lt;0,0.01,AF18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CS18" s="66">
+      <c r="CT18" s="66">
         <f>IF(AG18&lt;0,0.01,AG18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CT18" s="66">
+      <c r="CU18" s="66">
         <f>IF(AH18&lt;0,0.01,AH18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CU18" s="66">
+      <c r="CV18" s="66">
         <f>IF(AI18&lt;0,0.01,AI18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CV18" s="66">
+      <c r="CW18" s="66">
         <f>IF(AJ18&lt;0,0.01,AJ18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CW18" s="66">
+      <c r="CX18" s="66">
         <f>IF(AK18&lt;0,0.01,AK18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CX18" s="66">
+      <c r="CY18" s="66">
         <f>IF(AL18&lt;0,0.01,AL18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CY18" s="66">
+      <c r="CZ18" s="66">
         <f>IF(AM18&lt;0,0.01,AM18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="CZ18" s="66">
+      <c r="DA18" s="66">
         <f>IF(AN18&lt;0,0.01,AN18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DA18" s="66">
+      <c r="DB18" s="66">
         <f>IF(AO18&lt;0,0.01,AO18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DB18" s="66">
+      <c r="DC18" s="66">
         <f>IF(AP18&lt;0,0.01,AP18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DC18" s="66">
+      <c r="DD18" s="66">
         <f>IF(AQ18&lt;0,0.01,AQ18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DD18" s="66">
+      <c r="DE18" s="66">
         <f>IF(AR18&lt;0,0.01,AR18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DE18" s="66">
+      <c r="DF18" s="66">
         <f>IF(AS18&lt;0,0.01,AS18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DF18" s="66">
+      <c r="DG18" s="66">
         <f>IF(AT18&lt;0,0.01,AT18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DG18" s="66">
+      <c r="DH18" s="66">
         <f>IF(AU18&lt;0,0.01,AU18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DH18" s="66">
+      <c r="DI18" s="66">
         <f>IF(AV18&lt;0,0.01,AV18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DI18" s="66">
+      <c r="DJ18" s="66">
         <f>IF(AW18&lt;0,0.01,AW18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DJ18" s="66">
+      <c r="DK18" s="66">
         <f>IF(AX18&lt;0,0.01,AX18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DK18" s="66">
+      <c r="DL18" s="66">
         <f>IF(AY18&lt;0,0.01,AY18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DL18" s="66">
+      <c r="DM18" s="66">
         <f>IF(AZ18&lt;0,0.01,AZ18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DM18" s="66">
+      <c r="DN18" s="66">
         <f>IF(BA18&lt;0,0.01,BA18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DN18" s="66">
+      <c r="DO18" s="66">
         <f>IF(BB18&lt;0,0.01,BB18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
-      <c r="DO18" s="66">
+      <c r="DP18" s="66">
         <f>IF(BC18&lt;0,0.01,BC18/Conversions!$B$3)</f>
         <v>19.01805954934806</v>
       </c>
+      <c r="DQ18" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -7706,125 +7790,131 @@
         <f>CI19</f>
         <v>0</v>
       </c>
-      <c r="CL19" s="52" t="str">
+      <c r="CK19" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM19" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ABIOCRP21</v>
       </c>
-      <c r="CM19" s="52" t="str">
+      <c r="CN19" s="52" t="str">
         <f t="shared" si="1"/>
         <v>OSR - Lo</v>
       </c>
-      <c r="CN19" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO19" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP19" s="52" t="str">
+      <c r="CP19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ19" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIORPS</v>
       </c>
-      <c r="CQ19" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR19" s="66">
+      <c r="CR19" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS19" s="66">
         <f>IF(AF19&lt;0,0.01,AF19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CS19" s="66">
+      <c r="CT19" s="66">
         <f>IF(AG19&lt;0,0.01,AG19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CT19" s="66">
+      <c r="CU19" s="66">
         <f>IF(AH19&lt;0,0.01,AH19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CU19" s="66">
+      <c r="CV19" s="66">
         <f>IF(AI19&lt;0,0.01,AI19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CV19" s="66">
+      <c r="CW19" s="66">
         <f>IF(AJ19&lt;0,0.01,AJ19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CW19" s="66">
+      <c r="CX19" s="66">
         <f>IF(AK19&lt;0,0.01,AK19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CX19" s="66">
+      <c r="CY19" s="66">
         <f>IF(AL19&lt;0,0.01,AL19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CY19" s="66">
+      <c r="CZ19" s="66">
         <f>IF(AM19&lt;0,0.01,AM19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="CZ19" s="66">
+      <c r="DA19" s="66">
         <f>IF(AN19&lt;0,0.01,AN19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DA19" s="66">
+      <c r="DB19" s="66">
         <f>IF(AO19&lt;0,0.01,AO19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DB19" s="66">
+      <c r="DC19" s="66">
         <f>IF(AP19&lt;0,0.01,AP19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DC19" s="66">
+      <c r="DD19" s="66">
         <f>IF(AQ19&lt;0,0.01,AQ19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DD19" s="66">
+      <c r="DE19" s="66">
         <f>IF(AR19&lt;0,0.01,AR19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DE19" s="66">
+      <c r="DF19" s="66">
         <f>IF(AS19&lt;0,0.01,AS19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DF19" s="66">
+      <c r="DG19" s="66">
         <f>IF(AT19&lt;0,0.01,AT19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DG19" s="66">
+      <c r="DH19" s="66">
         <f>IF(AU19&lt;0,0.01,AU19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DH19" s="66">
+      <c r="DI19" s="66">
         <f>IF(AV19&lt;0,0.01,AV19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DI19" s="66">
+      <c r="DJ19" s="66">
         <f>IF(AW19&lt;0,0.01,AW19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DJ19" s="66">
+      <c r="DK19" s="66">
         <f>IF(AX19&lt;0,0.01,AX19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DK19" s="66">
+      <c r="DL19" s="66">
         <f>IF(AY19&lt;0,0.01,AY19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DL19" s="66">
+      <c r="DM19" s="66">
         <f>IF(AZ19&lt;0,0.01,AZ19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DM19" s="66">
+      <c r="DN19" s="66">
         <f>IF(BA19&lt;0,0.01,BA19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DN19" s="66">
+      <c r="DO19" s="66">
         <f>IF(BB19&lt;0,0.01,BB19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
-      <c r="DO19" s="66">
+      <c r="DP19" s="66">
         <f>IF(BC19&lt;0,0.01,BC19/Conversions!$B$3)</f>
         <v>21.5614014897169</v>
       </c>
+      <c r="DQ19" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -8109,125 +8199,131 @@
         <f>TREND(BT20:CI20,$BT$5:$CI$5,$CJ$5)</f>
         <v>2.2276481144467368</v>
       </c>
-      <c r="CL20" s="52" t="str">
+      <c r="CK20" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM20" s="52" t="str">
         <f t="shared" si="0"/>
         <v>ABIOGAS11</v>
       </c>
-      <c r="CM20" s="52" t="str">
+      <c r="CN20" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Crops Anaerobic - Lo</v>
       </c>
-      <c r="CN20" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO20" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP20" s="52" t="str">
+      <c r="CP20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ20" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOGAS</v>
       </c>
-      <c r="CQ20" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR20" s="66">
+      <c r="CR20" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS20" s="66">
         <f>IF(AF20&lt;0,0.01,AF20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CS20" s="66">
+      <c r="CT20" s="66">
         <f>IF(AG20&lt;0,0.01,AG20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CT20" s="66">
+      <c r="CU20" s="66">
         <f>IF(AH20&lt;0,0.01,AH20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CU20" s="66">
+      <c r="CV20" s="66">
         <f>IF(AI20&lt;0,0.01,AI20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CV20" s="66">
+      <c r="CW20" s="66">
         <f>IF(AJ20&lt;0,0.01,AJ20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CW20" s="66">
+      <c r="CX20" s="66">
         <f>IF(AK20&lt;0,0.01,AK20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CX20" s="66">
+      <c r="CY20" s="66">
         <f>IF(AL20&lt;0,0.01,AL20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CY20" s="66">
+      <c r="CZ20" s="66">
         <f>IF(AM20&lt;0,0.01,AM20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="CZ20" s="66">
+      <c r="DA20" s="66">
         <f>IF(AN20&lt;0,0.01,AN20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DA20" s="66">
+      <c r="DB20" s="66">
         <f>IF(AO20&lt;0,0.01,AO20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DB20" s="66">
+      <c r="DC20" s="66">
         <f>IF(AP20&lt;0,0.01,AP20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DC20" s="66">
+      <c r="DD20" s="66">
         <f>IF(AQ20&lt;0,0.01,AQ20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DD20" s="66">
+      <c r="DE20" s="66">
         <f>IF(AR20&lt;0,0.01,AR20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DE20" s="66">
+      <c r="DF20" s="66">
         <f>IF(AS20&lt;0,0.01,AS20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DF20" s="66">
+      <c r="DG20" s="66">
         <f>IF(AT20&lt;0,0.01,AT20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DG20" s="66">
+      <c r="DH20" s="66">
         <f>IF(AU20&lt;0,0.01,AU20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DH20" s="66">
+      <c r="DI20" s="66">
         <f>IF(AV20&lt;0,0.01,AV20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DI20" s="66">
+      <c r="DJ20" s="66">
         <f>IF(AW20&lt;0,0.01,AW20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DJ20" s="66">
+      <c r="DK20" s="66">
         <f>IF(AX20&lt;0,0.01,AX20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DK20" s="66">
+      <c r="DL20" s="66">
         <f>IF(AY20&lt;0,0.01,AY20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DL20" s="66">
+      <c r="DM20" s="66">
         <f>IF(AZ20&lt;0,0.01,AZ20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DM20" s="66">
+      <c r="DN20" s="66">
         <f>IF(BA20&lt;0,0.01,BA20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DN20" s="66">
+      <c r="DO20" s="66">
         <f>IF(BB20&lt;0,0.01,BB20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
-      <c r="DO20" s="66">
+      <c r="DP20" s="66">
         <f>IF(BC20&lt;0,0.01,BC20/Conversions!$B$3)</f>
         <v>4.6880473492782269</v>
       </c>
+      <c r="DQ20" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -8392,7 +8488,7 @@
       </c>
       <c r="BD21" s="32"/>
       <c r="BE21" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG21" s="52" t="str">
         <f>"MINBIOINDF"&amp;BE21</f>
@@ -8511,125 +8607,131 @@
         <f>CI21</f>
         <v>0.58653759359590085</v>
       </c>
-      <c r="CL21" s="52" t="str">
+      <c r="CK21" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM21" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MINBIOINDF_S1</v>
       </c>
-      <c r="CM21" s="52" t="str">
+      <c r="CN21" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Industrial Food - Lo</v>
       </c>
-      <c r="CN21" s="15" t="s">
+      <c r="CO21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO21" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP21" s="52" t="str">
+      <c r="CP21" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ21" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ21" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR21" s="66">
+      <c r="CR21" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS21" s="66">
         <f>IF(AF21&lt;0,0.01,AF21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CS21" s="66">
+      <c r="CT21" s="66">
         <f>IF(AG21&lt;0,0.01,AG21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CT21" s="66">
+      <c r="CU21" s="66">
         <f>IF(AH21&lt;0,0.01,AH21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CU21" s="66">
+      <c r="CV21" s="66">
         <f>IF(AI21&lt;0,0.01,AI21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CV21" s="66">
+      <c r="CW21" s="66">
         <f>IF(AJ21&lt;0,0.01,AJ21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CW21" s="66">
+      <c r="CX21" s="66">
         <f>IF(AK21&lt;0,0.01,AK21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CX21" s="66">
+      <c r="CY21" s="66">
         <f>IF(AL21&lt;0,0.01,AL21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CY21" s="66">
+      <c r="CZ21" s="66">
         <f>IF(AM21&lt;0,0.01,AM21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CZ21" s="66">
+      <c r="DA21" s="66">
         <f>IF(AN21&lt;0,0.01,AN21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DA21" s="66">
+      <c r="DB21" s="66">
         <f>IF(AO21&lt;0,0.01,AO21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DB21" s="66">
+      <c r="DC21" s="66">
         <f>IF(AP21&lt;0,0.01,AP21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DC21" s="66">
+      <c r="DD21" s="66">
         <f>IF(AQ21&lt;0,0.01,AQ21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DD21" s="66">
+      <c r="DE21" s="66">
         <f>IF(AR21&lt;0,0.01,AR21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DE21" s="66">
+      <c r="DF21" s="66">
         <f>IF(AS21&lt;0,0.01,AS21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DF21" s="66">
+      <c r="DG21" s="66">
         <f>IF(AT21&lt;0,0.01,AT21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DG21" s="66">
+      <c r="DH21" s="66">
         <f>IF(AU21&lt;0,0.01,AU21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DH21" s="66">
+      <c r="DI21" s="66">
         <f>IF(AV21&lt;0,0.01,AV21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DI21" s="66">
+      <c r="DJ21" s="66">
         <f>IF(AW21&lt;0,0.01,AW21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DJ21" s="66">
+      <c r="DK21" s="66">
         <f>IF(AX21&lt;0,0.01,AX21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DK21" s="66">
+      <c r="DL21" s="66">
         <f>IF(AY21&lt;0,0.01,AY21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DL21" s="66">
+      <c r="DM21" s="66">
         <f>IF(AZ21&lt;0,0.01,AZ21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DM21" s="66">
+      <c r="DN21" s="66">
         <f>IF(BA21&lt;0,0.01,BA21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DN21" s="66">
+      <c r="DO21" s="66">
         <f>IF(BB21&lt;0,0.01,BB21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DO21" s="66">
+      <c r="DP21" s="66">
         <f>IF(BC21&lt;0,0.01,BC21/Conversions!$B$3)</f>
         <v>0</v>
       </c>
+      <c r="DQ21" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -8640,7 +8742,7 @@
       <c r="H22" s="30"/>
       <c r="BD22" s="32"/>
     </row>
-    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -8649,7 +8751,7 @@
       </c>
       <c r="BD23" s="32"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -8715,7 +8817,7 @@
       <c r="BD24" s="32"/>
       <c r="BG24" s="51"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:121" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -8879,10 +8981,10 @@
         <v>94</v>
       </c>
       <c r="BH25" s="19"/>
-      <c r="CL25" s="71"/>
-      <c r="CM25" s="72"/>
+      <c r="CM25" s="71"/>
+      <c r="CN25" s="72"/>
     </row>
-    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -8941,11 +9043,11 @@
       <c r="BG26" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="CL26" s="31" t="s">
+      <c r="CM26" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -9091,98 +9193,104 @@
       <c r="CJ27" s="27">
         <v>2050</v>
       </c>
-      <c r="CL27" s="29" t="s">
+      <c r="CK27" s="27">
+        <v>0</v>
+      </c>
+      <c r="CM27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="CM27" s="28" t="s">
+      <c r="CN27" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CN27" s="28" t="s">
+      <c r="CO27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="CO27" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="CP27" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ27" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="CQ27" s="28" t="s">
+      <c r="CR27" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="CR27" s="27">
+      <c r="CS27" s="27">
         <v>2012</v>
       </c>
-      <c r="CS27" s="27">
+      <c r="CT27" s="27">
         <v>2013</v>
       </c>
-      <c r="CT27" s="27">
+      <c r="CU27" s="27">
         <v>2014</v>
       </c>
-      <c r="CU27" s="27">
+      <c r="CV27" s="27">
         <v>2015</v>
       </c>
-      <c r="CV27" s="27">
+      <c r="CW27" s="27">
         <v>2016</v>
       </c>
-      <c r="CW27" s="27">
+      <c r="CX27" s="27">
         <v>2017</v>
       </c>
-      <c r="CX27" s="27">
+      <c r="CY27" s="27">
         <v>2018</v>
       </c>
-      <c r="CY27" s="27">
+      <c r="CZ27" s="27">
         <v>2019</v>
       </c>
-      <c r="CZ27" s="27">
+      <c r="DA27" s="27">
         <v>2020</v>
       </c>
-      <c r="DA27" s="27">
+      <c r="DB27" s="27">
         <v>2021</v>
       </c>
-      <c r="DB27" s="27">
+      <c r="DC27" s="27">
         <v>2022</v>
       </c>
-      <c r="DC27" s="27">
+      <c r="DD27" s="27">
         <v>2023</v>
       </c>
-      <c r="DD27" s="27">
+      <c r="DE27" s="27">
         <v>2024</v>
       </c>
-      <c r="DE27" s="27">
+      <c r="DF27" s="27">
         <v>2025</v>
       </c>
-      <c r="DF27" s="27">
+      <c r="DG27" s="27">
         <v>2026</v>
       </c>
-      <c r="DG27" s="27">
+      <c r="DH27" s="27">
         <v>2027</v>
       </c>
-      <c r="DH27" s="27">
+      <c r="DI27" s="27">
         <v>2028</v>
       </c>
-      <c r="DI27" s="27">
+      <c r="DJ27" s="27">
         <v>2029</v>
       </c>
-      <c r="DJ27" s="27">
+      <c r="DK27" s="27">
         <v>2030</v>
       </c>
-      <c r="DK27" s="27">
+      <c r="DL27" s="27">
         <v>2031</v>
       </c>
-      <c r="DL27" s="27">
+      <c r="DM27" s="27">
         <v>2032</v>
       </c>
-      <c r="DM27" s="27">
+      <c r="DN27" s="27">
         <v>2033</v>
       </c>
-      <c r="DN27" s="27">
+      <c r="DO27" s="27">
         <v>2034</v>
       </c>
-      <c r="DO27" s="27">
+      <c r="DP27" s="27">
         <v>2035</v>
       </c>
+      <c r="DQ27" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -9466,125 +9574,131 @@
         <f>CI28</f>
         <v>0</v>
       </c>
-      <c r="CL28" s="52" t="str">
-        <f t="shared" ref="CL28:CL43" si="4">BG28</f>
+      <c r="CK28" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM28" s="52" t="str">
+        <f t="shared" ref="CM28:CM43" si="4">BG28</f>
         <v>ABIOFRSR2</v>
       </c>
-      <c r="CM28" s="52" t="str">
-        <f t="shared" ref="CM28:CM43" si="5">BH28</f>
+      <c r="CN28" s="52" t="str">
+        <f t="shared" ref="CN28:CN43" si="5">BH28</f>
         <v>Forest thinnings - Me</v>
-      </c>
-      <c r="CN28" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="CO28" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP28" s="52" t="str">
-        <f t="shared" ref="CP28:CP43" si="6">BJ28</f>
+      <c r="CP28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ28" s="52" t="str">
+        <f t="shared" ref="CQ28:CQ43" si="6">BJ28</f>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ28" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR28" s="66">
+      <c r="CR28" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS28" s="66">
         <f>IF(AF28&lt;0,0.01,AF28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CS28" s="66">
+      <c r="CT28" s="66">
         <f>IF(AG28&lt;0,0.01,AG28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CT28" s="66">
+      <c r="CU28" s="66">
         <f>IF(AH28&lt;0,0.01,AH28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CU28" s="66">
+      <c r="CV28" s="66">
         <f>IF(AI28&lt;0,0.01,AI28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CV28" s="66">
+      <c r="CW28" s="66">
         <f>IF(AJ28&lt;0,0.01,AJ28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CW28" s="66">
+      <c r="CX28" s="66">
         <f>IF(AK28&lt;0,0.01,AK28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CX28" s="66">
+      <c r="CY28" s="66">
         <f>IF(AL28&lt;0,0.01,AL28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CY28" s="66">
+      <c r="CZ28" s="66">
         <f>IF(AM28&lt;0,0.01,AM28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="CZ28" s="66">
+      <c r="DA28" s="66">
         <f>IF(AN28&lt;0,0.01,AN28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DA28" s="66">
+      <c r="DB28" s="66">
         <f>IF(AO28&lt;0,0.01,AO28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DB28" s="66">
+      <c r="DC28" s="66">
         <f>IF(AP28&lt;0,0.01,AP28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DC28" s="66">
+      <c r="DD28" s="66">
         <f>IF(AQ28&lt;0,0.01,AQ28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DD28" s="66">
+      <c r="DE28" s="66">
         <f>IF(AR28&lt;0,0.01,AR28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DE28" s="66">
+      <c r="DF28" s="66">
         <f>IF(AS28&lt;0,0.01,AS28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DF28" s="66">
+      <c r="DG28" s="66">
         <f>IF(AT28&lt;0,0.01,AT28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DG28" s="66">
+      <c r="DH28" s="66">
         <f>IF(AU28&lt;0,0.01,AU28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DH28" s="66">
+      <c r="DI28" s="66">
         <f>IF(AV28&lt;0,0.01,AV28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DI28" s="66">
+      <c r="DJ28" s="66">
         <f>IF(AW28&lt;0,0.01,AW28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DJ28" s="66">
+      <c r="DK28" s="66">
         <f>IF(AX28&lt;0,0.01,AX28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DK28" s="66">
+      <c r="DL28" s="66">
         <f>IF(AY28&lt;0,0.01,AY28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DL28" s="66">
+      <c r="DM28" s="66">
         <f>IF(AZ28&lt;0,0.01,AZ28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DM28" s="66">
+      <c r="DN28" s="66">
         <f>IF(BA28&lt;0,0.01,BA28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DN28" s="66">
+      <c r="DO28" s="66">
         <f>IF(BB28&lt;0,0.01,BB28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
-      <c r="DO28" s="66">
+      <c r="DP28" s="66">
         <f>IF(BC28&lt;0,0.01,BC28/Conversions!$B$3)</f>
         <v>5</v>
       </c>
+      <c r="DQ28" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -9749,7 +9863,7 @@
       </c>
       <c r="BD29" s="32"/>
       <c r="BE29" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG29" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE29</f>
@@ -9868,125 +9982,131 @@
         <f>CI29</f>
         <v>0</v>
       </c>
-      <c r="CL29" s="52" t="str">
+      <c r="CK29" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM29" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOWOO1_S2</v>
       </c>
-      <c r="CM29" s="52" t="str">
+      <c r="CN29" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Sawmill residues - Me</v>
       </c>
-      <c r="CN29" s="15" t="s">
+      <c r="CO29" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP29" s="52" t="str">
+      <c r="CP29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ29" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ29" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR29" s="66">
+      <c r="CR29" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS29" s="66">
         <f>IF(AF29&lt;0,0.01,AF29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CS29" s="66">
+      <c r="CT29" s="66">
         <f>IF(AG29&lt;0,0.01,AG29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CT29" s="66">
+      <c r="CU29" s="66">
         <f>IF(AH29&lt;0,0.01,AH29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CU29" s="66">
+      <c r="CV29" s="66">
         <f>IF(AI29&lt;0,0.01,AI29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CV29" s="66">
+      <c r="CW29" s="66">
         <f>IF(AJ29&lt;0,0.01,AJ29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CW29" s="66">
+      <c r="CX29" s="66">
         <f>IF(AK29&lt;0,0.01,AK29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CX29" s="66">
+      <c r="CY29" s="66">
         <f>IF(AL29&lt;0,0.01,AL29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CY29" s="66">
+      <c r="CZ29" s="66">
         <f>IF(AM29&lt;0,0.01,AM29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="CZ29" s="66">
+      <c r="DA29" s="66">
         <f>IF(AN29&lt;0,0.01,AN29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DA29" s="66">
+      <c r="DB29" s="66">
         <f>IF(AO29&lt;0,0.01,AO29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DB29" s="66">
+      <c r="DC29" s="66">
         <f>IF(AP29&lt;0,0.01,AP29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DC29" s="66">
+      <c r="DD29" s="66">
         <f>IF(AQ29&lt;0,0.01,AQ29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DD29" s="66">
+      <c r="DE29" s="66">
         <f>IF(AR29&lt;0,0.01,AR29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DE29" s="66">
+      <c r="DF29" s="66">
         <f>IF(AS29&lt;0,0.01,AS29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DF29" s="66">
+      <c r="DG29" s="66">
         <f>IF(AT29&lt;0,0.01,AT29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DG29" s="66">
+      <c r="DH29" s="66">
         <f>IF(AU29&lt;0,0.01,AU29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DH29" s="66">
+      <c r="DI29" s="66">
         <f>IF(AV29&lt;0,0.01,AV29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DI29" s="66">
+      <c r="DJ29" s="66">
         <f>IF(AW29&lt;0,0.01,AW29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DJ29" s="66">
+      <c r="DK29" s="66">
         <f>IF(AX29&lt;0,0.01,AX29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DK29" s="66">
+      <c r="DL29" s="66">
         <f>IF(AY29&lt;0,0.01,AY29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DL29" s="66">
+      <c r="DM29" s="66">
         <f>IF(AZ29&lt;0,0.01,AZ29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DM29" s="66">
+      <c r="DN29" s="66">
         <f>IF(BA29&lt;0,0.01,BA29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DN29" s="66">
+      <c r="DO29" s="66">
         <f>IF(BB29&lt;0,0.01,BB29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
-      <c r="DO29" s="66">
+      <c r="DP29" s="66">
         <f>IF(BC29&lt;0,0.01,BC29/Conversions!$B$3)</f>
         <v>7</v>
       </c>
+      <c r="DQ29" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -10151,7 +10271,7 @@
       </c>
       <c r="BD30" s="32"/>
       <c r="BE30" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG30" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE30</f>
@@ -10270,125 +10390,131 @@
         <f>TREND(CD30:CI30,$CD$5:$CI$5,$CJ$5)</f>
         <v>0.63624051867355824</v>
       </c>
-      <c r="CL30" s="52" t="str">
+      <c r="CK30" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM30" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOWOO2_S2</v>
       </c>
-      <c r="CM30" s="52" t="str">
+      <c r="CN30" s="52" t="str">
         <f t="shared" si="5"/>
         <v>PCRW - Me</v>
       </c>
-      <c r="CN30" s="15" t="s">
+      <c r="CO30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO30" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP30" s="52" t="str">
+      <c r="CP30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ30" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ30" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR30" s="66">
+      <c r="CR30" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS30" s="66">
         <f>IF(AF30&lt;0,0.01,AF30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CS30" s="66">
+      <c r="CT30" s="66">
         <f>IF(AG30&lt;0,0.01,AG30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CT30" s="66">
+      <c r="CU30" s="66">
         <f>IF(AH30&lt;0,0.01,AH30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CU30" s="66">
+      <c r="CV30" s="66">
         <f>IF(AI30&lt;0,0.01,AI30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CV30" s="66">
+      <c r="CW30" s="66">
         <f>IF(AJ30&lt;0,0.01,AJ30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CW30" s="66">
+      <c r="CX30" s="66">
         <f>IF(AK30&lt;0,0.01,AK30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CX30" s="66">
+      <c r="CY30" s="66">
         <f>IF(AL30&lt;0,0.01,AL30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CY30" s="66">
+      <c r="CZ30" s="66">
         <f>IF(AM30&lt;0,0.01,AM30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="CZ30" s="66">
+      <c r="DA30" s="66">
         <f>IF(AN30&lt;0,0.01,AN30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DA30" s="66">
+      <c r="DB30" s="66">
         <f>IF(AO30&lt;0,0.01,AO30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DB30" s="66">
+      <c r="DC30" s="66">
         <f>IF(AP30&lt;0,0.01,AP30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DC30" s="66">
+      <c r="DD30" s="66">
         <f>IF(AQ30&lt;0,0.01,AQ30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DD30" s="66">
+      <c r="DE30" s="66">
         <f>IF(AR30&lt;0,0.01,AR30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DE30" s="66">
+      <c r="DF30" s="66">
         <f>IF(AS30&lt;0,0.01,AS30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DF30" s="66">
+      <c r="DG30" s="66">
         <f>IF(AT30&lt;0,0.01,AT30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DG30" s="66">
+      <c r="DH30" s="66">
         <f>IF(AU30&lt;0,0.01,AU30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DH30" s="66">
+      <c r="DI30" s="66">
         <f>IF(AV30&lt;0,0.01,AV30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DI30" s="66">
+      <c r="DJ30" s="66">
         <f>IF(AW30&lt;0,0.01,AW30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DJ30" s="66">
+      <c r="DK30" s="66">
         <f>IF(AX30&lt;0,0.01,AX30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DK30" s="66">
+      <c r="DL30" s="66">
         <f>IF(AY30&lt;0,0.01,AY30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DL30" s="66">
+      <c r="DM30" s="66">
         <f>IF(AZ30&lt;0,0.01,AZ30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DM30" s="66">
+      <c r="DN30" s="66">
         <f>IF(BA30&lt;0,0.01,BA30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DN30" s="66">
+      <c r="DO30" s="66">
         <f>IF(BB30&lt;0,0.01,BB30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
-      <c r="DO30" s="66">
+      <c r="DP30" s="66">
         <f>IF(BC30&lt;0,0.01,BC30/Conversions!$B$3)</f>
         <v>2.7414965986394559</v>
       </c>
+      <c r="DQ30" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -10551,7 +10677,7 @@
       </c>
       <c r="BD31" s="32"/>
       <c r="BE31" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG31" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE31</f>
@@ -10670,125 +10796,131 @@
         <f>CI31</f>
         <v>0</v>
       </c>
-      <c r="CL31" s="52" t="str">
+      <c r="CK31" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM31" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOMSW1_S2</v>
       </c>
-      <c r="CM31" s="52" t="str">
+      <c r="CN31" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Solid BMSW - Me</v>
       </c>
-      <c r="CN31" s="15" t="s">
+      <c r="CO31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO31" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP31" s="52" t="str">
+      <c r="CP31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ31" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOMUN</v>
       </c>
-      <c r="CQ31" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR31" s="66">
+      <c r="CR31" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS31" s="66">
         <f>IF(AF31&lt;0,0.01,AF31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CS31" s="66">
+      <c r="CT31" s="66">
         <f>IF(AG31&lt;0,0.01,AG31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CT31" s="66">
+      <c r="CU31" s="66">
         <f>IF(AH31&lt;0,0.01,AH31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CU31" s="66">
+      <c r="CV31" s="66">
         <f>IF(AI31&lt;0,0.01,AI31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CV31" s="66">
+      <c r="CW31" s="66">
         <f>IF(AJ31&lt;0,0.01,AJ31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CW31" s="66">
+      <c r="CX31" s="66">
         <f>IF(AK31&lt;0,0.01,AK31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CX31" s="66">
+      <c r="CY31" s="66">
         <f>IF(AL31&lt;0,0.01,AL31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CY31" s="66">
+      <c r="CZ31" s="66">
         <f>IF(AM31&lt;0,0.01,AM31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CZ31" s="66">
+      <c r="DA31" s="66">
         <f>IF(AN31&lt;0,0.01,AN31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DA31" s="66">
+      <c r="DB31" s="66">
         <f>IF(AO31&lt;0,0.01,AO31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DB31" s="66">
+      <c r="DC31" s="66">
         <f>IF(AP31&lt;0,0.01,AP31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DC31" s="66">
+      <c r="DD31" s="66">
         <f>IF(AQ31&lt;0,0.01,AQ31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DD31" s="66">
+      <c r="DE31" s="66">
         <f>IF(AR31&lt;0,0.01,AR31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DE31" s="66">
+      <c r="DF31" s="66">
         <f>IF(AS31&lt;0,0.01,AS31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DF31" s="66">
+      <c r="DG31" s="66">
         <f>IF(AT31&lt;0,0.01,AT31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DG31" s="66">
+      <c r="DH31" s="66">
         <f>IF(AU31&lt;0,0.01,AU31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DH31" s="66">
+      <c r="DI31" s="66">
         <f>IF(AV31&lt;0,0.01,AV31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DI31" s="66">
+      <c r="DJ31" s="66">
         <f>IF(AW31&lt;0,0.01,AW31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DJ31" s="66">
+      <c r="DK31" s="66">
         <f>IF(AX31&lt;0,0.01,AX31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DK31" s="66">
+      <c r="DL31" s="66">
         <f>IF(AY31&lt;0,0.01,AY31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DL31" s="66">
+      <c r="DM31" s="66">
         <f>IF(AZ31&lt;0,0.01,AZ31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DM31" s="66">
+      <c r="DN31" s="66">
         <f>IF(BA31&lt;0,0.01,BA31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DN31" s="66">
+      <c r="DO31" s="66">
         <f>IF(BB31&lt;0,0.01,BB31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DO31" s="66">
+      <c r="DP31" s="66">
         <f>IF(BC31&lt;0,0.01,BC31/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
+      <c r="DQ31" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -10953,7 +11085,7 @@
       </c>
       <c r="BD32" s="32"/>
       <c r="BE32" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG32" s="52" t="str">
         <f>"MINBIOTLW"&amp;BE32</f>
@@ -11072,125 +11204,131 @@
         <f>CI32</f>
         <v>0.57245925757788385</v>
       </c>
-      <c r="CL32" s="52" t="str">
+      <c r="CK32" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM32" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOTLW_S2</v>
       </c>
-      <c r="CM32" s="52" t="str">
+      <c r="CN32" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Tallow - Me</v>
       </c>
-      <c r="CN32" s="15" t="s">
+      <c r="CO32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO32" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP32" s="52" t="str">
+      <c r="CP32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ32" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ32" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR32" s="66">
+      <c r="CR32" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS32" s="66">
         <f>IF(AF32&lt;0,0.01,AF32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CS32" s="66">
+      <c r="CT32" s="66">
         <f>IF(AG32&lt;0,0.01,AG32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CT32" s="66">
+      <c r="CU32" s="66">
         <f>IF(AH32&lt;0,0.01,AH32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CU32" s="66">
+      <c r="CV32" s="66">
         <f>IF(AI32&lt;0,0.01,AI32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CV32" s="66">
+      <c r="CW32" s="66">
         <f>IF(AJ32&lt;0,0.01,AJ32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CW32" s="66">
+      <c r="CX32" s="66">
         <f>IF(AK32&lt;0,0.01,AK32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CX32" s="66">
+      <c r="CY32" s="66">
         <f>IF(AL32&lt;0,0.01,AL32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CY32" s="66">
+      <c r="CZ32" s="66">
         <f>IF(AM32&lt;0,0.01,AM32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="CZ32" s="66">
+      <c r="DA32" s="66">
         <f>IF(AN32&lt;0,0.01,AN32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DA32" s="66">
+      <c r="DB32" s="66">
         <f>IF(AO32&lt;0,0.01,AO32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DB32" s="66">
+      <c r="DC32" s="66">
         <f>IF(AP32&lt;0,0.01,AP32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DC32" s="66">
+      <c r="DD32" s="66">
         <f>IF(AQ32&lt;0,0.01,AQ32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DD32" s="66">
+      <c r="DE32" s="66">
         <f>IF(AR32&lt;0,0.01,AR32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DE32" s="66">
+      <c r="DF32" s="66">
         <f>IF(AS32&lt;0,0.01,AS32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DF32" s="66">
+      <c r="DG32" s="66">
         <f>IF(AT32&lt;0,0.01,AT32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DG32" s="66">
+      <c r="DH32" s="66">
         <f>IF(AU32&lt;0,0.01,AU32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DH32" s="66">
+      <c r="DI32" s="66">
         <f>IF(AV32&lt;0,0.01,AV32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DI32" s="66">
+      <c r="DJ32" s="66">
         <f>IF(AW32&lt;0,0.01,AW32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DJ32" s="66">
+      <c r="DK32" s="66">
         <f>IF(AX32&lt;0,0.01,AX32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DK32" s="66">
+      <c r="DL32" s="66">
         <f>IF(AY32&lt;0,0.01,AY32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DL32" s="66">
+      <c r="DM32" s="66">
         <f>IF(AZ32&lt;0,0.01,AZ32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DM32" s="66">
+      <c r="DN32" s="66">
         <f>IF(BA32&lt;0,0.01,BA32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DN32" s="66">
+      <c r="DO32" s="66">
         <f>IF(BB32&lt;0,0.01,BB32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
-      <c r="DO32" s="66">
+      <c r="DP32" s="66">
         <f>IF(BC32&lt;0,0.01,BC32/Conversions!$B$3)</f>
         <v>10.174418604651162</v>
       </c>
+      <c r="DQ32" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -11355,7 +11493,7 @@
       </c>
       <c r="BD33" s="32"/>
       <c r="BE33" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG33" s="52" t="str">
         <f>"MINBIORVO"&amp;BE33</f>
@@ -11474,125 +11612,131 @@
         <f>TREND(BL33:CI33,$BL$5:$CI$5,$CJ$5)</f>
         <v>0.20912996939478257</v>
       </c>
-      <c r="CL33" s="52" t="str">
+      <c r="CK33" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM33" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIORVO_S2</v>
       </c>
-      <c r="CM33" s="52" t="str">
+      <c r="CN33" s="52" t="str">
         <f t="shared" si="5"/>
         <v>RVO - Me</v>
       </c>
-      <c r="CN33" s="15" t="s">
+      <c r="CO33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO33" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP33" s="52" t="str">
+      <c r="CP33" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ33" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIORPS</v>
       </c>
-      <c r="CQ33" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR33" s="66">
+      <c r="CR33" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS33" s="66">
         <f>IF(AF33&lt;0,0.01,AF33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CS33" s="66">
+      <c r="CT33" s="66">
         <f>IF(AG33&lt;0,0.01,AG33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CT33" s="66">
+      <c r="CU33" s="66">
         <f>IF(AH33&lt;0,0.01,AH33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CU33" s="66">
+      <c r="CV33" s="66">
         <f>IF(AI33&lt;0,0.01,AI33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CV33" s="66">
+      <c r="CW33" s="66">
         <f>IF(AJ33&lt;0,0.01,AJ33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CW33" s="66">
+      <c r="CX33" s="66">
         <f>IF(AK33&lt;0,0.01,AK33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CX33" s="66">
+      <c r="CY33" s="66">
         <f>IF(AL33&lt;0,0.01,AL33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CY33" s="66">
+      <c r="CZ33" s="66">
         <f>IF(AM33&lt;0,0.01,AM33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="CZ33" s="66">
+      <c r="DA33" s="66">
         <f>IF(AN33&lt;0,0.01,AN33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DA33" s="66">
+      <c r="DB33" s="66">
         <f>IF(AO33&lt;0,0.01,AO33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DB33" s="66">
+      <c r="DC33" s="66">
         <f>IF(AP33&lt;0,0.01,AP33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DC33" s="66">
+      <c r="DD33" s="66">
         <f>IF(AQ33&lt;0,0.01,AQ33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DD33" s="66">
+      <c r="DE33" s="66">
         <f>IF(AR33&lt;0,0.01,AR33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DE33" s="66">
+      <c r="DF33" s="66">
         <f>IF(AS33&lt;0,0.01,AS33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DF33" s="66">
+      <c r="DG33" s="66">
         <f>IF(AT33&lt;0,0.01,AT33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DG33" s="66">
+      <c r="DH33" s="66">
         <f>IF(AU33&lt;0,0.01,AU33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DH33" s="66">
+      <c r="DI33" s="66">
         <f>IF(AV33&lt;0,0.01,AV33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DI33" s="66">
+      <c r="DJ33" s="66">
         <f>IF(AW33&lt;0,0.01,AW33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DJ33" s="66">
+      <c r="DK33" s="66">
         <f>IF(AX33&lt;0,0.01,AX33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DK33" s="66">
+      <c r="DL33" s="66">
         <f>IF(AY33&lt;0,0.01,AY33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DL33" s="66">
+      <c r="DM33" s="66">
         <f>IF(AZ33&lt;0,0.01,AZ33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DM33" s="66">
+      <c r="DN33" s="66">
         <f>IF(BA33&lt;0,0.01,BA33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DN33" s="66">
+      <c r="DO33" s="66">
         <f>IF(BB33&lt;0,0.01,BB33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
-      <c r="DO33" s="66">
+      <c r="DP33" s="66">
         <f>IF(BC33&lt;0,0.01,BC33/Conversions!$B$3)</f>
         <v>22.388888888888889</v>
       </c>
+      <c r="DQ33" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -11757,7 +11901,7 @@
       </c>
       <c r="BD34" s="32"/>
       <c r="BE34" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG34" s="52" t="str">
         <f>"MINBIOWOO3"&amp;BE34</f>
@@ -11876,125 +12020,131 @@
         <f>TREND(BT34:CI34,$BT$5:$CI$5,$CJ$5)</f>
         <v>4.2606548535687239</v>
       </c>
-      <c r="CL34" s="52" t="str">
+      <c r="CK34" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM34" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOWOO3_S2</v>
       </c>
-      <c r="CM34" s="52" t="str">
+      <c r="CN34" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Straw - Me</v>
       </c>
-      <c r="CN34" s="15" t="s">
+      <c r="CO34" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO34" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP34" s="52" t="str">
+      <c r="CP34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ34" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ34" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR34" s="66">
+      <c r="CR34" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS34" s="66">
         <f>IF(AF34&lt;0,0.01,AF34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="CS34" s="66">
+      <c r="CT34" s="66">
         <f>IF(AG34&lt;0,0.01,AG34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="CT34" s="66">
+      <c r="CU34" s="66">
         <f>IF(AH34&lt;0,0.01,AH34/Conversions!$B$3)</f>
         <v>4.2369831489884078</v>
       </c>
-      <c r="CU34" s="66">
+      <c r="CV34" s="66">
         <f>IF(AI34&lt;0,0.01,AI34/Conversions!$B$3)</f>
         <v>4.2369831489884078</v>
       </c>
-      <c r="CV34" s="66">
+      <c r="CW34" s="66">
         <f>IF(AJ34&lt;0,0.01,AJ34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="CW34" s="66">
+      <c r="CX34" s="66">
         <f>IF(AK34&lt;0,0.01,AK34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="CX34" s="66">
+      <c r="CY34" s="66">
         <f>IF(AL34&lt;0,0.01,AL34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="CY34" s="66">
+      <c r="CZ34" s="66">
         <f>IF(AM34&lt;0,0.01,AM34/Conversions!$B$3)</f>
         <v>4.2369831489884078</v>
       </c>
-      <c r="CZ34" s="66">
+      <c r="DA34" s="66">
         <f>IF(AN34&lt;0,0.01,AN34/Conversions!$B$3)</f>
         <v>4.2369831489884078</v>
       </c>
-      <c r="DA34" s="66">
+      <c r="DB34" s="66">
         <f>IF(AO34&lt;0,0.01,AO34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DB34" s="66">
+      <c r="DC34" s="66">
         <f>IF(AP34&lt;0,0.01,AP34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DC34" s="66">
+      <c r="DD34" s="66">
         <f>IF(AQ34&lt;0,0.01,AQ34/Conversions!$B$3)</f>
         <v>4.2369831489884078</v>
       </c>
-      <c r="DD34" s="66">
+      <c r="DE34" s="66">
         <f>IF(AR34&lt;0,0.01,AR34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DE34" s="66">
+      <c r="DF34" s="66">
         <f>IF(AS34&lt;0,0.01,AS34/Conversions!$B$3)</f>
         <v>4.2369831489884078</v>
       </c>
-      <c r="DF34" s="66">
+      <c r="DG34" s="66">
         <f>IF(AT34&lt;0,0.01,AT34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DG34" s="66">
+      <c r="DH34" s="66">
         <f>IF(AU34&lt;0,0.01,AU34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DH34" s="66">
+      <c r="DI34" s="66">
         <f>IF(AV34&lt;0,0.01,AV34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DI34" s="66">
+      <c r="DJ34" s="66">
         <f>IF(AW34&lt;0,0.01,AW34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DJ34" s="66">
+      <c r="DK34" s="66">
         <f>IF(AX34&lt;0,0.01,AX34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DK34" s="66">
+      <c r="DL34" s="66">
         <f>IF(AY34&lt;0,0.01,AY34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DL34" s="66">
+      <c r="DM34" s="66">
         <f>IF(AZ34&lt;0,0.01,AZ34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DM34" s="66">
+      <c r="DN34" s="66">
         <f>IF(BA34&lt;0,0.01,BA34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DN34" s="66">
+      <c r="DO34" s="66">
         <f>IF(BB34&lt;0,0.01,BB34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
-      <c r="DO34" s="66">
+      <c r="DP34" s="66">
         <f>IF(BC34&lt;0,0.01,BC34/Conversions!$B$3)</f>
         <v>4.2369831489884069</v>
       </c>
+      <c r="DQ34" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -12159,7 +12309,7 @@
       </c>
       <c r="BD35" s="32"/>
       <c r="BE35" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG35" s="52" t="str">
         <f>"MINBIOCATW"&amp;BE35</f>
@@ -12278,125 +12428,131 @@
         <f>CI35</f>
         <v>0</v>
       </c>
-      <c r="CL35" s="52" t="str">
+      <c r="CK35" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM35" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOCATW_S2</v>
       </c>
-      <c r="CM35" s="52" t="str">
+      <c r="CN35" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Cattle waste - Me</v>
       </c>
-      <c r="CN35" s="15" t="s">
+      <c r="CO35" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO35" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP35" s="52" t="str">
+      <c r="CP35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ35" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ35" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR35" s="66">
+      <c r="CR35" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS35" s="66">
         <f>IF(AF35&lt;0,0.01,AF35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="CS35" s="66">
+      <c r="CT35" s="66">
         <f>IF(AG35&lt;0,0.01,AG35/Conversions!$B$3)</f>
         <v>4.363421096016034</v>
       </c>
-      <c r="CT35" s="66">
+      <c r="CU35" s="66">
         <f>IF(AH35&lt;0,0.01,AH35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="CU35" s="66">
+      <c r="CV35" s="66">
         <f>IF(AI35&lt;0,0.01,AI35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="CV35" s="66">
+      <c r="CW35" s="66">
         <f>IF(AJ35&lt;0,0.01,AJ35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="CW35" s="66">
+      <c r="CX35" s="66">
         <f>IF(AK35&lt;0,0.01,AK35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="CX35" s="66">
+      <c r="CY35" s="66">
         <f>IF(AL35&lt;0,0.01,AL35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="CY35" s="66">
+      <c r="CZ35" s="66">
         <f>IF(AM35&lt;0,0.01,AM35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="CZ35" s="66">
+      <c r="DA35" s="66">
         <f>IF(AN35&lt;0,0.01,AN35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="DA35" s="66">
+      <c r="DB35" s="66">
         <f>IF(AO35&lt;0,0.01,AO35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="DB35" s="66">
+      <c r="DC35" s="66">
         <f>IF(AP35&lt;0,0.01,AP35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="DC35" s="66">
+      <c r="DD35" s="66">
         <f>IF(AQ35&lt;0,0.01,AQ35/Conversions!$B$3)</f>
         <v>4.9533246244159637</v>
       </c>
-      <c r="DD35" s="66">
+      <c r="DE35" s="66">
         <f>IF(AR35&lt;0,0.01,AR35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="DE35" s="66">
+      <c r="DF35" s="66">
         <f>IF(AS35&lt;0,0.01,AS35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="DF35" s="66">
+      <c r="DG35" s="66">
         <f>IF(AT35&lt;0,0.01,AT35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="DG35" s="66">
+      <c r="DH35" s="66">
         <f>IF(AU35&lt;0,0.01,AU35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="DH35" s="66">
+      <c r="DI35" s="66">
         <f>IF(AV35&lt;0,0.01,AV35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="DI35" s="66">
+      <c r="DJ35" s="66">
         <f>IF(AW35&lt;0,0.01,AW35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="DJ35" s="66">
+      <c r="DK35" s="66">
         <f>IF(AX35&lt;0,0.01,AX35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="DK35" s="66">
+      <c r="DL35" s="66">
         <f>IF(AY35&lt;0,0.01,AY35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="DL35" s="66">
+      <c r="DM35" s="66">
         <f>IF(AZ35&lt;0,0.01,AZ35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="DM35" s="66">
+      <c r="DN35" s="66">
         <f>IF(BA35&lt;0,0.01,BA35/Conversions!$B$3)</f>
         <v>4.3634210960160322</v>
       </c>
-      <c r="DN35" s="66">
+      <c r="DO35" s="66">
         <f>IF(BB35&lt;0,0.01,BB35/Conversions!$B$3)</f>
         <v>4.3634210960160331</v>
       </c>
-      <c r="DO35" s="66">
+      <c r="DP35" s="66">
         <f>IF(BC35&lt;0,0.01,BC35/Conversions!$B$3)</f>
         <v>4.3634210960160313</v>
       </c>
+      <c r="DQ35" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -12561,7 +12717,7 @@
       </c>
       <c r="BD36" s="32"/>
       <c r="BE36" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG36" s="52" t="str">
         <f>"MINBIOPIGW"&amp;BE36</f>
@@ -12680,125 +12836,131 @@
         <f>CI36</f>
         <v>0</v>
       </c>
-      <c r="CL36" s="52" t="str">
+      <c r="CK36" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM36" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOPIGW_S2</v>
       </c>
-      <c r="CM36" s="52" t="str">
+      <c r="CN36" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Pig waste - Me</v>
       </c>
-      <c r="CN36" s="15" t="s">
+      <c r="CO36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO36" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP36" s="52" t="str">
+      <c r="CP36" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ36" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ36" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR36" s="66">
+      <c r="CR36" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS36" s="66">
         <f>IF(AF36&lt;0,0.01,AF36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="CS36" s="66">
+      <c r="CT36" s="66">
         <f>IF(AG36&lt;0,0.01,AG36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="CT36" s="66">
+      <c r="CU36" s="66">
         <f>IF(AH36&lt;0,0.01,AH36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="CU36" s="66">
+      <c r="CV36" s="66">
         <f>IF(AI36&lt;0,0.01,AI36/Conversions!$B$3)</f>
         <v>4.1371696317781632</v>
       </c>
-      <c r="CV36" s="66">
+      <c r="CW36" s="66">
         <f>IF(AJ36&lt;0,0.01,AJ36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="CW36" s="66">
+      <c r="CX36" s="66">
         <f>IF(AK36&lt;0,0.01,AK36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="CX36" s="66">
+      <c r="CY36" s="66">
         <f>IF(AL36&lt;0,0.01,AL36/Conversions!$B$3)</f>
         <v>4.1371696317781632</v>
       </c>
-      <c r="CY36" s="66">
+      <c r="CZ36" s="66">
         <f>IF(AM36&lt;0,0.01,AM36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="CZ36" s="66">
+      <c r="DA36" s="66">
         <f>IF(AN36&lt;0,0.01,AN36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="DA36" s="66">
+      <c r="DB36" s="66">
         <f>IF(AO36&lt;0,0.01,AO36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="DB36" s="66">
+      <c r="DC36" s="66">
         <f>IF(AP36&lt;0,0.01,AP36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="DC36" s="66">
+      <c r="DD36" s="66">
         <f>IF(AQ36&lt;0,0.01,AQ36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="DD36" s="66">
+      <c r="DE36" s="66">
         <f>IF(AR36&lt;0,0.01,AR36/Conversions!$B$3)</f>
         <v>4.1371696317781632</v>
       </c>
-      <c r="DE36" s="66">
+      <c r="DF36" s="66">
         <f>IF(AS36&lt;0,0.01,AS36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="DF36" s="66">
+      <c r="DG36" s="66">
         <f>IF(AT36&lt;0,0.01,AT36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="DG36" s="66">
+      <c r="DH36" s="66">
         <f>IF(AU36&lt;0,0.01,AU36/Conversions!$B$3)</f>
         <v>4.1371696317781632</v>
       </c>
-      <c r="DH36" s="66">
+      <c r="DI36" s="66">
         <f>IF(AV36&lt;0,0.01,AV36/Conversions!$B$3)</f>
         <v>4.1371696317781632</v>
       </c>
-      <c r="DI36" s="66">
+      <c r="DJ36" s="66">
         <f>IF(AW36&lt;0,0.01,AW36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="DJ36" s="66">
+      <c r="DK36" s="66">
         <f>IF(AX36&lt;0,0.01,AX36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="DK36" s="66">
+      <c r="DL36" s="66">
         <f>IF(AY36&lt;0,0.01,AY36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="DL36" s="66">
+      <c r="DM36" s="66">
         <f>IF(AZ36&lt;0,0.01,AZ36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="DM36" s="66">
+      <c r="DN36" s="66">
         <f>IF(BA36&lt;0,0.01,BA36/Conversions!$B$3)</f>
         <v>4.137169631778165</v>
       </c>
-      <c r="DN36" s="66">
+      <c r="DO36" s="66">
         <f>IF(BB36&lt;0,0.01,BB36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
-      <c r="DO36" s="66">
+      <c r="DP36" s="66">
         <f>IF(BC36&lt;0,0.01,BC36/Conversions!$B$3)</f>
         <v>4.1371696317781641</v>
       </c>
+      <c r="DQ36" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -12963,7 +13125,7 @@
       </c>
       <c r="BD37" s="32"/>
       <c r="BE37" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG37" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE37</f>
@@ -13082,125 +13244,131 @@
         <f>TREND(BT37:CI37,$BT$5:$CI$5,$CJ$5)</f>
         <v>0.25705588327448137</v>
       </c>
-      <c r="CL37" s="52" t="str">
+      <c r="CK37" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM37" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOMSW2_S2</v>
       </c>
-      <c r="CM37" s="52" t="str">
+      <c r="CN37" s="52" t="str">
         <f t="shared" si="5"/>
         <v>BMSW - Me</v>
       </c>
-      <c r="CN37" s="15" t="s">
+      <c r="CO37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO37" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP37" s="52" t="str">
+      <c r="CP37" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ37" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOMUN</v>
       </c>
-      <c r="CQ37" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR37" s="66">
+      <c r="CR37" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS37" s="66">
         <f>IF(AF37&lt;0,0.01,AF37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CS37" s="66">
+      <c r="CT37" s="66">
         <f>IF(AG37&lt;0,0.01,AG37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CT37" s="66">
+      <c r="CU37" s="66">
         <f>IF(AH37&lt;0,0.01,AH37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CU37" s="66">
+      <c r="CV37" s="66">
         <f>IF(AI37&lt;0,0.01,AI37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CV37" s="66">
+      <c r="CW37" s="66">
         <f>IF(AJ37&lt;0,0.01,AJ37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CW37" s="66">
+      <c r="CX37" s="66">
         <f>IF(AK37&lt;0,0.01,AK37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CX37" s="66">
+      <c r="CY37" s="66">
         <f>IF(AL37&lt;0,0.01,AL37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CY37" s="66">
+      <c r="CZ37" s="66">
         <f>IF(AM37&lt;0,0.01,AM37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CZ37" s="66">
+      <c r="DA37" s="66">
         <f>IF(AN37&lt;0,0.01,AN37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DA37" s="66">
+      <c r="DB37" s="66">
         <f>IF(AO37&lt;0,0.01,AO37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DB37" s="66">
+      <c r="DC37" s="66">
         <f>IF(AP37&lt;0,0.01,AP37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DC37" s="66">
+      <c r="DD37" s="66">
         <f>IF(AQ37&lt;0,0.01,AQ37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DD37" s="66">
+      <c r="DE37" s="66">
         <f>IF(AR37&lt;0,0.01,AR37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DE37" s="66">
+      <c r="DF37" s="66">
         <f>IF(AS37&lt;0,0.01,AS37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DF37" s="66">
+      <c r="DG37" s="66">
         <f>IF(AT37&lt;0,0.01,AT37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DG37" s="66">
+      <c r="DH37" s="66">
         <f>IF(AU37&lt;0,0.01,AU37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DH37" s="66">
+      <c r="DI37" s="66">
         <f>IF(AV37&lt;0,0.01,AV37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DI37" s="66">
+      <c r="DJ37" s="66">
         <f>IF(AW37&lt;0,0.01,AW37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DJ37" s="66">
+      <c r="DK37" s="66">
         <f>IF(AX37&lt;0,0.01,AX37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DK37" s="66">
+      <c r="DL37" s="66">
         <f>IF(AY37&lt;0,0.01,AY37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DL37" s="66">
+      <c r="DM37" s="66">
         <f>IF(AZ37&lt;0,0.01,AZ37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DM37" s="66">
+      <c r="DN37" s="66">
         <f>IF(BA37&lt;0,0.01,BA37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DN37" s="66">
+      <c r="DO37" s="66">
         <f>IF(BB37&lt;0,0.01,BB37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DO37" s="66">
+      <c r="DP37" s="66">
         <f>IF(BC37&lt;0,0.01,BC37/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
+      <c r="DQ37" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -13484,125 +13652,131 @@
         <f>TREND(BL38:CI38,$BL$5:$CI$5,$CJ$5)</f>
         <v>4.3423334668420353</v>
       </c>
-      <c r="CL38" s="52" t="str">
+      <c r="CK38" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM38" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ABIOCRP42</v>
       </c>
-      <c r="CM38" s="52" t="str">
+      <c r="CN38" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Willow - Me</v>
       </c>
-      <c r="CN38" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO38" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP38" s="52" t="str">
+      <c r="CP38" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ38" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ38" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR38" s="66">
+      <c r="CR38" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS38" s="66">
         <f>IF(AF38&lt;0,0.01,AF38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CS38" s="66">
+      <c r="CT38" s="66">
         <f>IF(AG38&lt;0,0.01,AG38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CT38" s="66">
+      <c r="CU38" s="66">
         <f>IF(AH38&lt;0,0.01,AH38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CU38" s="66">
+      <c r="CV38" s="66">
         <f>IF(AI38&lt;0,0.01,AI38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CV38" s="66">
+      <c r="CW38" s="66">
         <f>IF(AJ38&lt;0,0.01,AJ38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CW38" s="66">
+      <c r="CX38" s="66">
         <f>IF(AK38&lt;0,0.01,AK38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CX38" s="66">
+      <c r="CY38" s="66">
         <f>IF(AL38&lt;0,0.01,AL38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CY38" s="66">
+      <c r="CZ38" s="66">
         <f>IF(AM38&lt;0,0.01,AM38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CZ38" s="66">
+      <c r="DA38" s="66">
         <f>IF(AN38&lt;0,0.01,AN38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DA38" s="66">
+      <c r="DB38" s="66">
         <f>IF(AO38&lt;0,0.01,AO38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DB38" s="66">
+      <c r="DC38" s="66">
         <f>IF(AP38&lt;0,0.01,AP38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DC38" s="66">
+      <c r="DD38" s="66">
         <f>IF(AQ38&lt;0,0.01,AQ38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DD38" s="66">
+      <c r="DE38" s="66">
         <f>IF(AR38&lt;0,0.01,AR38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DE38" s="66">
+      <c r="DF38" s="66">
         <f>IF(AS38&lt;0,0.01,AS38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DF38" s="66">
+      <c r="DG38" s="66">
         <f>IF(AT38&lt;0,0.01,AT38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DG38" s="66">
+      <c r="DH38" s="66">
         <f>IF(AU38&lt;0,0.01,AU38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DH38" s="66">
+      <c r="DI38" s="66">
         <f>IF(AV38&lt;0,0.01,AV38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DI38" s="66">
+      <c r="DJ38" s="66">
         <f>IF(AW38&lt;0,0.01,AW38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DJ38" s="66">
+      <c r="DK38" s="66">
         <f>IF(AX38&lt;0,0.01,AX38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DK38" s="66">
+      <c r="DL38" s="66">
         <f>IF(AY38&lt;0,0.01,AY38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DL38" s="66">
+      <c r="DM38" s="66">
         <f>IF(AZ38&lt;0,0.01,AZ38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DM38" s="66">
+      <c r="DN38" s="66">
         <f>IF(BA38&lt;0,0.01,BA38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DN38" s="66">
+      <c r="DO38" s="66">
         <f>IF(BB38&lt;0,0.01,BB38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DO38" s="66">
+      <c r="DP38" s="66">
         <f>IF(BC38&lt;0,0.01,BC38/Conversions!$B$3)</f>
         <v>6</v>
       </c>
+      <c r="DQ38" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -13886,125 +14060,131 @@
         <f>TREND(BL39:CI39,$BL$5:$CI$5,$CJ$5)</f>
         <v>1.2478764716703523</v>
       </c>
-      <c r="CL39" s="52" t="str">
+      <c r="CK39" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM39" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ABIOCRP32</v>
       </c>
-      <c r="CM39" s="52" t="str">
+      <c r="CN39" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Miscanthus - Me</v>
       </c>
-      <c r="CN39" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO39" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP39" s="52" t="str">
+      <c r="CP39" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ39" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ39" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR39" s="66">
+      <c r="CR39" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS39" s="66">
         <f>IF(AF39&lt;0,0.01,AF39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CS39" s="66">
+      <c r="CT39" s="66">
         <f>IF(AG39&lt;0,0.01,AG39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CT39" s="66">
+      <c r="CU39" s="66">
         <f>IF(AH39&lt;0,0.01,AH39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CU39" s="66">
+      <c r="CV39" s="66">
         <f>IF(AI39&lt;0,0.01,AI39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CV39" s="66">
+      <c r="CW39" s="66">
         <f>IF(AJ39&lt;0,0.01,AJ39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CW39" s="66">
+      <c r="CX39" s="66">
         <f>IF(AK39&lt;0,0.01,AK39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CX39" s="66">
+      <c r="CY39" s="66">
         <f>IF(AL39&lt;0,0.01,AL39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CY39" s="66">
+      <c r="CZ39" s="66">
         <f>IF(AM39&lt;0,0.01,AM39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="CZ39" s="66">
+      <c r="DA39" s="66">
         <f>IF(AN39&lt;0,0.01,AN39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DA39" s="66">
+      <c r="DB39" s="66">
         <f>IF(AO39&lt;0,0.01,AO39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DB39" s="66">
+      <c r="DC39" s="66">
         <f>IF(AP39&lt;0,0.01,AP39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DC39" s="66">
+      <c r="DD39" s="66">
         <f>IF(AQ39&lt;0,0.01,AQ39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DD39" s="66">
+      <c r="DE39" s="66">
         <f>IF(AR39&lt;0,0.01,AR39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DE39" s="66">
+      <c r="DF39" s="66">
         <f>IF(AS39&lt;0,0.01,AS39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DF39" s="66">
+      <c r="DG39" s="66">
         <f>IF(AT39&lt;0,0.01,AT39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DG39" s="66">
+      <c r="DH39" s="66">
         <f>IF(AU39&lt;0,0.01,AU39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DH39" s="66">
+      <c r="DI39" s="66">
         <f>IF(AV39&lt;0,0.01,AV39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DI39" s="66">
+      <c r="DJ39" s="66">
         <f>IF(AW39&lt;0,0.01,AW39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DJ39" s="66">
+      <c r="DK39" s="66">
         <f>IF(AX39&lt;0,0.01,AX39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DK39" s="66">
+      <c r="DL39" s="66">
         <f>IF(AY39&lt;0,0.01,AY39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DL39" s="66">
+      <c r="DM39" s="66">
         <f>IF(AZ39&lt;0,0.01,AZ39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DM39" s="66">
+      <c r="DN39" s="66">
         <f>IF(BA39&lt;0,0.01,BA39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DN39" s="66">
+      <c r="DO39" s="66">
         <f>IF(BB39&lt;0,0.01,BB39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
-      <c r="DO39" s="66">
+      <c r="DP39" s="66">
         <f>IF(BC39&lt;0,0.01,BC39/Conversions!$B$3)</f>
         <v>6</v>
       </c>
+      <c r="DQ39" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -14288,125 +14468,131 @@
         <f>TREND(BT40:CI40,$BT$5:$CI$5,$CJ$5)</f>
         <v>0.6824230176409305</v>
       </c>
-      <c r="CL40" s="52" t="str">
+      <c r="CK40" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM40" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ABIOCRP12</v>
       </c>
-      <c r="CM40" s="52" t="str">
+      <c r="CN40" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Wheat - Me</v>
       </c>
-      <c r="CN40" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO40" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP40" s="52" t="str">
+      <c r="CP40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ40" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOCRP1</v>
       </c>
-      <c r="CQ40" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR40" s="66">
+      <c r="CR40" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS40" s="66">
         <f>IF(AF40&lt;0,0.01,AF40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CS40" s="66">
+      <c r="CT40" s="66">
         <f>IF(AG40&lt;0,0.01,AG40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CT40" s="66">
+      <c r="CU40" s="66">
         <f>IF(AH40&lt;0,0.01,AH40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CU40" s="66">
+      <c r="CV40" s="66">
         <f>IF(AI40&lt;0,0.01,AI40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CV40" s="66">
+      <c r="CW40" s="66">
         <f>IF(AJ40&lt;0,0.01,AJ40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CW40" s="66">
+      <c r="CX40" s="66">
         <f>IF(AK40&lt;0,0.01,AK40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CX40" s="66">
+      <c r="CY40" s="66">
         <f>IF(AL40&lt;0,0.01,AL40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CY40" s="66">
+      <c r="CZ40" s="66">
         <f>IF(AM40&lt;0,0.01,AM40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="CZ40" s="66">
+      <c r="DA40" s="66">
         <f>IF(AN40&lt;0,0.01,AN40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DA40" s="66">
+      <c r="DB40" s="66">
         <f>IF(AO40&lt;0,0.01,AO40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DB40" s="66">
+      <c r="DC40" s="66">
         <f>IF(AP40&lt;0,0.01,AP40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DC40" s="66">
+      <c r="DD40" s="66">
         <f>IF(AQ40&lt;0,0.01,AQ40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DD40" s="66">
+      <c r="DE40" s="66">
         <f>IF(AR40&lt;0,0.01,AR40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DE40" s="66">
+      <c r="DF40" s="66">
         <f>IF(AS40&lt;0,0.01,AS40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DF40" s="66">
+      <c r="DG40" s="66">
         <f>IF(AT40&lt;0,0.01,AT40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DG40" s="66">
+      <c r="DH40" s="66">
         <f>IF(AU40&lt;0,0.01,AU40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DH40" s="66">
+      <c r="DI40" s="66">
         <f>IF(AV40&lt;0,0.01,AV40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DI40" s="66">
+      <c r="DJ40" s="66">
         <f>IF(AW40&lt;0,0.01,AW40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DJ40" s="66">
+      <c r="DK40" s="66">
         <f>IF(AX40&lt;0,0.01,AX40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DK40" s="66">
+      <c r="DL40" s="66">
         <f>IF(AY40&lt;0,0.01,AY40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DL40" s="66">
+      <c r="DM40" s="66">
         <f>IF(AZ40&lt;0,0.01,AZ40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DM40" s="66">
+      <c r="DN40" s="66">
         <f>IF(BA40&lt;0,0.01,BA40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DN40" s="66">
+      <c r="DO40" s="66">
         <f>IF(BB40&lt;0,0.01,BB40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
-      <c r="DO40" s="66">
+      <c r="DP40" s="66">
         <f>IF(BC40&lt;0,0.01,BC40/Conversions!$B$3)</f>
         <v>22.821671459217672</v>
       </c>
+      <c r="DQ40" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -14690,125 +14876,131 @@
         <f>TREND(BT41:CI41,$BT$5:$CI$5,$CJ$5)</f>
         <v>1.626565350571326</v>
       </c>
-      <c r="CL41" s="52" t="str">
+      <c r="CK41" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM41" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ABIOCRP22</v>
       </c>
-      <c r="CM41" s="52" t="str">
+      <c r="CN41" s="52" t="str">
         <f t="shared" si="5"/>
         <v>OSR - Me</v>
       </c>
-      <c r="CN41" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO41" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP41" s="52" t="str">
+      <c r="CP41" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ41" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIORPS</v>
       </c>
-      <c r="CQ41" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR41" s="66">
+      <c r="CR41" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS41" s="66">
         <f>IF(AF41&lt;0,0.01,AF41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CS41" s="66">
+      <c r="CT41" s="66">
         <f>IF(AG41&lt;0,0.01,AG41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CT41" s="66">
+      <c r="CU41" s="66">
         <f>IF(AH41&lt;0,0.01,AH41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CU41" s="66">
+      <c r="CV41" s="66">
         <f>IF(AI41&lt;0,0.01,AI41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CV41" s="66">
+      <c r="CW41" s="66">
         <f>IF(AJ41&lt;0,0.01,AJ41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CW41" s="66">
+      <c r="CX41" s="66">
         <f>IF(AK41&lt;0,0.01,AK41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CX41" s="66">
+      <c r="CY41" s="66">
         <f>IF(AL41&lt;0,0.01,AL41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CY41" s="66">
+      <c r="CZ41" s="66">
         <f>IF(AM41&lt;0,0.01,AM41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="CZ41" s="66">
+      <c r="DA41" s="66">
         <f>IF(AN41&lt;0,0.01,AN41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DA41" s="66">
+      <c r="DB41" s="66">
         <f>IF(AO41&lt;0,0.01,AO41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DB41" s="66">
+      <c r="DC41" s="66">
         <f>IF(AP41&lt;0,0.01,AP41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DC41" s="66">
+      <c r="DD41" s="66">
         <f>IF(AQ41&lt;0,0.01,AQ41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DD41" s="66">
+      <c r="DE41" s="66">
         <f>IF(AR41&lt;0,0.01,AR41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DE41" s="66">
+      <c r="DF41" s="66">
         <f>IF(AS41&lt;0,0.01,AS41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DF41" s="66">
+      <c r="DG41" s="66">
         <f>IF(AT41&lt;0,0.01,AT41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DG41" s="66">
+      <c r="DH41" s="66">
         <f>IF(AU41&lt;0,0.01,AU41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DH41" s="66">
+      <c r="DI41" s="66">
         <f>IF(AV41&lt;0,0.01,AV41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DI41" s="66">
+      <c r="DJ41" s="66">
         <f>IF(AW41&lt;0,0.01,AW41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DJ41" s="66">
+      <c r="DK41" s="66">
         <f>IF(AX41&lt;0,0.01,AX41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DK41" s="66">
+      <c r="DL41" s="66">
         <f>IF(AY41&lt;0,0.01,AY41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DL41" s="66">
+      <c r="DM41" s="66">
         <f>IF(AZ41&lt;0,0.01,AZ41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DM41" s="66">
+      <c r="DN41" s="66">
         <f>IF(BA41&lt;0,0.01,BA41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DN41" s="66">
+      <c r="DO41" s="66">
         <f>IF(BB41&lt;0,0.01,BB41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
-      <c r="DO41" s="66">
+      <c r="DP41" s="66">
         <f>IF(BC41&lt;0,0.01,BC41/Conversions!$B$3)</f>
         <v>31.910874204781013</v>
       </c>
+      <c r="DQ41" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -15092,125 +15284,131 @@
         <f>TREND(BT42:CI42,$BT$5:$CI$5,$CJ$5)</f>
         <v>12.024583690130271</v>
       </c>
-      <c r="CL42" s="52" t="str">
+      <c r="CK42" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM42" s="52" t="str">
         <f t="shared" si="4"/>
         <v>ABIOGAS12</v>
       </c>
-      <c r="CM42" s="52" t="str">
+      <c r="CN42" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Crops Anaerobic - Me</v>
       </c>
-      <c r="CN42" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO42" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP42" s="52" t="str">
+      <c r="CP42" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ42" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOGAS</v>
       </c>
-      <c r="CQ42" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR42" s="66">
+      <c r="CR42" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS42" s="66">
         <f>IF(AF42&lt;0,0.01,AF42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CS42" s="66">
+      <c r="CT42" s="66">
         <f>IF(AG42&lt;0,0.01,AG42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CT42" s="66">
+      <c r="CU42" s="66">
         <f>IF(AH42&lt;0,0.01,AH42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CU42" s="66">
+      <c r="CV42" s="66">
         <f>IF(AI42&lt;0,0.01,AI42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CV42" s="66">
+      <c r="CW42" s="66">
         <f>IF(AJ42&lt;0,0.01,AJ42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CW42" s="66">
+      <c r="CX42" s="66">
         <f>IF(AK42&lt;0,0.01,AK42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CX42" s="66">
+      <c r="CY42" s="66">
         <f>IF(AL42&lt;0,0.01,AL42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CY42" s="66">
+      <c r="CZ42" s="66">
         <f>IF(AM42&lt;0,0.01,AM42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="CZ42" s="66">
+      <c r="DA42" s="66">
         <f>IF(AN42&lt;0,0.01,AN42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DA42" s="66">
+      <c r="DB42" s="66">
         <f>IF(AO42&lt;0,0.01,AO42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DB42" s="66">
+      <c r="DC42" s="66">
         <f>IF(AP42&lt;0,0.01,AP42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DC42" s="66">
+      <c r="DD42" s="66">
         <f>IF(AQ42&lt;0,0.01,AQ42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DD42" s="66">
+      <c r="DE42" s="66">
         <f>IF(AR42&lt;0,0.01,AR42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DE42" s="66">
+      <c r="DF42" s="66">
         <f>IF(AS42&lt;0,0.01,AS42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DF42" s="66">
+      <c r="DG42" s="66">
         <f>IF(AT42&lt;0,0.01,AT42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DG42" s="66">
+      <c r="DH42" s="66">
         <f>IF(AU42&lt;0,0.01,AU42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DH42" s="66">
+      <c r="DI42" s="66">
         <f>IF(AV42&lt;0,0.01,AV42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DI42" s="66">
+      <c r="DJ42" s="66">
         <f>IF(AW42&lt;0,0.01,AW42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DJ42" s="66">
+      <c r="DK42" s="66">
         <f>IF(AX42&lt;0,0.01,AX42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DK42" s="66">
+      <c r="DL42" s="66">
         <f>IF(AY42&lt;0,0.01,AY42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DL42" s="66">
+      <c r="DM42" s="66">
         <f>IF(AZ42&lt;0,0.01,AZ42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DM42" s="66">
+      <c r="DN42" s="66">
         <f>IF(BA42&lt;0,0.01,BA42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DN42" s="66">
+      <c r="DO42" s="66">
         <f>IF(BB42&lt;0,0.01,BB42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
-      <c r="DO42" s="66">
+      <c r="DP42" s="66">
         <f>IF(BC42&lt;0,0.01,BC42/Conversions!$B$3)</f>
         <v>6.0944615540616951</v>
       </c>
+      <c r="DQ42" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -15375,7 +15573,7 @@
       </c>
       <c r="BD43" s="32"/>
       <c r="BE43" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG43" s="52" t="str">
         <f>"MINBIOINDF"&amp;BE43</f>
@@ -15494,128 +15692,134 @@
         <f>CI43</f>
         <v>0</v>
       </c>
-      <c r="CL43" s="52" t="str">
+      <c r="CK43" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM43" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MINBIOINDF_S2</v>
       </c>
-      <c r="CM43" s="52" t="str">
+      <c r="CN43" s="52" t="str">
         <f t="shared" si="5"/>
         <v>Industrial Food - Me</v>
       </c>
-      <c r="CN43" s="15" t="s">
+      <c r="CO43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO43" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP43" s="52" t="str">
+      <c r="CP43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ43" s="52" t="str">
         <f t="shared" si="6"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ43" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR43" s="66">
+      <c r="CR43" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS43" s="66">
         <f>IF(AF43&lt;0,0.01,AF43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CS43" s="66">
+      <c r="CT43" s="66">
         <f>IF(AG43&lt;0,0.01,AG43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CT43" s="66">
+      <c r="CU43" s="66">
         <f>IF(AH43&lt;0,0.01,AH43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CU43" s="66">
+      <c r="CV43" s="66">
         <f>IF(AI43&lt;0,0.01,AI43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CV43" s="66">
+      <c r="CW43" s="66">
         <f>IF(AJ43&lt;0,0.01,AJ43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CW43" s="66">
+      <c r="CX43" s="66">
         <f>IF(AK43&lt;0,0.01,AK43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CX43" s="66">
+      <c r="CY43" s="66">
         <f>IF(AL43&lt;0,0.01,AL43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CY43" s="66">
+      <c r="CZ43" s="66">
         <f>IF(AM43&lt;0,0.01,AM43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CZ43" s="66">
+      <c r="DA43" s="66">
         <f>IF(AN43&lt;0,0.01,AN43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DA43" s="66">
+      <c r="DB43" s="66">
         <f>IF(AO43&lt;0,0.01,AO43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DB43" s="66">
+      <c r="DC43" s="66">
         <f>IF(AP43&lt;0,0.01,AP43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DC43" s="66">
+      <c r="DD43" s="66">
         <f>IF(AQ43&lt;0,0.01,AQ43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DD43" s="66">
+      <c r="DE43" s="66">
         <f>IF(AR43&lt;0,0.01,AR43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DE43" s="66">
+      <c r="DF43" s="66">
         <f>IF(AS43&lt;0,0.01,AS43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DF43" s="66">
+      <c r="DG43" s="66">
         <f>IF(AT43&lt;0,0.01,AT43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DG43" s="66">
+      <c r="DH43" s="66">
         <f>IF(AU43&lt;0,0.01,AU43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DH43" s="66">
+      <c r="DI43" s="66">
         <f>IF(AV43&lt;0,0.01,AV43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DI43" s="66">
+      <c r="DJ43" s="66">
         <f>IF(AW43&lt;0,0.01,AW43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DJ43" s="66">
+      <c r="DK43" s="66">
         <f>IF(AX43&lt;0,0.01,AX43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DK43" s="66">
+      <c r="DL43" s="66">
         <f>IF(AY43&lt;0,0.01,AY43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DL43" s="66">
+      <c r="DM43" s="66">
         <f>IF(AZ43&lt;0,0.01,AZ43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DM43" s="66">
+      <c r="DN43" s="66">
         <f>IF(BA43&lt;0,0.01,BA43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DN43" s="66">
+      <c r="DO43" s="66">
         <f>IF(BB43&lt;0,0.01,BB43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DO43" s="66">
+      <c r="DP43" s="66">
         <f>IF(BC43&lt;0,0.01,BC43/Conversions!$B$3)</f>
         <v>0</v>
       </c>
+      <c r="DQ43" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BD44" s="32"/>
     </row>
-    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -15624,7 +15828,7 @@
       </c>
       <c r="BD45" s="32"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -15690,7 +15894,7 @@
       <c r="BD46" s="32"/>
       <c r="BG46" s="51"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:121" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -15854,10 +16058,10 @@
         <v>95</v>
       </c>
       <c r="BH47" s="19"/>
-      <c r="CL47" s="71"/>
-      <c r="CM47" s="72"/>
+      <c r="CM47" s="71"/>
+      <c r="CN47" s="72"/>
     </row>
-    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -15916,11 +16120,11 @@
       <c r="BG48" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="CL48" s="31" t="s">
+      <c r="CM48" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -16066,98 +16270,104 @@
       <c r="CJ49" s="27">
         <v>2050</v>
       </c>
-      <c r="CL49" s="29" t="s">
+      <c r="CK49" s="27">
+        <v>0</v>
+      </c>
+      <c r="CM49" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="CM49" s="28" t="s">
+      <c r="CN49" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="CN49" s="28" t="s">
+      <c r="CO49" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="CO49" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="CP49" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CQ49" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="CQ49" s="28" t="s">
+      <c r="CR49" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="CR49" s="27">
+      <c r="CS49" s="27">
         <v>2012</v>
       </c>
-      <c r="CS49" s="27">
+      <c r="CT49" s="27">
         <v>2013</v>
       </c>
-      <c r="CT49" s="27">
+      <c r="CU49" s="27">
         <v>2014</v>
       </c>
-      <c r="CU49" s="27">
+      <c r="CV49" s="27">
         <v>2015</v>
       </c>
-      <c r="CV49" s="27">
+      <c r="CW49" s="27">
         <v>2016</v>
       </c>
-      <c r="CW49" s="27">
+      <c r="CX49" s="27">
         <v>2017</v>
       </c>
-      <c r="CX49" s="27">
+      <c r="CY49" s="27">
         <v>2018</v>
       </c>
-      <c r="CY49" s="27">
+      <c r="CZ49" s="27">
         <v>2019</v>
       </c>
-      <c r="CZ49" s="27">
+      <c r="DA49" s="27">
         <v>2020</v>
       </c>
-      <c r="DA49" s="27">
+      <c r="DB49" s="27">
         <v>2021</v>
       </c>
-      <c r="DB49" s="27">
+      <c r="DC49" s="27">
         <v>2022</v>
       </c>
-      <c r="DC49" s="27">
+      <c r="DD49" s="27">
         <v>2023</v>
       </c>
-      <c r="DD49" s="27">
+      <c r="DE49" s="27">
         <v>2024</v>
       </c>
-      <c r="DE49" s="27">
+      <c r="DF49" s="27">
         <v>2025</v>
       </c>
-      <c r="DF49" s="27">
+      <c r="DG49" s="27">
         <v>2026</v>
       </c>
-      <c r="DG49" s="27">
+      <c r="DH49" s="27">
         <v>2027</v>
       </c>
-      <c r="DH49" s="27">
+      <c r="DI49" s="27">
         <v>2028</v>
       </c>
-      <c r="DI49" s="27">
+      <c r="DJ49" s="27">
         <v>2029</v>
       </c>
-      <c r="DJ49" s="27">
+      <c r="DK49" s="27">
         <v>2030</v>
       </c>
-      <c r="DK49" s="27">
+      <c r="DL49" s="27">
         <v>2031</v>
       </c>
-      <c r="DL49" s="27">
+      <c r="DM49" s="27">
         <v>2032</v>
       </c>
-      <c r="DM49" s="27">
+      <c r="DN49" s="27">
         <v>2033</v>
       </c>
-      <c r="DN49" s="27">
+      <c r="DO49" s="27">
         <v>2034</v>
       </c>
-      <c r="DO49" s="27">
+      <c r="DP49" s="27">
         <v>2035</v>
       </c>
+      <c r="DQ49" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -16441,125 +16651,131 @@
         <f>TREND(BT50:CI50,$BT$5:$CI$5,$CJ$5)</f>
         <v>4.6298492647058431E-2</v>
       </c>
-      <c r="CL50" s="52" t="str">
-        <f t="shared" ref="CL50:CL65" si="8">BG50</f>
+      <c r="CK50" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM50" s="52" t="str">
+        <f t="shared" ref="CM50:CM65" si="8">BG50</f>
         <v>ABIOFRSR3</v>
       </c>
-      <c r="CM50" s="52" t="str">
-        <f t="shared" ref="CM50:CM65" si="9">BH50</f>
+      <c r="CN50" s="52" t="str">
+        <f t="shared" ref="CN50:CN65" si="9">BH50</f>
         <v>Forest thinnings - Hi</v>
-      </c>
-      <c r="CN50" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="CO50" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP50" s="52" t="str">
-        <f t="shared" ref="CP50:CP65" si="10">BJ50</f>
+      <c r="CP50" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ50" s="52" t="str">
+        <f t="shared" ref="CQ50:CQ65" si="10">BJ50</f>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ50" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR50" s="66">
+      <c r="CR50" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS50" s="66">
         <f>IF(AF50&lt;0,0.01,AF50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CS50" s="66">
+      <c r="CT50" s="66">
         <f>IF(AG50&lt;0,0.01,AG50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CT50" s="66">
+      <c r="CU50" s="66">
         <f>IF(AH50&lt;0,0.01,AH50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CU50" s="66">
+      <c r="CV50" s="66">
         <f>IF(AI50&lt;0,0.01,AI50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CV50" s="66">
+      <c r="CW50" s="66">
         <f>IF(AJ50&lt;0,0.01,AJ50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CW50" s="66">
+      <c r="CX50" s="66">
         <f>IF(AK50&lt;0,0.01,AK50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CX50" s="66">
+      <c r="CY50" s="66">
         <f>IF(AL50&lt;0,0.01,AL50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CY50" s="66">
+      <c r="CZ50" s="66">
         <f>IF(AM50&lt;0,0.01,AM50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="CZ50" s="66">
+      <c r="DA50" s="66">
         <f>IF(AN50&lt;0,0.01,AN50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DA50" s="66">
+      <c r="DB50" s="66">
         <f>IF(AO50&lt;0,0.01,AO50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DB50" s="66">
+      <c r="DC50" s="66">
         <f>IF(AP50&lt;0,0.01,AP50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DC50" s="66">
+      <c r="DD50" s="66">
         <f>IF(AQ50&lt;0,0.01,AQ50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DD50" s="66">
+      <c r="DE50" s="66">
         <f>IF(AR50&lt;0,0.01,AR50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DE50" s="66">
+      <c r="DF50" s="66">
         <f>IF(AS50&lt;0,0.01,AS50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DF50" s="66">
+      <c r="DG50" s="66">
         <f>IF(AT50&lt;0,0.01,AT50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DG50" s="66">
+      <c r="DH50" s="66">
         <f>IF(AU50&lt;0,0.01,AU50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DH50" s="66">
+      <c r="DI50" s="66">
         <f>IF(AV50&lt;0,0.01,AV50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DI50" s="66">
+      <c r="DJ50" s="66">
         <f>IF(AW50&lt;0,0.01,AW50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DJ50" s="66">
+      <c r="DK50" s="66">
         <f>IF(AX50&lt;0,0.01,AX50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DK50" s="66">
+      <c r="DL50" s="66">
         <f>IF(AY50&lt;0,0.01,AY50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DL50" s="66">
+      <c r="DM50" s="66">
         <f>IF(AZ50&lt;0,0.01,AZ50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DM50" s="66">
+      <c r="DN50" s="66">
         <f>IF(BA50&lt;0,0.01,BA50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DN50" s="66">
+      <c r="DO50" s="66">
         <f>IF(BB50&lt;0,0.01,BB50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
-      <c r="DO50" s="66">
+      <c r="DP50" s="66">
         <f>IF(BC50&lt;0,0.01,BC50/Conversions!$B$3)</f>
         <v>8</v>
       </c>
+      <c r="DQ50" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -16724,7 +16940,7 @@
       </c>
       <c r="BD51" s="32"/>
       <c r="BE51" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG51" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE51</f>
@@ -16843,125 +17059,131 @@
         <f>CI51</f>
         <v>0</v>
       </c>
-      <c r="CL51" s="52" t="str">
+      <c r="CK51" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM51" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOWOO1_S3</v>
       </c>
-      <c r="CM51" s="52" t="str">
+      <c r="CN51" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Sawmill residues - Hi</v>
       </c>
-      <c r="CN51" s="15" t="s">
+      <c r="CO51" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO51" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP51" s="52" t="str">
+      <c r="CP51" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ51" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ51" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR51" s="66">
+      <c r="CR51" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS51" s="66">
         <f>IF(AF51&lt;0,0.01,AF51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CS51" s="66">
+      <c r="CT51" s="66">
         <f>IF(AG51&lt;0,0.01,AG51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CT51" s="66">
+      <c r="CU51" s="66">
         <f>IF(AH51&lt;0,0.01,AH51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CU51" s="66">
+      <c r="CV51" s="66">
         <f>IF(AI51&lt;0,0.01,AI51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CV51" s="66">
+      <c r="CW51" s="66">
         <f>IF(AJ51&lt;0,0.01,AJ51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CW51" s="66">
+      <c r="CX51" s="66">
         <f>IF(AK51&lt;0,0.01,AK51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CX51" s="66">
+      <c r="CY51" s="66">
         <f>IF(AL51&lt;0,0.01,AL51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CY51" s="66">
+      <c r="CZ51" s="66">
         <f>IF(AM51&lt;0,0.01,AM51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="CZ51" s="66">
+      <c r="DA51" s="66">
         <f>IF(AN51&lt;0,0.01,AN51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DA51" s="66">
+      <c r="DB51" s="66">
         <f>IF(AO51&lt;0,0.01,AO51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DB51" s="66">
+      <c r="DC51" s="66">
         <f>IF(AP51&lt;0,0.01,AP51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DC51" s="66">
+      <c r="DD51" s="66">
         <f>IF(AQ51&lt;0,0.01,AQ51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DD51" s="66">
+      <c r="DE51" s="66">
         <f>IF(AR51&lt;0,0.01,AR51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DE51" s="66">
+      <c r="DF51" s="66">
         <f>IF(AS51&lt;0,0.01,AS51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DF51" s="66">
+      <c r="DG51" s="66">
         <f>IF(AT51&lt;0,0.01,AT51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DG51" s="66">
+      <c r="DH51" s="66">
         <f>IF(AU51&lt;0,0.01,AU51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DH51" s="66">
+      <c r="DI51" s="66">
         <f>IF(AV51&lt;0,0.01,AV51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DI51" s="66">
+      <c r="DJ51" s="66">
         <f>IF(AW51&lt;0,0.01,AW51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DJ51" s="66">
+      <c r="DK51" s="66">
         <f>IF(AX51&lt;0,0.01,AX51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DK51" s="66">
+      <c r="DL51" s="66">
         <f>IF(AY51&lt;0,0.01,AY51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DL51" s="66">
+      <c r="DM51" s="66">
         <f>IF(AZ51&lt;0,0.01,AZ51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DM51" s="66">
+      <c r="DN51" s="66">
         <f>IF(BA51&lt;0,0.01,BA51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DN51" s="66">
+      <c r="DO51" s="66">
         <f>IF(BB51&lt;0,0.01,BB51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
-      <c r="DO51" s="66">
+      <c r="DP51" s="66">
         <f>IF(BC51&lt;0,0.01,BC51/Conversions!$B$3)</f>
         <v>9</v>
       </c>
+      <c r="DQ51" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -17126,7 +17348,7 @@
       </c>
       <c r="BD52" s="32"/>
       <c r="BE52" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG52" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE52</f>
@@ -17245,125 +17467,131 @@
         <f>TREND(BT52:CI52,$BT$5:$CI$5,$CJ$5)</f>
         <v>0.42118817778752771</v>
       </c>
-      <c r="CL52" s="52" t="str">
+      <c r="CK52" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM52" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOWOO2_S3</v>
       </c>
-      <c r="CM52" s="52" t="str">
+      <c r="CN52" s="52" t="str">
         <f t="shared" si="9"/>
         <v>PCRW - Hi</v>
       </c>
-      <c r="CN52" s="15" t="s">
+      <c r="CO52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO52" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP52" s="52" t="str">
+      <c r="CP52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ52" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ52" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR52" s="66">
+      <c r="CR52" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS52" s="66">
         <f>IF(AF52&lt;0,0.01,AF52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CS52" s="66">
+      <c r="CT52" s="66">
         <f>IF(AG52&lt;0,0.01,AG52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CT52" s="66">
+      <c r="CU52" s="66">
         <f>IF(AH52&lt;0,0.01,AH52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CU52" s="66">
+      <c r="CV52" s="66">
         <f>IF(AI52&lt;0,0.01,AI52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CV52" s="66">
+      <c r="CW52" s="66">
         <f>IF(AJ52&lt;0,0.01,AJ52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CW52" s="66">
+      <c r="CX52" s="66">
         <f>IF(AK52&lt;0,0.01,AK52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CX52" s="66">
+      <c r="CY52" s="66">
         <f>IF(AL52&lt;0,0.01,AL52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CY52" s="66">
+      <c r="CZ52" s="66">
         <f>IF(AM52&lt;0,0.01,AM52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="CZ52" s="66">
+      <c r="DA52" s="66">
         <f>IF(AN52&lt;0,0.01,AN52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DA52" s="66">
+      <c r="DB52" s="66">
         <f>IF(AO52&lt;0,0.01,AO52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DB52" s="66">
+      <c r="DC52" s="66">
         <f>IF(AP52&lt;0,0.01,AP52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DC52" s="66">
+      <c r="DD52" s="66">
         <f>IF(AQ52&lt;0,0.01,AQ52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DD52" s="66">
+      <c r="DE52" s="66">
         <f>IF(AR52&lt;0,0.01,AR52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DE52" s="66">
+      <c r="DF52" s="66">
         <f>IF(AS52&lt;0,0.01,AS52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DF52" s="66">
+      <c r="DG52" s="66">
         <f>IF(AT52&lt;0,0.01,AT52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DG52" s="66">
+      <c r="DH52" s="66">
         <f>IF(AU52&lt;0,0.01,AU52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DH52" s="66">
+      <c r="DI52" s="66">
         <f>IF(AV52&lt;0,0.01,AV52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DI52" s="66">
+      <c r="DJ52" s="66">
         <f>IF(AW52&lt;0,0.01,AW52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DJ52" s="66">
+      <c r="DK52" s="66">
         <f>IF(AX52&lt;0,0.01,AX52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DK52" s="66">
+      <c r="DL52" s="66">
         <f>IF(AY52&lt;0,0.01,AY52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DL52" s="66">
+      <c r="DM52" s="66">
         <f>IF(AZ52&lt;0,0.01,AZ52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DM52" s="66">
+      <c r="DN52" s="66">
         <f>IF(BA52&lt;0,0.01,BA52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DN52" s="66">
+      <c r="DO52" s="66">
         <f>IF(BB52&lt;0,0.01,BB52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
-      <c r="DO52" s="66">
+      <c r="DP52" s="66">
         <f>IF(BC52&lt;0,0.01,BC52/Conversions!$B$3)</f>
         <v>5.2721088435374153</v>
       </c>
+      <c r="DQ52" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -17528,7 +17756,7 @@
       </c>
       <c r="BD53" s="32"/>
       <c r="BE53" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG53" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE53</f>
@@ -17647,125 +17875,131 @@
         <f>CI53</f>
         <v>0</v>
       </c>
-      <c r="CL53" s="52" t="str">
+      <c r="CK53" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM53" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOMSW1_S3</v>
       </c>
-      <c r="CM53" s="52" t="str">
+      <c r="CN53" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Solid BMSW - Hi</v>
       </c>
-      <c r="CN53" s="15" t="s">
+      <c r="CO53" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO53" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP53" s="52" t="str">
+      <c r="CP53" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ53" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOMUN</v>
       </c>
-      <c r="CQ53" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR53" s="66">
+      <c r="CR53" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS53" s="66">
         <f>IF(AF53&lt;0,0.01,AF53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CS53" s="66">
+      <c r="CT53" s="66">
         <f>IF(AG53&lt;0,0.01,AG53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CT53" s="66">
+      <c r="CU53" s="66">
         <f>IF(AH53&lt;0,0.01,AH53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CU53" s="66">
+      <c r="CV53" s="66">
         <f>IF(AI53&lt;0,0.01,AI53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CV53" s="66">
+      <c r="CW53" s="66">
         <f>IF(AJ53&lt;0,0.01,AJ53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CW53" s="66">
+      <c r="CX53" s="66">
         <f>IF(AK53&lt;0,0.01,AK53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CX53" s="66">
+      <c r="CY53" s="66">
         <f>IF(AL53&lt;0,0.01,AL53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CY53" s="66">
+      <c r="CZ53" s="66">
         <f>IF(AM53&lt;0,0.01,AM53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="CZ53" s="66">
+      <c r="DA53" s="66">
         <f>IF(AN53&lt;0,0.01,AN53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DA53" s="66">
+      <c r="DB53" s="66">
         <f>IF(AO53&lt;0,0.01,AO53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DB53" s="66">
+      <c r="DC53" s="66">
         <f>IF(AP53&lt;0,0.01,AP53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DC53" s="66">
+      <c r="DD53" s="66">
         <f>IF(AQ53&lt;0,0.01,AQ53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DD53" s="66">
+      <c r="DE53" s="66">
         <f>IF(AR53&lt;0,0.01,AR53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DE53" s="66">
+      <c r="DF53" s="66">
         <f>IF(AS53&lt;0,0.01,AS53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DF53" s="66">
+      <c r="DG53" s="66">
         <f>IF(AT53&lt;0,0.01,AT53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DG53" s="66">
+      <c r="DH53" s="66">
         <f>IF(AU53&lt;0,0.01,AU53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DH53" s="66">
+      <c r="DI53" s="66">
         <f>IF(AV53&lt;0,0.01,AV53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DI53" s="66">
+      <c r="DJ53" s="66">
         <f>IF(AW53&lt;0,0.01,AW53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DJ53" s="66">
+      <c r="DK53" s="66">
         <f>IF(AX53&lt;0,0.01,AX53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DK53" s="66">
+      <c r="DL53" s="66">
         <f>IF(AY53&lt;0,0.01,AY53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DL53" s="66">
+      <c r="DM53" s="66">
         <f>IF(AZ53&lt;0,0.01,AZ53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DM53" s="66">
+      <c r="DN53" s="66">
         <f>IF(BA53&lt;0,0.01,BA53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DN53" s="66">
+      <c r="DO53" s="66">
         <f>IF(BB53&lt;0,0.01,BB53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
-      <c r="DO53" s="66">
+      <c r="DP53" s="66">
         <f>IF(BC53&lt;0,0.01,BC53/Conversions!$B$3)</f>
         <v>0.01</v>
       </c>
+      <c r="DQ53" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -17930,7 +18164,7 @@
       </c>
       <c r="BD54" s="32"/>
       <c r="BE54" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG54" s="52" t="str">
         <f>"MINBIOTLW"&amp;BE54</f>
@@ -18049,125 +18283,131 @@
         <f>TREND(BL54:CI54,$BL$5:$CI$5,$CJ$5)</f>
         <v>1.0587869828863461</v>
       </c>
-      <c r="CL54" s="52" t="str">
+      <c r="CK54" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM54" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOTLW_S3</v>
       </c>
-      <c r="CM54" s="52" t="str">
+      <c r="CN54" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Tallow - Hi</v>
       </c>
-      <c r="CN54" s="15" t="s">
+      <c r="CO54" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO54" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP54" s="52" t="str">
+      <c r="CP54" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ54" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ54" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR54" s="66">
+      <c r="CR54" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS54" s="66">
         <f>IF(AF54&lt;0,0.01,AF54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CS54" s="66">
+      <c r="CT54" s="66">
         <f>IF(AG54&lt;0,0.01,AG54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CT54" s="66">
+      <c r="CU54" s="66">
         <f>IF(AH54&lt;0,0.01,AH54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CU54" s="66">
+      <c r="CV54" s="66">
         <f>IF(AI54&lt;0,0.01,AI54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CV54" s="66">
+      <c r="CW54" s="66">
         <f>IF(AJ54&lt;0,0.01,AJ54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CW54" s="66">
+      <c r="CX54" s="66">
         <f>IF(AK54&lt;0,0.01,AK54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CX54" s="66">
+      <c r="CY54" s="66">
         <f>IF(AL54&lt;0,0.01,AL54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CY54" s="66">
+      <c r="CZ54" s="66">
         <f>IF(AM54&lt;0,0.01,AM54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="CZ54" s="66">
+      <c r="DA54" s="66">
         <f>IF(AN54&lt;0,0.01,AN54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DA54" s="66">
+      <c r="DB54" s="66">
         <f>IF(AO54&lt;0,0.01,AO54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DB54" s="66">
+      <c r="DC54" s="66">
         <f>IF(AP54&lt;0,0.01,AP54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DC54" s="66">
+      <c r="DD54" s="66">
         <f>IF(AQ54&lt;0,0.01,AQ54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DD54" s="66">
+      <c r="DE54" s="66">
         <f>IF(AR54&lt;0,0.01,AR54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DE54" s="66">
+      <c r="DF54" s="66">
         <f>IF(AS54&lt;0,0.01,AS54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DF54" s="66">
+      <c r="DG54" s="66">
         <f>IF(AT54&lt;0,0.01,AT54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DG54" s="66">
+      <c r="DH54" s="66">
         <f>IF(AU54&lt;0,0.01,AU54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DH54" s="66">
+      <c r="DI54" s="66">
         <f>IF(AV54&lt;0,0.01,AV54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DI54" s="66">
+      <c r="DJ54" s="66">
         <f>IF(AW54&lt;0,0.01,AW54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DJ54" s="66">
+      <c r="DK54" s="66">
         <f>IF(AX54&lt;0,0.01,AX54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DK54" s="66">
+      <c r="DL54" s="66">
         <f>IF(AY54&lt;0,0.01,AY54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DL54" s="66">
+      <c r="DM54" s="66">
         <f>IF(AZ54&lt;0,0.01,AZ54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DM54" s="66">
+      <c r="DN54" s="66">
         <f>IF(BA54&lt;0,0.01,BA54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DN54" s="66">
+      <c r="DO54" s="66">
         <f>IF(BB54&lt;0,0.01,BB54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
-      <c r="DO54" s="66">
+      <c r="DP54" s="66">
         <f>IF(BC54&lt;0,0.01,BC54/Conversions!$B$3)</f>
         <v>11.046511627906977</v>
       </c>
+      <c r="DQ54" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -18332,7 +18572,7 @@
       </c>
       <c r="BD55" s="32"/>
       <c r="BE55" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG55" s="52" t="str">
         <f>"MINBIORVO"&amp;BE55</f>
@@ -18451,125 +18691,131 @@
         <f>CI55</f>
         <v>0</v>
       </c>
-      <c r="CL55" s="52" t="str">
+      <c r="CK55" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM55" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIORVO_S3</v>
       </c>
-      <c r="CM55" s="52" t="str">
+      <c r="CN55" s="52" t="str">
         <f t="shared" si="9"/>
         <v>RVO - Hi</v>
       </c>
-      <c r="CN55" s="15" t="s">
+      <c r="CO55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO55" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP55" s="52" t="str">
+      <c r="CP55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ55" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIORPS</v>
       </c>
-      <c r="CQ55" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR55" s="66">
+      <c r="CR55" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS55" s="66">
         <f>IF(AF55&lt;0,0.01,AF55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CS55" s="66">
+      <c r="CT55" s="66">
         <f>IF(AG55&lt;0,0.01,AG55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CT55" s="66">
+      <c r="CU55" s="66">
         <f>IF(AH55&lt;0,0.01,AH55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CU55" s="66">
+      <c r="CV55" s="66">
         <f>IF(AI55&lt;0,0.01,AI55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CV55" s="66">
+      <c r="CW55" s="66">
         <f>IF(AJ55&lt;0,0.01,AJ55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CW55" s="66">
+      <c r="CX55" s="66">
         <f>IF(AK55&lt;0,0.01,AK55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CX55" s="66">
+      <c r="CY55" s="66">
         <f>IF(AL55&lt;0,0.01,AL55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CY55" s="66">
+      <c r="CZ55" s="66">
         <f>IF(AM55&lt;0,0.01,AM55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="CZ55" s="66">
+      <c r="DA55" s="66">
         <f>IF(AN55&lt;0,0.01,AN55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DA55" s="66">
+      <c r="DB55" s="66">
         <f>IF(AO55&lt;0,0.01,AO55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DB55" s="66">
+      <c r="DC55" s="66">
         <f>IF(AP55&lt;0,0.01,AP55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DC55" s="66">
+      <c r="DD55" s="66">
         <f>IF(AQ55&lt;0,0.01,AQ55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DD55" s="66">
+      <c r="DE55" s="66">
         <f>IF(AR55&lt;0,0.01,AR55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DE55" s="66">
+      <c r="DF55" s="66">
         <f>IF(AS55&lt;0,0.01,AS55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DF55" s="66">
+      <c r="DG55" s="66">
         <f>IF(AT55&lt;0,0.01,AT55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DG55" s="66">
+      <c r="DH55" s="66">
         <f>IF(AU55&lt;0,0.01,AU55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DH55" s="66">
+      <c r="DI55" s="66">
         <f>IF(AV55&lt;0,0.01,AV55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DI55" s="66">
+      <c r="DJ55" s="66">
         <f>IF(AW55&lt;0,0.01,AW55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DJ55" s="66">
+      <c r="DK55" s="66">
         <f>IF(AX55&lt;0,0.01,AX55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DK55" s="66">
+      <c r="DL55" s="66">
         <f>IF(AY55&lt;0,0.01,AY55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DL55" s="66">
+      <c r="DM55" s="66">
         <f>IF(AZ55&lt;0,0.01,AZ55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DM55" s="66">
+      <c r="DN55" s="66">
         <f>IF(BA55&lt;0,0.01,BA55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DN55" s="66">
+      <c r="DO55" s="66">
         <f>IF(BB55&lt;0,0.01,BB55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
-      <c r="DO55" s="66">
+      <c r="DP55" s="66">
         <f>IF(BC55&lt;0,0.01,BC55/Conversions!$B$3)</f>
         <v>27.777777777777775</v>
       </c>
+      <c r="DQ55" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -18734,7 +18980,7 @@
       </c>
       <c r="BD56" s="32"/>
       <c r="BE56" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG56" s="52" t="str">
         <f>"MINBIOWOO3"&amp;BE56</f>
@@ -18853,125 +19099,131 @@
         <f>TREND(BT56:CI56,$BT$5:$CI$5,$CJ$5)</f>
         <v>1.1619967782460137</v>
       </c>
-      <c r="CL56" s="52" t="str">
+      <c r="CK56" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM56" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOWOO3_S3</v>
       </c>
-      <c r="CM56" s="52" t="str">
+      <c r="CN56" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Straw - Hi</v>
       </c>
-      <c r="CN56" s="15" t="s">
+      <c r="CO56" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO56" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP56" s="52" t="str">
+      <c r="CP56" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ56" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ56" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR56" s="66">
+      <c r="CR56" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS56" s="66">
         <f>IF(AF56&lt;0,0.01,AF56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CS56" s="66">
+      <c r="CT56" s="66">
         <f>IF(AG56&lt;0,0.01,AG56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CT56" s="66">
+      <c r="CU56" s="66">
         <f>IF(AH56&lt;0,0.01,AH56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CU56" s="66">
+      <c r="CV56" s="66">
         <f>IF(AI56&lt;0,0.01,AI56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CV56" s="66">
+      <c r="CW56" s="66">
         <f>IF(AJ56&lt;0,0.01,AJ56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CW56" s="66">
+      <c r="CX56" s="66">
         <f>IF(AK56&lt;0,0.01,AK56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CX56" s="66">
+      <c r="CY56" s="66">
         <f>IF(AL56&lt;0,0.01,AL56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CY56" s="66">
+      <c r="CZ56" s="66">
         <f>IF(AM56&lt;0,0.01,AM56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="CZ56" s="66">
+      <c r="DA56" s="66">
         <f>IF(AN56&lt;0,0.01,AN56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DA56" s="66">
+      <c r="DB56" s="66">
         <f>IF(AO56&lt;0,0.01,AO56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DB56" s="66">
+      <c r="DC56" s="66">
         <f>IF(AP56&lt;0,0.01,AP56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DC56" s="66">
+      <c r="DD56" s="66">
         <f>IF(AQ56&lt;0,0.01,AQ56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DD56" s="66">
+      <c r="DE56" s="66">
         <f>IF(AR56&lt;0,0.01,AR56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DE56" s="66">
+      <c r="DF56" s="66">
         <f>IF(AS56&lt;0,0.01,AS56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DF56" s="66">
+      <c r="DG56" s="66">
         <f>IF(AT56&lt;0,0.01,AT56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DG56" s="66">
+      <c r="DH56" s="66">
         <f>IF(AU56&lt;0,0.01,AU56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DH56" s="66">
+      <c r="DI56" s="66">
         <f>IF(AV56&lt;0,0.01,AV56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DI56" s="66">
+      <c r="DJ56" s="66">
         <f>IF(AW56&lt;0,0.01,AW56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DJ56" s="66">
+      <c r="DK56" s="66">
         <f>IF(AX56&lt;0,0.01,AX56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DK56" s="66">
+      <c r="DL56" s="66">
         <f>IF(AY56&lt;0,0.01,AY56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DL56" s="66">
+      <c r="DM56" s="66">
         <f>IF(AZ56&lt;0,0.01,AZ56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DM56" s="66">
+      <c r="DN56" s="66">
         <f>IF(BA56&lt;0,0.01,BA56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DN56" s="66">
+      <c r="DO56" s="66">
         <f>IF(BB56&lt;0,0.01,BB56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
-      <c r="DO56" s="66">
+      <c r="DP56" s="66">
         <f>IF(BC56&lt;0,0.01,BC56/Conversions!$B$3)</f>
         <v>7.0616385816473448</v>
       </c>
+      <c r="DQ56" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -19136,7 +19388,7 @@
       </c>
       <c r="BD57" s="32"/>
       <c r="BE57" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG57" s="52" t="str">
         <f>"MINBIOCATW"&amp;BE57</f>
@@ -19255,125 +19507,131 @@
         <f>CI57</f>
         <v>0</v>
       </c>
-      <c r="CL57" s="52" t="str">
+      <c r="CK57" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM57" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOCATW_S3</v>
       </c>
-      <c r="CM57" s="52" t="str">
+      <c r="CN57" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Cattle waste - Hi</v>
       </c>
-      <c r="CN57" s="15" t="s">
+      <c r="CO57" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO57" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP57" s="52" t="str">
+      <c r="CP57" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ57" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ57" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR57" s="66">
+      <c r="CR57" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS57" s="66">
         <f>IF(AF57&lt;0,0.01,AF57/Conversions!$B$3)</f>
         <v>9.4344239913860175</v>
       </c>
-      <c r="CS57" s="66">
+      <c r="CT57" s="66">
         <f>IF(AG57&lt;0,0.01,AG57/Conversions!$B$3)</f>
         <v>9.4344239913860193</v>
       </c>
-      <c r="CT57" s="66">
+      <c r="CU57" s="66">
         <f>IF(AH57&lt;0,0.01,AH57/Conversions!$B$3)</f>
         <v>9.4344239913860175</v>
       </c>
-      <c r="CU57" s="66">
+      <c r="CV57" s="66">
         <f>IF(AI57&lt;0,0.01,AI57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="CV57" s="66">
+      <c r="CW57" s="66">
         <f>IF(AJ57&lt;0,0.01,AJ57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="CW57" s="66">
+      <c r="CX57" s="66">
         <f>IF(AK57&lt;0,0.01,AK57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="CX57" s="66">
+      <c r="CY57" s="66">
         <f>IF(AL57&lt;0,0.01,AL57/Conversions!$B$3)</f>
         <v>9.434423991386014</v>
       </c>
-      <c r="CY57" s="66">
+      <c r="CZ57" s="66">
         <f>IF(AM57&lt;0,0.01,AM57/Conversions!$B$3)</f>
         <v>9.434423991386014</v>
       </c>
-      <c r="CZ57" s="66">
+      <c r="DA57" s="66">
         <f>IF(AN57&lt;0,0.01,AN57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="DA57" s="66">
+      <c r="DB57" s="66">
         <f>IF(AO57&lt;0,0.01,AO57/Conversions!$B$3)</f>
         <v>9.4344239913860175</v>
       </c>
-      <c r="DB57" s="66">
+      <c r="DC57" s="66">
         <f>IF(AP57&lt;0,0.01,AP57/Conversions!$B$3)</f>
         <v>9.4344239913860175</v>
       </c>
-      <c r="DC57" s="66">
+      <c r="DD57" s="66">
         <f>IF(AQ57&lt;0,0.01,AQ57/Conversions!$B$3)</f>
         <v>10.709891079818298</v>
       </c>
-      <c r="DD57" s="66">
+      <c r="DE57" s="66">
         <f>IF(AR57&lt;0,0.01,AR57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="DE57" s="66">
+      <c r="DF57" s="66">
         <f>IF(AS57&lt;0,0.01,AS57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="DF57" s="66">
+      <c r="DG57" s="66">
         <f>IF(AT57&lt;0,0.01,AT57/Conversions!$B$3)</f>
         <v>9.434423991386014</v>
       </c>
-      <c r="DG57" s="66">
+      <c r="DH57" s="66">
         <f>IF(AU57&lt;0,0.01,AU57/Conversions!$B$3)</f>
         <v>9.4344239913860175</v>
       </c>
-      <c r="DH57" s="66">
+      <c r="DI57" s="66">
         <f>IF(AV57&lt;0,0.01,AV57/Conversions!$B$3)</f>
         <v>9.4344239913860175</v>
       </c>
-      <c r="DI57" s="66">
+      <c r="DJ57" s="66">
         <f>IF(AW57&lt;0,0.01,AW57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="DJ57" s="66">
+      <c r="DK57" s="66">
         <f>IF(AX57&lt;0,0.01,AX57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="DK57" s="66">
+      <c r="DL57" s="66">
         <f>IF(AY57&lt;0,0.01,AY57/Conversions!$B$3)</f>
         <v>9.4344239913860175</v>
       </c>
-      <c r="DL57" s="66">
+      <c r="DM57" s="66">
         <f>IF(AZ57&lt;0,0.01,AZ57/Conversions!$B$3)</f>
         <v>9.434423991386014</v>
       </c>
-      <c r="DM57" s="66">
+      <c r="DN57" s="66">
         <f>IF(BA57&lt;0,0.01,BA57/Conversions!$B$3)</f>
         <v>9.434423991386014</v>
       </c>
-      <c r="DN57" s="66">
+      <c r="DO57" s="66">
         <f>IF(BB57&lt;0,0.01,BB57/Conversions!$B$3)</f>
         <v>9.4344239913860157</v>
       </c>
-      <c r="DO57" s="66">
+      <c r="DP57" s="66">
         <f>IF(BC57&lt;0,0.01,BC57/Conversions!$B$3)</f>
         <v>9.434423991386014</v>
       </c>
+      <c r="DQ57" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -19538,7 +19796,7 @@
       </c>
       <c r="BD58" s="32"/>
       <c r="BE58" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG58" s="52" t="str">
         <f>"MINBIOPIGW"&amp;BE58</f>
@@ -19657,125 +19915,131 @@
         <f>CI58</f>
         <v>0</v>
       </c>
-      <c r="CL58" s="52" t="str">
+      <c r="CK58" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM58" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOPIGW_S3</v>
       </c>
-      <c r="CM58" s="52" t="str">
+      <c r="CN58" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Pig waste - Hi</v>
       </c>
-      <c r="CN58" s="15" t="s">
+      <c r="CO58" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO58" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP58" s="52" t="str">
+      <c r="CP58" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ58" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ58" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR58" s="66">
+      <c r="CR58" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS58" s="66">
         <f>IF(AF58&lt;0,0.01,AF58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="CS58" s="66">
+      <c r="CT58" s="66">
         <f>IF(AG58&lt;0,0.01,AG58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
-      <c r="CT58" s="66">
+      <c r="CU58" s="66">
         <f>IF(AH58&lt;0,0.01,AH58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="CU58" s="66">
+      <c r="CV58" s="66">
         <f>IF(AI58&lt;0,0.01,AI58/Conversions!$B$3)</f>
         <v>8.9452316362771089</v>
       </c>
-      <c r="CV58" s="66">
+      <c r="CW58" s="66">
         <f>IF(AJ58&lt;0,0.01,AJ58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="CW58" s="66">
+      <c r="CX58" s="66">
         <f>IF(AK58&lt;0,0.01,AK58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
-      <c r="CX58" s="66">
+      <c r="CY58" s="66">
         <f>IF(AL58&lt;0,0.01,AL58/Conversions!$B$3)</f>
         <v>8.9452316362771089</v>
       </c>
-      <c r="CY58" s="66">
+      <c r="CZ58" s="66">
         <f>IF(AM58&lt;0,0.01,AM58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="CZ58" s="66">
+      <c r="DA58" s="66">
         <f>IF(AN58&lt;0,0.01,AN58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="DA58" s="66">
+      <c r="DB58" s="66">
         <f>IF(AO58&lt;0,0.01,AO58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
-      <c r="DB58" s="66">
+      <c r="DC58" s="66">
         <f>IF(AP58&lt;0,0.01,AP58/Conversions!$B$3)</f>
         <v>8.9452316362771143</v>
       </c>
-      <c r="DC58" s="66">
+      <c r="DD58" s="66">
         <f>IF(AQ58&lt;0,0.01,AQ58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="DD58" s="66">
+      <c r="DE58" s="66">
         <f>IF(AR58&lt;0,0.01,AR58/Conversions!$B$3)</f>
         <v>8.9452316362771089</v>
       </c>
-      <c r="DE58" s="66">
+      <c r="DF58" s="66">
         <f>IF(AS58&lt;0,0.01,AS58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
-      <c r="DF58" s="66">
+      <c r="DG58" s="66">
         <f>IF(AT58&lt;0,0.01,AT58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="DG58" s="66">
+      <c r="DH58" s="66">
         <f>IF(AU58&lt;0,0.01,AU58/Conversions!$B$3)</f>
         <v>8.9452316362771089</v>
       </c>
-      <c r="DH58" s="66">
+      <c r="DI58" s="66">
         <f>IF(AV58&lt;0,0.01,AV58/Conversions!$B$3)</f>
         <v>8.9452316362771089</v>
       </c>
-      <c r="DI58" s="66">
+      <c r="DJ58" s="66">
         <f>IF(AW58&lt;0,0.01,AW58/Conversions!$B$3)</f>
         <v>8.9452316362771143</v>
       </c>
-      <c r="DJ58" s="66">
+      <c r="DK58" s="66">
         <f>IF(AX58&lt;0,0.01,AX58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
-      <c r="DK58" s="66">
+      <c r="DL58" s="66">
         <f>IF(AY58&lt;0,0.01,AY58/Conversions!$B$3)</f>
         <v>8.9452316362771089</v>
       </c>
-      <c r="DL58" s="66">
+      <c r="DM58" s="66">
         <f>IF(AZ58&lt;0,0.01,AZ58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
-      <c r="DM58" s="66">
+      <c r="DN58" s="66">
         <f>IF(BA58&lt;0,0.01,BA58/Conversions!$B$3)</f>
         <v>8.9452316362771125</v>
       </c>
-      <c r="DN58" s="66">
+      <c r="DO58" s="66">
         <f>IF(BB58&lt;0,0.01,BB58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
-      <c r="DO58" s="66">
+      <c r="DP58" s="66">
         <f>IF(BC58&lt;0,0.01,BC58/Conversions!$B$3)</f>
         <v>8.9452316362771107</v>
       </c>
+      <c r="DQ58" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -19940,7 +20204,7 @@
       </c>
       <c r="BD59" s="32"/>
       <c r="BE59" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG59" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE59</f>
@@ -20059,125 +20323,131 @@
         <f>TREND(BT59:CI59,$BT$5:$CI$5,$CJ$5)</f>
         <v>0.25705588327448137</v>
       </c>
-      <c r="CL59" s="52" t="str">
+      <c r="CK59" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM59" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOMSW2_S3</v>
       </c>
-      <c r="CM59" s="52" t="str">
+      <c r="CN59" s="52" t="str">
         <f t="shared" si="9"/>
         <v>BMSW - Hi</v>
       </c>
-      <c r="CN59" s="15" t="s">
+      <c r="CO59" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO59" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP59" s="52" t="str">
+      <c r="CP59" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ59" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOMUN</v>
       </c>
-      <c r="CQ59" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR59" s="66">
+      <c r="CR59" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS59" s="66">
         <f>IF(AF59&lt;0,0.01,AF59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CS59" s="66">
+      <c r="CT59" s="66">
         <f>IF(AG59&lt;0,0.01,AG59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CT59" s="66">
+      <c r="CU59" s="66">
         <f>IF(AH59&lt;0,0.01,AH59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CU59" s="66">
+      <c r="CV59" s="66">
         <f>IF(AI59&lt;0,0.01,AI59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CV59" s="66">
+      <c r="CW59" s="66">
         <f>IF(AJ59&lt;0,0.01,AJ59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CW59" s="66">
+      <c r="CX59" s="66">
         <f>IF(AK59&lt;0,0.01,AK59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CX59" s="66">
+      <c r="CY59" s="66">
         <f>IF(AL59&lt;0,0.01,AL59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CY59" s="66">
+      <c r="CZ59" s="66">
         <f>IF(AM59&lt;0,0.01,AM59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CZ59" s="66">
+      <c r="DA59" s="66">
         <f>IF(AN59&lt;0,0.01,AN59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DA59" s="66">
+      <c r="DB59" s="66">
         <f>IF(AO59&lt;0,0.01,AO59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DB59" s="66">
+      <c r="DC59" s="66">
         <f>IF(AP59&lt;0,0.01,AP59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DC59" s="66">
+      <c r="DD59" s="66">
         <f>IF(AQ59&lt;0,0.01,AQ59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DD59" s="66">
+      <c r="DE59" s="66">
         <f>IF(AR59&lt;0,0.01,AR59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DE59" s="66">
+      <c r="DF59" s="66">
         <f>IF(AS59&lt;0,0.01,AS59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DF59" s="66">
+      <c r="DG59" s="66">
         <f>IF(AT59&lt;0,0.01,AT59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DG59" s="66">
+      <c r="DH59" s="66">
         <f>IF(AU59&lt;0,0.01,AU59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DH59" s="66">
+      <c r="DI59" s="66">
         <f>IF(AV59&lt;0,0.01,AV59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DI59" s="66">
+      <c r="DJ59" s="66">
         <f>IF(AW59&lt;0,0.01,AW59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DJ59" s="66">
+      <c r="DK59" s="66">
         <f>IF(AX59&lt;0,0.01,AX59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DK59" s="66">
+      <c r="DL59" s="66">
         <f>IF(AY59&lt;0,0.01,AY59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DL59" s="66">
+      <c r="DM59" s="66">
         <f>IF(AZ59&lt;0,0.01,AZ59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DM59" s="66">
+      <c r="DN59" s="66">
         <f>IF(BA59&lt;0,0.01,BA59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DN59" s="66">
+      <c r="DO59" s="66">
         <f>IF(BB59&lt;0,0.01,BB59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DO59" s="66">
+      <c r="DP59" s="66">
         <f>IF(BC59&lt;0,0.01,BC59/Conversions!$B$3)</f>
         <v>0</v>
       </c>
+      <c r="DQ59" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -20461,125 +20731,131 @@
         <f>TREND(BL60:CI60,$BL$5:$CI$5,$CJ$5)</f>
         <v>30.618994906411899</v>
       </c>
-      <c r="CL60" s="52" t="str">
+      <c r="CK60" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM60" s="52" t="str">
         <f t="shared" si="8"/>
         <v>ABIOCRP43</v>
       </c>
-      <c r="CM60" s="52" t="str">
+      <c r="CN60" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Willow - Hi</v>
       </c>
-      <c r="CN60" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO60" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP60" s="52" t="str">
+      <c r="CP60" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ60" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ60" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR60" s="66">
+      <c r="CR60" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS60" s="66">
         <f>IF(AF60&lt;0,0.01,AF60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CS60" s="66">
+      <c r="CT60" s="66">
         <f>IF(AG60&lt;0,0.01,AG60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CT60" s="66">
+      <c r="CU60" s="66">
         <f>IF(AH60&lt;0,0.01,AH60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CU60" s="66">
+      <c r="CV60" s="66">
         <f>IF(AI60&lt;0,0.01,AI60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CV60" s="66">
+      <c r="CW60" s="66">
         <f>IF(AJ60&lt;0,0.01,AJ60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CW60" s="66">
+      <c r="CX60" s="66">
         <f>IF(AK60&lt;0,0.01,AK60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CX60" s="66">
+      <c r="CY60" s="66">
         <f>IF(AL60&lt;0,0.01,AL60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CY60" s="66">
+      <c r="CZ60" s="66">
         <f>IF(AM60&lt;0,0.01,AM60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CZ60" s="66">
+      <c r="DA60" s="66">
         <f>IF(AN60&lt;0,0.01,AN60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DA60" s="66">
+      <c r="DB60" s="66">
         <f>IF(AO60&lt;0,0.01,AO60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DB60" s="66">
+      <c r="DC60" s="66">
         <f>IF(AP60&lt;0,0.01,AP60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DC60" s="66">
+      <c r="DD60" s="66">
         <f>IF(AQ60&lt;0,0.01,AQ60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DD60" s="66">
+      <c r="DE60" s="66">
         <f>IF(AR60&lt;0,0.01,AR60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DE60" s="66">
+      <c r="DF60" s="66">
         <f>IF(AS60&lt;0,0.01,AS60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DF60" s="66">
+      <c r="DG60" s="66">
         <f>IF(AT60&lt;0,0.01,AT60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DG60" s="66">
+      <c r="DH60" s="66">
         <f>IF(AU60&lt;0,0.01,AU60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DH60" s="66">
+      <c r="DI60" s="66">
         <f>IF(AV60&lt;0,0.01,AV60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DI60" s="66">
+      <c r="DJ60" s="66">
         <f>IF(AW60&lt;0,0.01,AW60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DJ60" s="66">
+      <c r="DK60" s="66">
         <f>IF(AX60&lt;0,0.01,AX60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DK60" s="66">
+      <c r="DL60" s="66">
         <f>IF(AY60&lt;0,0.01,AY60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DL60" s="66">
+      <c r="DM60" s="66">
         <f>IF(AZ60&lt;0,0.01,AZ60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DM60" s="66">
+      <c r="DN60" s="66">
         <f>IF(BA60&lt;0,0.01,BA60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DN60" s="66">
+      <c r="DO60" s="66">
         <f>IF(BB60&lt;0,0.01,BB60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DO60" s="66">
+      <c r="DP60" s="66">
         <f>IF(BC60&lt;0,0.01,BC60/Conversions!$B$3)</f>
         <v>10</v>
       </c>
+      <c r="DQ60" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -20863,125 +21139,131 @@
         <f>TREND(BL61:CI61,$BL$5:$CI$5,$CJ$5)</f>
         <v>24.071791809190245</v>
       </c>
-      <c r="CL61" s="52" t="str">
+      <c r="CK61" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM61" s="52" t="str">
         <f t="shared" si="8"/>
         <v>ABIOCRP33</v>
       </c>
-      <c r="CM61" s="52" t="str">
+      <c r="CN61" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Miscanthus - Hi</v>
       </c>
-      <c r="CN61" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO61" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP61" s="52" t="str">
+      <c r="CP61" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ61" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOWOO</v>
       </c>
-      <c r="CQ61" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR61" s="66">
+      <c r="CR61" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS61" s="66">
         <f>IF(AF61&lt;0,0.01,AF61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CS61" s="66">
+      <c r="CT61" s="66">
         <f>IF(AG61&lt;0,0.01,AG61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CT61" s="66">
+      <c r="CU61" s="66">
         <f>IF(AH61&lt;0,0.01,AH61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CU61" s="66">
+      <c r="CV61" s="66">
         <f>IF(AI61&lt;0,0.01,AI61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CV61" s="66">
+      <c r="CW61" s="66">
         <f>IF(AJ61&lt;0,0.01,AJ61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CW61" s="66">
+      <c r="CX61" s="66">
         <f>IF(AK61&lt;0,0.01,AK61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CX61" s="66">
+      <c r="CY61" s="66">
         <f>IF(AL61&lt;0,0.01,AL61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CY61" s="66">
+      <c r="CZ61" s="66">
         <f>IF(AM61&lt;0,0.01,AM61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="CZ61" s="66">
+      <c r="DA61" s="66">
         <f>IF(AN61&lt;0,0.01,AN61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DA61" s="66">
+      <c r="DB61" s="66">
         <f>IF(AO61&lt;0,0.01,AO61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DB61" s="66">
+      <c r="DC61" s="66">
         <f>IF(AP61&lt;0,0.01,AP61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DC61" s="66">
+      <c r="DD61" s="66">
         <f>IF(AQ61&lt;0,0.01,AQ61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DD61" s="66">
+      <c r="DE61" s="66">
         <f>IF(AR61&lt;0,0.01,AR61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DE61" s="66">
+      <c r="DF61" s="66">
         <f>IF(AS61&lt;0,0.01,AS61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DF61" s="66">
+      <c r="DG61" s="66">
         <f>IF(AT61&lt;0,0.01,AT61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DG61" s="66">
+      <c r="DH61" s="66">
         <f>IF(AU61&lt;0,0.01,AU61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DH61" s="66">
+      <c r="DI61" s="66">
         <f>IF(AV61&lt;0,0.01,AV61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DI61" s="66">
+      <c r="DJ61" s="66">
         <f>IF(AW61&lt;0,0.01,AW61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DJ61" s="66">
+      <c r="DK61" s="66">
         <f>IF(AX61&lt;0,0.01,AX61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DK61" s="66">
+      <c r="DL61" s="66">
         <f>IF(AY61&lt;0,0.01,AY61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DL61" s="66">
+      <c r="DM61" s="66">
         <f>IF(AZ61&lt;0,0.01,AZ61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DM61" s="66">
+      <c r="DN61" s="66">
         <f>IF(BA61&lt;0,0.01,BA61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DN61" s="66">
+      <c r="DO61" s="66">
         <f>IF(BB61&lt;0,0.01,BB61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
-      <c r="DO61" s="66">
+      <c r="DP61" s="66">
         <f>IF(BC61&lt;0,0.01,BC61/Conversions!$B$3)</f>
         <v>10</v>
       </c>
+      <c r="DQ61" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -21265,125 +21547,131 @@
         <f>TREND(BT62:CI62,$BT$5:$CI$5,$CJ$5)</f>
         <v>0.4549486784272867</v>
       </c>
-      <c r="CL62" s="52" t="str">
+      <c r="CK62" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM62" s="52" t="str">
         <f t="shared" si="8"/>
         <v>ABIOCRP13</v>
       </c>
-      <c r="CM62" s="52" t="str">
+      <c r="CN62" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Wheat - Hi</v>
       </c>
-      <c r="CN62" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO62" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP62" s="52" t="str">
+      <c r="CP62" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ62" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOCRP1</v>
       </c>
-      <c r="CQ62" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR62" s="66">
+      <c r="CR62" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS62" s="66">
         <f>IF(AF62&lt;0,0.01,AF62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CS62" s="66">
+      <c r="CT62" s="66">
         <f>IF(AG62&lt;0,0.01,AG62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CT62" s="66">
+      <c r="CU62" s="66">
         <f>IF(AH62&lt;0,0.01,AH62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CU62" s="66">
+      <c r="CV62" s="66">
         <f>IF(AI62&lt;0,0.01,AI62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CV62" s="66">
+      <c r="CW62" s="66">
         <f>IF(AJ62&lt;0,0.01,AJ62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CW62" s="66">
+      <c r="CX62" s="66">
         <f>IF(AK62&lt;0,0.01,AK62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CX62" s="66">
+      <c r="CY62" s="66">
         <f>IF(AL62&lt;0,0.01,AL62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CY62" s="66">
+      <c r="CZ62" s="66">
         <f>IF(AM62&lt;0,0.01,AM62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="CZ62" s="66">
+      <c r="DA62" s="66">
         <f>IF(AN62&lt;0,0.01,AN62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DA62" s="66">
+      <c r="DB62" s="66">
         <f>IF(AO62&lt;0,0.01,AO62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DB62" s="66">
+      <c r="DC62" s="66">
         <f>IF(AP62&lt;0,0.01,AP62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DC62" s="66">
+      <c r="DD62" s="66">
         <f>IF(AQ62&lt;0,0.01,AQ62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DD62" s="66">
+      <c r="DE62" s="66">
         <f>IF(AR62&lt;0,0.01,AR62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DE62" s="66">
+      <c r="DF62" s="66">
         <f>IF(AS62&lt;0,0.01,AS62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DF62" s="66">
+      <c r="DG62" s="66">
         <f>IF(AT62&lt;0,0.01,AT62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DG62" s="66">
+      <c r="DH62" s="66">
         <f>IF(AU62&lt;0,0.01,AU62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DH62" s="66">
+      <c r="DI62" s="66">
         <f>IF(AV62&lt;0,0.01,AV62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DI62" s="66">
+      <c r="DJ62" s="66">
         <f>IF(AW62&lt;0,0.01,AW62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DJ62" s="66">
+      <c r="DK62" s="66">
         <f>IF(AX62&lt;0,0.01,AX62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DK62" s="66">
+      <c r="DL62" s="66">
         <f>IF(AY62&lt;0,0.01,AY62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DL62" s="66">
+      <c r="DM62" s="66">
         <f>IF(AZ62&lt;0,0.01,AZ62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DM62" s="66">
+      <c r="DN62" s="66">
         <f>IF(BA62&lt;0,0.01,BA62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DN62" s="66">
+      <c r="DO62" s="66">
         <f>IF(BB62&lt;0,0.01,BB62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
-      <c r="DO62" s="66">
+      <c r="DP62" s="66">
         <f>IF(BC62&lt;0,0.01,BC62/Conversions!$B$3)</f>
         <v>28.527089324022089</v>
       </c>
+      <c r="DQ62" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -21667,125 +21955,131 @@
         <f>TREND(BT63:CI63,$BT$5:$CI$5,$CJ$5)</f>
         <v>2.439848025856989</v>
       </c>
-      <c r="CL63" s="52" t="str">
+      <c r="CK63" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM63" s="52" t="str">
         <f t="shared" si="8"/>
         <v>ABIOCRP23</v>
       </c>
-      <c r="CM63" s="52" t="str">
+      <c r="CN63" s="52" t="str">
         <f t="shared" si="9"/>
         <v>OSR - Hi</v>
       </c>
-      <c r="CN63" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO63" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP63" s="52" t="str">
+      <c r="CP63" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ63" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIORPS</v>
       </c>
-      <c r="CQ63" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR63" s="66">
+      <c r="CR63" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS63" s="66">
         <f>IF(AF63&lt;0,0.01,AF63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CS63" s="66">
+      <c r="CT63" s="66">
         <f>IF(AG63&lt;0,0.01,AG63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CT63" s="66">
+      <c r="CU63" s="66">
         <f>IF(AH63&lt;0,0.01,AH63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CU63" s="66">
+      <c r="CV63" s="66">
         <f>IF(AI63&lt;0,0.01,AI63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CV63" s="66">
+      <c r="CW63" s="66">
         <f>IF(AJ63&lt;0,0.01,AJ63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CW63" s="66">
+      <c r="CX63" s="66">
         <f>IF(AK63&lt;0,0.01,AK63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CX63" s="66">
+      <c r="CY63" s="66">
         <f>IF(AL63&lt;0,0.01,AL63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CY63" s="66">
+      <c r="CZ63" s="66">
         <f>IF(AM63&lt;0,0.01,AM63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="CZ63" s="66">
+      <c r="DA63" s="66">
         <f>IF(AN63&lt;0,0.01,AN63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DA63" s="66">
+      <c r="DB63" s="66">
         <f>IF(AO63&lt;0,0.01,AO63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DB63" s="66">
+      <c r="DC63" s="66">
         <f>IF(AP63&lt;0,0.01,AP63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DC63" s="66">
+      <c r="DD63" s="66">
         <f>IF(AQ63&lt;0,0.01,AQ63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DD63" s="66">
+      <c r="DE63" s="66">
         <f>IF(AR63&lt;0,0.01,AR63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DE63" s="66">
+      <c r="DF63" s="66">
         <f>IF(AS63&lt;0,0.01,AS63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DF63" s="66">
+      <c r="DG63" s="66">
         <f>IF(AT63&lt;0,0.01,AT63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DG63" s="66">
+      <c r="DH63" s="66">
         <f>IF(AU63&lt;0,0.01,AU63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DH63" s="66">
+      <c r="DI63" s="66">
         <f>IF(AV63&lt;0,0.01,AV63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DI63" s="66">
+      <c r="DJ63" s="66">
         <f>IF(AW63&lt;0,0.01,AW63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DJ63" s="66">
+      <c r="DK63" s="66">
         <f>IF(AX63&lt;0,0.01,AX63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DK63" s="66">
+      <c r="DL63" s="66">
         <f>IF(AY63&lt;0,0.01,AY63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DL63" s="66">
+      <c r="DM63" s="66">
         <f>IF(AZ63&lt;0,0.01,AZ63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DM63" s="66">
+      <c r="DN63" s="66">
         <f>IF(BA63&lt;0,0.01,BA63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DN63" s="66">
+      <c r="DO63" s="66">
         <f>IF(BB63&lt;0,0.01,BB63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
-      <c r="DO63" s="66">
+      <c r="DP63" s="66">
         <f>IF(BC63&lt;0,0.01,BC63/Conversions!$B$3)</f>
         <v>39.888592755976262</v>
       </c>
+      <c r="DQ63" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -22069,125 +22363,131 @@
         <f>TREND(BT64:CI64,$BT$5:$CI$5,$CJ$5)</f>
         <v>15.59116317974258</v>
       </c>
-      <c r="CL64" s="52" t="str">
+      <c r="CK64" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM64" s="52" t="str">
         <f t="shared" si="8"/>
         <v>ABIOGAS13</v>
       </c>
-      <c r="CM64" s="52" t="str">
+      <c r="CN64" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Crops Anaerobic - Hi</v>
       </c>
-      <c r="CN64" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="CO64" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CP64" s="52" t="str">
+      <c r="CP64" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ64" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOGAS</v>
       </c>
-      <c r="CQ64" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR64" s="66">
+      <c r="CR64" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS64" s="66">
         <f>IF(AF64&lt;0,0.01,AF64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CS64" s="66">
+      <c r="CT64" s="66">
         <f>IF(AG64&lt;0,0.01,AG64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CT64" s="66">
+      <c r="CU64" s="66">
         <f>IF(AH64&lt;0,0.01,AH64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CU64" s="66">
+      <c r="CV64" s="66">
         <f>IF(AI64&lt;0,0.01,AI64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CV64" s="66">
+      <c r="CW64" s="66">
         <f>IF(AJ64&lt;0,0.01,AJ64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CW64" s="66">
+      <c r="CX64" s="66">
         <f>IF(AK64&lt;0,0.01,AK64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CX64" s="66">
+      <c r="CY64" s="66">
         <f>IF(AL64&lt;0,0.01,AL64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CY64" s="66">
+      <c r="CZ64" s="66">
         <f>IF(AM64&lt;0,0.01,AM64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="CZ64" s="66">
+      <c r="DA64" s="66">
         <f>IF(AN64&lt;0,0.01,AN64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DA64" s="66">
+      <c r="DB64" s="66">
         <f>IF(AO64&lt;0,0.01,AO64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DB64" s="66">
+      <c r="DC64" s="66">
         <f>IF(AP64&lt;0,0.01,AP64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DC64" s="66">
+      <c r="DD64" s="66">
         <f>IF(AQ64&lt;0,0.01,AQ64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DD64" s="66">
+      <c r="DE64" s="66">
         <f>IF(AR64&lt;0,0.01,AR64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DE64" s="66">
+      <c r="DF64" s="66">
         <f>IF(AS64&lt;0,0.01,AS64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DF64" s="66">
+      <c r="DG64" s="66">
         <f>IF(AT64&lt;0,0.01,AT64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DG64" s="66">
+      <c r="DH64" s="66">
         <f>IF(AU64&lt;0,0.01,AU64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DH64" s="66">
+      <c r="DI64" s="66">
         <f>IF(AV64&lt;0,0.01,AV64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DI64" s="66">
+      <c r="DJ64" s="66">
         <f>IF(AW64&lt;0,0.01,AW64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DJ64" s="66">
+      <c r="DK64" s="66">
         <f>IF(AX64&lt;0,0.01,AX64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DK64" s="66">
+      <c r="DL64" s="66">
         <f>IF(AY64&lt;0,0.01,AY64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DL64" s="66">
+      <c r="DM64" s="66">
         <f>IF(AZ64&lt;0,0.01,AZ64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DM64" s="66">
+      <c r="DN64" s="66">
         <f>IF(BA64&lt;0,0.01,BA64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DN64" s="66">
+      <c r="DO64" s="66">
         <f>IF(BB64&lt;0,0.01,BB64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
-      <c r="DO64" s="66">
+      <c r="DP64" s="66">
         <f>IF(BC64&lt;0,0.01,BC64/Conversions!$B$3)</f>
         <v>12.18892310812339</v>
       </c>
+      <c r="DQ64" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -22352,7 +22652,7 @@
       </c>
       <c r="BD65" s="32"/>
       <c r="BE65" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BG65" s="52" t="str">
         <f>"MINBIOINDF"&amp;BE65</f>
@@ -22471,125 +22771,131 @@
         <f>CI65</f>
         <v>0</v>
       </c>
-      <c r="CL65" s="52" t="str">
+      <c r="CK65" s="52">
+        <v>5</v>
+      </c>
+      <c r="CM65" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MINBIOINDF_S3</v>
       </c>
-      <c r="CM65" s="52" t="str">
+      <c r="CN65" s="52" t="str">
         <f t="shared" si="9"/>
         <v>Industrial Food - Hi</v>
       </c>
-      <c r="CN65" s="15" t="s">
+      <c r="CO65" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="CO65" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="CP65" s="52" t="str">
+      <c r="CP65" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ65" s="52" t="str">
         <f t="shared" si="10"/>
         <v>BIOSLU</v>
       </c>
-      <c r="CQ65" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="CR65" s="66">
+      <c r="CR65" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS65" s="66">
         <f>IF(AF65&lt;0,0.01,AF65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CS65" s="66">
+      <c r="CT65" s="66">
         <f>IF(AG65&lt;0,0.01,AG65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CT65" s="66">
+      <c r="CU65" s="66">
         <f>IF(AH65&lt;0,0.01,AH65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CU65" s="66">
+      <c r="CV65" s="66">
         <f>IF(AI65&lt;0,0.01,AI65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CV65" s="66">
+      <c r="CW65" s="66">
         <f>IF(AJ65&lt;0,0.01,AJ65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CW65" s="66">
+      <c r="CX65" s="66">
         <f>IF(AK65&lt;0,0.01,AK65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CX65" s="66">
+      <c r="CY65" s="66">
         <f>IF(AL65&lt;0,0.01,AL65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CY65" s="66">
+      <c r="CZ65" s="66">
         <f>IF(AM65&lt;0,0.01,AM65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="CZ65" s="66">
+      <c r="DA65" s="66">
         <f>IF(AN65&lt;0,0.01,AN65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DA65" s="66">
+      <c r="DB65" s="66">
         <f>IF(AO65&lt;0,0.01,AO65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DB65" s="66">
+      <c r="DC65" s="66">
         <f>IF(AP65&lt;0,0.01,AP65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DC65" s="66">
+      <c r="DD65" s="66">
         <f>IF(AQ65&lt;0,0.01,AQ65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DD65" s="66">
+      <c r="DE65" s="66">
         <f>IF(AR65&lt;0,0.01,AR65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DE65" s="66">
+      <c r="DF65" s="66">
         <f>IF(AS65&lt;0,0.01,AS65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DF65" s="66">
+      <c r="DG65" s="66">
         <f>IF(AT65&lt;0,0.01,AT65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DG65" s="66">
+      <c r="DH65" s="66">
         <f>IF(AU65&lt;0,0.01,AU65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DH65" s="66">
+      <c r="DI65" s="66">
         <f>IF(AV65&lt;0,0.01,AV65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DI65" s="66">
+      <c r="DJ65" s="66">
         <f>IF(AW65&lt;0,0.01,AW65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DJ65" s="66">
+      <c r="DK65" s="66">
         <f>IF(AX65&lt;0,0.01,AX65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DK65" s="66">
+      <c r="DL65" s="66">
         <f>IF(AY65&lt;0,0.01,AY65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DL65" s="66">
+      <c r="DM65" s="66">
         <f>IF(AZ65&lt;0,0.01,AZ65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DM65" s="66">
+      <c r="DN65" s="66">
         <f>IF(BA65&lt;0,0.01,BA65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DN65" s="66">
+      <c r="DO65" s="66">
         <f>IF(BB65&lt;0,0.01,BB65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
-      <c r="DO65" s="66">
+      <c r="DP65" s="66">
         <f>IF(BC65&lt;0,0.01,BC65/Conversions!$B$3)</f>
         <v>0</v>
       </c>
+      <c r="DQ65" s="52">
+        <v>5</v>
+      </c>
     </row>
-    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -22647,7 +22953,7 @@
       <c r="BC66" s="22"/>
       <c r="BD66" s="21"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:121" x14ac:dyDescent="0.25">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>155.46564495117042</v>
@@ -22656,7 +22962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:121" x14ac:dyDescent="0.25">
       <c r="AB68" s="20">
         <f>SUM(AB6:AB21,AB28:AB43,AB50:AB65)</f>
         <v>2829139.6648809365</v>
@@ -22690,8 +22996,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DO69"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+    <sheetView topLeftCell="BE30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BL24" sqref="BL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23115,7 +23421,7 @@
       <c r="BC4" s="43"/>
       <c r="BD4" s="32"/>
       <c r="BG4" s="31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BL4" s="2"/>
       <c r="BM4" s="2"/>
@@ -23143,7 +23449,7 @@
       <c r="CI4" s="2"/>
       <c r="CJ4" s="2"/>
       <c r="CL4" s="31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
@@ -23326,7 +23632,7 @@
         <v>3</v>
       </c>
       <c r="CO5" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CP5" s="28" t="s">
         <v>97</v>
@@ -23700,17 +24006,17 @@
         <v>Forest thinnings - Lo</v>
       </c>
       <c r="CN6" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP6" s="52" t="str">
         <f t="shared" ref="CP6:CP21" si="2">BJ6</f>
         <v>BIOWOO</v>
       </c>
       <c r="CQ6" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR6" s="66">
         <f>IF(AF6&lt;0,0.01,AF6/Conversions!$B$3)</f>
@@ -24105,14 +24411,14 @@
         <v>6</v>
       </c>
       <c r="CO7" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP7" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ7" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR7" s="66">
         <f>IF(AF7&lt;0,0.01,AF7/Conversions!$B$3)</f>
@@ -24507,14 +24813,14 @@
         <v>6</v>
       </c>
       <c r="CO8" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP8" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ8" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR8" s="66">
         <f>IF(AF8&lt;0,0.01,AF8/Conversions!$B$3)</f>
@@ -24909,14 +25215,14 @@
         <v>6</v>
       </c>
       <c r="CO9" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP9" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOMUN</v>
       </c>
       <c r="CQ9" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR9" s="66">
         <f>IF(AF9&lt;0,0.01,AF9/Conversions!$B$3)</f>
@@ -25311,14 +25617,14 @@
         <v>6</v>
       </c>
       <c r="CO10" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP10" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ10" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR10" s="66">
         <f>IF(AF10&lt;0,0.01,AF10/Conversions!$B$3)</f>
@@ -25713,14 +26019,14 @@
         <v>6</v>
       </c>
       <c r="CO11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP11" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIORPS</v>
       </c>
       <c r="CQ11" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR11" s="66">
         <f>IF(AF11&lt;0,0.01,AF11/Conversions!$B$3)</f>
@@ -26115,14 +26421,14 @@
         <v>6</v>
       </c>
       <c r="CO12" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP12" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ12" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR12" s="66">
         <f>IF(AF12&lt;0,0.01,AF12/Conversions!$B$3)</f>
@@ -26517,14 +26823,14 @@
         <v>6</v>
       </c>
       <c r="CO13" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP13" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ13" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR13" s="66">
         <f>IF(AF13&lt;0,0.01,AF13/Conversions!$B$3)</f>
@@ -26919,14 +27225,14 @@
         <v>6</v>
       </c>
       <c r="CO14" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP14" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ14" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR14" s="66">
         <f>IF(AF14&lt;0,0.01,AF14/Conversions!$B$3)</f>
@@ -27321,14 +27627,14 @@
         <v>6</v>
       </c>
       <c r="CO15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP15" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOMUN</v>
       </c>
       <c r="CQ15" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR15" s="66">
         <f>IF(AF15&lt;0,0.01,AF15/Conversions!$B$3)</f>
@@ -27720,17 +28026,17 @@
         <v>Willow - Lo</v>
       </c>
       <c r="CN16" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP16" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ16" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR16" s="66">
         <f>IF(AF16&lt;0,0.01,AF16/Conversions!$B$3)</f>
@@ -28122,17 +28428,17 @@
         <v>Miscanthus - Lo</v>
       </c>
       <c r="CN17" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP17" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ17" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR17" s="66">
         <f>IF(AF17&lt;0,0.01,AF17/Conversions!$B$3)</f>
@@ -28524,17 +28830,17 @@
         <v>Wheat - Lo</v>
       </c>
       <c r="CN18" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP18" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOCRP1</v>
       </c>
       <c r="CQ18" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR18" s="66">
         <f>IF(AF18&lt;0,0.01,AF18/Conversions!$B$3)</f>
@@ -28926,17 +29232,17 @@
         <v>OSR - Lo</v>
       </c>
       <c r="CN19" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP19" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIORPS</v>
       </c>
       <c r="CQ19" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR19" s="66">
         <f>IF(AF19&lt;0,0.01,AF19/Conversions!$B$3)</f>
@@ -29329,17 +29635,17 @@
         <v>Crops Anaerobic - Lo</v>
       </c>
       <c r="CN20" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO20" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP20" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOGAS</v>
       </c>
       <c r="CQ20" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR20" s="66">
         <f>IF(AF20&lt;0,0.01,AF20/Conversions!$B$3)</f>
@@ -29734,14 +30040,14 @@
         <v>6</v>
       </c>
       <c r="CO21" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP21" s="52" t="str">
         <f t="shared" si="2"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ21" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR21" s="66">
         <f>IF(AF21&lt;0,0.01,AF21/Conversions!$B$3)</f>
@@ -30444,7 +30750,7 @@
       <c r="BC26" s="46"/>
       <c r="BD26" s="32"/>
       <c r="BG26" s="31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BL26" s="2"/>
       <c r="BM26" s="2"/>
@@ -30472,7 +30778,7 @@
       <c r="CI26" s="2"/>
       <c r="CJ26" s="2"/>
       <c r="CL26" s="31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="CR26" s="2"/>
       <c r="CS26" s="2"/>
@@ -30655,7 +30961,7 @@
         <v>3</v>
       </c>
       <c r="CO27" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CP27" s="28" t="s">
         <v>97</v>
@@ -31029,17 +31335,17 @@
         <v>Forest thinnings - Me</v>
       </c>
       <c r="CN28" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO28" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP28" s="52" t="str">
         <f t="shared" ref="CP28:CP43" si="7">BJ28</f>
         <v>BIOWOO</v>
       </c>
       <c r="CQ28" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR28" s="66">
         <f>IF(AF28&lt;0,0.01,AF28/Conversions!$B$3)</f>
@@ -31434,14 +31740,14 @@
         <v>6</v>
       </c>
       <c r="CO29" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP29" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ29" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR29" s="66">
         <f>IF(AF29&lt;0,0.01,AF29/Conversions!$B$3)</f>
@@ -31836,14 +32142,14 @@
         <v>6</v>
       </c>
       <c r="CO30" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP30" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ30" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR30" s="66">
         <f>IF(AF30&lt;0,0.01,AF30/Conversions!$B$3)</f>
@@ -32236,14 +32542,14 @@
         <v>6</v>
       </c>
       <c r="CO31" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP31" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOMUN</v>
       </c>
       <c r="CQ31" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR31" s="66">
         <f>IF(AF31&lt;0,0.01,AF31/Conversions!$B$3)</f>
@@ -32638,14 +32944,14 @@
         <v>6</v>
       </c>
       <c r="CO32" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP32" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ32" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR32" s="66">
         <f>IF(AF32&lt;0,0.01,AF32/Conversions!$B$3)</f>
@@ -33040,14 +33346,14 @@
         <v>6</v>
       </c>
       <c r="CO33" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP33" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIORPS</v>
       </c>
       <c r="CQ33" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR33" s="66">
         <f>IF(AF33&lt;0,0.01,AF33/Conversions!$B$3)</f>
@@ -33442,14 +33748,14 @@
         <v>6</v>
       </c>
       <c r="CO34" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP34" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ34" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR34" s="66">
         <f>IF(AF34&lt;0,0.01,AF34/Conversions!$B$3)</f>
@@ -33844,14 +34150,14 @@
         <v>6</v>
       </c>
       <c r="CO35" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP35" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ35" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR35" s="66">
         <f>IF(AF35&lt;0,0.01,AF35/Conversions!$B$3)</f>
@@ -34246,14 +34552,14 @@
         <v>6</v>
       </c>
       <c r="CO36" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP36" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ36" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR36" s="66">
         <f>IF(AF36&lt;0,0.01,AF36/Conversions!$B$3)</f>
@@ -34648,14 +34954,14 @@
         <v>6</v>
       </c>
       <c r="CO37" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP37" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOMUN</v>
       </c>
       <c r="CQ37" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR37" s="66">
         <f>IF(AF37&lt;0,0.01,AF37/Conversions!$B$3)</f>
@@ -35047,17 +35353,17 @@
         <v>Willow - Me</v>
       </c>
       <c r="CN38" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO38" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP38" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ38" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR38" s="66">
         <f>IF(AF38&lt;0,0.01,AF38/Conversions!$B$3)</f>
@@ -35449,17 +35755,17 @@
         <v>Miscanthus - Me</v>
       </c>
       <c r="CN39" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO39" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP39" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ39" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR39" s="66">
         <f>IF(AF39&lt;0,0.01,AF39/Conversions!$B$3)</f>
@@ -35851,17 +36157,17 @@
         <v>Wheat - Me</v>
       </c>
       <c r="CN40" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO40" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP40" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOCRP1</v>
       </c>
       <c r="CQ40" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR40" s="66">
         <f>IF(AF40&lt;0,0.01,AF40/Conversions!$B$3)</f>
@@ -36253,17 +36559,17 @@
         <v>OSR - Me</v>
       </c>
       <c r="CN41" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO41" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP41" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIORPS</v>
       </c>
       <c r="CQ41" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR41" s="66">
         <f>IF(AF41&lt;0,0.01,AF41/Conversions!$B$3)</f>
@@ -36655,17 +36961,17 @@
         <v>Crops Anaerobic - Me</v>
       </c>
       <c r="CN42" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO42" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP42" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOGAS</v>
       </c>
       <c r="CQ42" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR42" s="66">
         <f>IF(AF42&lt;0,0.01,AF42/Conversions!$B$3)</f>
@@ -37060,14 +37366,14 @@
         <v>6</v>
       </c>
       <c r="CO43" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP43" s="52" t="str">
         <f t="shared" si="7"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ43" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR43" s="66">
         <f>IF(AF43&lt;0,0.01,AF43/Conversions!$B$3)</f>
@@ -37736,7 +38042,7 @@
       <c r="BC48" s="46"/>
       <c r="BD48" s="32"/>
       <c r="BG48" s="31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BL48" s="2"/>
       <c r="BM48" s="2"/>
@@ -37764,7 +38070,7 @@
       <c r="CI48" s="2"/>
       <c r="CJ48" s="2"/>
       <c r="CL48" s="31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="CR48" s="2"/>
       <c r="CS48" s="2"/>
@@ -37947,7 +38253,7 @@
         <v>3</v>
       </c>
       <c r="CO49" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CP49" s="28" t="s">
         <v>97</v>
@@ -38321,17 +38627,17 @@
         <v>Forest thinnings - Hi</v>
       </c>
       <c r="CN50" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO50" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP50" s="52" t="str">
         <f t="shared" ref="CP50:CP65" si="12">BJ50</f>
         <v>BIOWOO</v>
       </c>
       <c r="CQ50" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR50" s="66">
         <f>IF(AF50&lt;0,0.01,AF50/Conversions!$B$3)</f>
@@ -38726,14 +39032,14 @@
         <v>6</v>
       </c>
       <c r="CO51" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP51" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ51" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR51" s="66">
         <f>IF(AF51&lt;0,0.01,AF51/Conversions!$B$3)</f>
@@ -39128,14 +39434,14 @@
         <v>6</v>
       </c>
       <c r="CO52" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP52" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ52" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR52" s="66">
         <f>IF(AF52&lt;0,0.01,AF52/Conversions!$B$3)</f>
@@ -39530,14 +39836,14 @@
         <v>6</v>
       </c>
       <c r="CO53" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP53" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOMUN</v>
       </c>
       <c r="CQ53" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR53" s="66">
         <f>IF(AF53&lt;0,0.01,AF53/Conversions!$B$3)</f>
@@ -39932,14 +40238,14 @@
         <v>6</v>
       </c>
       <c r="CO54" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP54" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ54" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR54" s="66">
         <f>IF(AF54&lt;0,0.01,AF54/Conversions!$B$3)</f>
@@ -40334,14 +40640,14 @@
         <v>6</v>
       </c>
       <c r="CO55" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP55" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIORPS</v>
       </c>
       <c r="CQ55" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR55" s="66">
         <f>IF(AF55&lt;0,0.01,AF55/Conversions!$B$3)</f>
@@ -40736,14 +41042,14 @@
         <v>6</v>
       </c>
       <c r="CO56" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP56" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ56" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR56" s="66">
         <f>IF(AF56&lt;0,0.01,AF56/Conversions!$B$3)</f>
@@ -41138,14 +41444,14 @@
         <v>6</v>
       </c>
       <c r="CO57" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP57" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ57" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR57" s="66">
         <f>IF(AF57&lt;0,0.01,AF57/Conversions!$B$3)</f>
@@ -41540,14 +41846,14 @@
         <v>6</v>
       </c>
       <c r="CO58" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP58" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ58" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR58" s="66">
         <f>IF(AF58&lt;0,0.01,AF58/Conversions!$B$3)</f>
@@ -41942,14 +42248,14 @@
         <v>6</v>
       </c>
       <c r="CO59" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP59" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOMUN</v>
       </c>
       <c r="CQ59" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR59" s="66">
         <f>IF(AF59&lt;0,0.01,AF59/Conversions!$B$3)</f>
@@ -42341,17 +42647,17 @@
         <v>Willow - Hi</v>
       </c>
       <c r="CN60" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO60" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP60" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ60" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR60" s="66">
         <f>IF(AF60&lt;0,0.01,AF60/Conversions!$B$3)</f>
@@ -42743,17 +43049,17 @@
         <v>Miscanthus - Hi</v>
       </c>
       <c r="CN61" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO61" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP61" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOWOO</v>
       </c>
       <c r="CQ61" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR61" s="66">
         <f>IF(AF61&lt;0,0.01,AF61/Conversions!$B$3)</f>
@@ -43145,17 +43451,17 @@
         <v>Wheat - Hi</v>
       </c>
       <c r="CN62" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO62" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP62" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOCRP1</v>
       </c>
       <c r="CQ62" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR62" s="66">
         <f>IF(AF62&lt;0,0.01,AF62/Conversions!$B$3)</f>
@@ -43547,17 +43853,17 @@
         <v>OSR - Hi</v>
       </c>
       <c r="CN63" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO63" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP63" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIORPS</v>
       </c>
       <c r="CQ63" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR63" s="66">
         <f>IF(AF63&lt;0,0.01,AF63/Conversions!$B$3)</f>
@@ -43949,17 +44255,17 @@
         <v>Crops Anaerobic - Hi</v>
       </c>
       <c r="CN64" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO64" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP64" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOGAS</v>
       </c>
       <c r="CQ64" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR64" s="66">
         <f>IF(AF64&lt;0,0.01,AF64/Conversions!$B$3)</f>
@@ -44354,14 +44660,14 @@
         <v>6</v>
       </c>
       <c r="CO65" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP65" s="52" t="str">
         <f t="shared" si="12"/>
         <v>BIOSLU</v>
       </c>
       <c r="CQ65" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CR65" s="66">
         <f>IF(AF65&lt;0,0.01,AF65/Conversions!$B$3)</f>
@@ -44990,12 +45296,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45145,15 +45448,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45177,10 +45484,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>